--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bengt/Documents/SMHI/Algtoxiner Jordbruksverket/Toxiner i SHARK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B28702A-83C0-3D46-9E9F-ABD774DA26D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E83BD3-B404-4A98-97BB-6F6AA755ABC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="28305" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="320">
   <si>
     <t>Kortnamn-IOC</t>
   </si>
@@ -720,9 +720,6 @@
     <t>STX screening positive</t>
   </si>
   <si>
-    <t>XXX screening positive</t>
-  </si>
-  <si>
     <t>Enhet_MH</t>
   </si>
   <si>
@@ -874,6 +871,123 @@
   </si>
   <si>
     <t>NOD</t>
+  </si>
+  <si>
+    <t>MC_RR</t>
+  </si>
+  <si>
+    <t>MC_LR</t>
+  </si>
+  <si>
+    <t>MC_YR</t>
+  </si>
+  <si>
+    <t>MC_LA</t>
+  </si>
+  <si>
+    <t>MC_LF</t>
+  </si>
+  <si>
+    <t>MC_LW</t>
+  </si>
+  <si>
+    <t>MC_LY</t>
+  </si>
+  <si>
+    <t>MC_WR</t>
+  </si>
+  <si>
+    <t>MC_HilR</t>
+  </si>
+  <si>
+    <t>C1_2</t>
+  </si>
+  <si>
+    <t>C3_4</t>
+  </si>
+  <si>
+    <t>C1 and C2 screening positive</t>
+  </si>
+  <si>
+    <t>Domoic acid screening positive</t>
+  </si>
+  <si>
+    <t>dcNEO screening positive</t>
+  </si>
+  <si>
+    <t>GTX1 and 4 screening positive</t>
+  </si>
+  <si>
+    <t>GTX2 and 3 screening positive</t>
+  </si>
+  <si>
+    <t>dcGTX2 and 3 screening positive</t>
+  </si>
+  <si>
+    <t>MC_RR_D_Asp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>MC_LR_Dha7</t>
+  </si>
+  <si>
+    <t>MC_RR_Dha7</t>
+  </si>
+  <si>
+    <t>MC_HphR_DAsp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>MC_HtyR_D_Asp3_E_Dhb7</t>
+  </si>
+  <si>
+    <t>Microcystin-RR D-Asp3 E-Dhb7</t>
+  </si>
+  <si>
+    <t>Microcystin-LR Dha7</t>
+  </si>
+  <si>
+    <t>Microcystin-RR Dha7</t>
+  </si>
+  <si>
+    <t>Microcystin-HphR DAsp3 E-Dhb7</t>
+  </si>
+  <si>
+    <t>Microcystin-HtyR D-Asp3 E-Dhb7</t>
+  </si>
+  <si>
+    <t>Ana a</t>
+  </si>
+  <si>
+    <t>h Ana</t>
+  </si>
+  <si>
+    <t>Microcystin-HTyR</t>
+  </si>
+  <si>
+    <t>Microcystin-LR D-Asp3</t>
+  </si>
+  <si>
+    <t>Microcystin-RR D-Asp3</t>
+  </si>
+  <si>
+    <t>Ana_a</t>
+  </si>
+  <si>
+    <t>h_Ana</t>
+  </si>
+  <si>
+    <t>MC_HTyR</t>
+  </si>
+  <si>
+    <t>MC_LR_D_Asp3</t>
+  </si>
+  <si>
+    <t>MC_RR_D_Asp3</t>
+  </si>
+  <si>
+    <t>DA_LP205</t>
+  </si>
+  <si>
+    <t>PSP_tot</t>
   </si>
 </sst>
 </file>
@@ -930,7 +1044,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,6 +1063,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -962,7 +1082,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -974,6 +1094,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,9 +1118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1032,7 +1158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1138,7 +1264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1280,7 +1406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1290,35 +1416,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="980" topLeftCell="A24" activePane="bottomLeft"/>
-      <selection activeCell="D2" sqref="D2"/>
-      <selection pane="bottomLeft" activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.5" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1329,7 +1453,7 @@
         <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
@@ -1368,13 +1492,13 @@
         <v>190</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1602,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1530,7 +1654,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1586,7 +1710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1762,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1690,7 +1814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1866,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +1920,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>162</v>
       </c>
@@ -1838,15 +1962,17 @@
       <c r="O10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="Q10" s="8" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -1898,7 +2024,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>174</v>
       </c>
@@ -1920,11 +2046,13 @@
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P12" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1976,7 +2104,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -2058,13 +2186,13 @@
         <v>201</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2116,7 +2244,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>171</v>
       </c>
@@ -2146,13 +2274,13 @@
         <v>202</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2204,7 +2332,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
@@ -2233,12 +2361,12 @@
       <c r="P19" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2290,7 +2418,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>173</v>
       </c>
@@ -2312,11 +2440,13 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P21" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -2362,13 +2492,13 @@
         <v>204</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2420,7 +2550,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2472,7 +2602,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -2524,7 +2654,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -2576,7 +2706,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2626,7 +2756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -2676,7 +2806,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
@@ -2706,13 +2836,13 @@
         <v>206</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -2764,7 +2894,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -2794,13 +2924,13 @@
         <v>207</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -2852,7 +2982,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
@@ -2888,7 +3018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -2940,7 +3070,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>41</v>
       </c>
@@ -2976,7 +3106,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -3028,7 +3158,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -3080,7 +3210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>175</v>
       </c>
@@ -3102,11 +3232,11 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -3158,7 +3288,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -3210,7 +3340,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
@@ -3264,7 +3394,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>176</v>
       </c>
@@ -3286,11 +3416,13 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="6"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P42" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -3334,17 +3466,17 @@
       <c r="O43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P43" s="4" t="s">
+      <c r="P43" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="Q43" s="8" t="s">
+      <c r="Q43" s="7" t="s">
         <v>226</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -3396,7 +3528,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
@@ -3448,7 +3580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
@@ -3500,7 +3632,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
@@ -3550,7 +3682,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>44</v>
       </c>
@@ -3586,7 +3718,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -3640,7 +3772,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
@@ -3694,7 +3826,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -3748,16 +3880,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -3770,20 +3902,24 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P52" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="R52" s="13"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -3796,64 +3932,72 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P53" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="R53" s="13"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q54" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R54" s="13"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -3864,26 +4008,30 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P55" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="R55" s="13"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -3894,26 +4042,30 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P56" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="R56" s="13"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -3924,29 +4076,33 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P57" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="R57" s="13"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3956,404 +4112,462 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P58" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="R58" s="13"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O59" s="6">
         <v>45698</v>
       </c>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P59" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q59" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M60" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O60" s="6">
         <v>45698</v>
       </c>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P60" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q60" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M61" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O61" s="6">
         <v>45698</v>
       </c>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P61" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M62" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O62" s="6">
         <v>45698</v>
       </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P62" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q62" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M63" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O63" s="6">
         <v>45698</v>
       </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P63" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q63" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O64" s="6">
         <v>45698</v>
       </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P64" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q64" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O65" s="6">
         <v>45698</v>
       </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P65" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q65" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M66" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O66" s="6">
         <v>45698</v>
       </c>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P66" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q66" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M67" s="5" t="s">
         <v>50</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O67" s="6">
         <v>45698</v>
       </c>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P67" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q67" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -4366,26 +4580,32 @@
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P68" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q68" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -4398,26 +4618,32 @@
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P69" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q69" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
@@ -4430,26 +4656,32 @@
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P70" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q70" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -4462,26 +4694,32 @@
       </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P71" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q71" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -4494,12 +4732,18 @@
       </c>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
+      <c r="P72" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P51">
+  <sortState ref="A2:P51">
     <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bengt/Documents/SMHI/Algtoxiner Jordbruksverket/Toxiner i SHARK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E83BD3-B404-4A98-97BB-6F6AA755ABC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2674812C-77AD-A740-9D9C-18FD38653A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="28305" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="338">
   <si>
     <t>Kortnamn-IOC</t>
   </si>
@@ -870,9 +870,6 @@
     <t>Nodularin</t>
   </si>
   <si>
-    <t>NOD</t>
-  </si>
-  <si>
     <t>MC_RR</t>
   </si>
   <si>
@@ -988,6 +985,63 @@
   </si>
   <si>
     <t>PSP_tot</t>
+  </si>
+  <si>
+    <t>NOD-R</t>
+  </si>
+  <si>
+    <t>Nodularin-R</t>
+  </si>
+  <si>
+    <t>https://toxins.hais.ioc-unesco.org/toxins/473/</t>
+  </si>
+  <si>
+    <t>NOD_R</t>
+  </si>
+  <si>
+    <t>[D-Asp3]MC-LR</t>
+  </si>
+  <si>
+    <t>[D-Asp3]Microcystin-LR</t>
+  </si>
+  <si>
+    <t>https://toxins.hais.ioc-unesco.org/toxins/167/</t>
+  </si>
+  <si>
+    <t>https://toxins.hais.ioc-unesco.org/toxins/172/</t>
+  </si>
+  <si>
+    <t>[D-Asp3]Microcystin-RR</t>
+  </si>
+  <si>
+    <t>[D-Asp3]MC-RR</t>
+  </si>
+  <si>
+    <t>https://toxins.hais.ioc-unesco.org/toxins/68/</t>
+  </si>
+  <si>
+    <t>Microcystin-HtyR</t>
+  </si>
+  <si>
+    <t>MC-HtyR</t>
+  </si>
+  <si>
+    <t>https://toxins.hais.ioc-unesco.org/toxins/201/</t>
+  </si>
+  <si>
+    <t>[Dha7]Microcystin-LR</t>
+  </si>
+  <si>
+    <t>[Dha7]MC-LR</t>
+  </si>
+  <si>
+    <t>https://toxins.hais.ioc-unesco.org/toxins/202/</t>
+  </si>
+  <si>
+    <t>[Dha7]Microcystin-RR</t>
+  </si>
+  <si>
+    <t>[Dha7]MC-RR</t>
   </si>
 </sst>
 </file>
@@ -1082,21 +1136,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1118,9 +1171,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1158,7 +1211,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1264,7 +1317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1406,7 +1459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1416,33 +1469,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="880" topLeftCell="A31" activePane="bottomLeft"/>
+      <selection activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.5" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1498,7 +1553,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1534,10 +1589,10 @@
       <c r="M2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>45691</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -1550,7 +1605,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1589,7 +1644,7 @@
       <c r="N3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>45691</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -1602,7 +1657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1638,10 +1693,10 @@
       <c r="M4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>45691</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -1654,7 +1709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1694,10 +1749,10 @@
       <c r="M5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>45688</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -1710,7 +1765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1749,7 +1804,7 @@
       <c r="N6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>45691</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -1762,7 +1817,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1798,10 +1853,10 @@
       <c r="M7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>45691</v>
       </c>
       <c r="P7" s="4" t="s">
@@ -1814,7 +1869,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1853,7 +1908,7 @@
       <c r="N8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>45691</v>
       </c>
       <c r="P8" s="4" t="s">
@@ -1866,7 +1921,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1895,19 +1950,13 @@
         <v>160</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="6">
+      <c r="N9" s="4"/>
+      <c r="O9" s="5">
         <v>45691</v>
       </c>
       <c r="P9" s="4" t="s">
@@ -1920,7 +1969,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>162</v>
       </c>
@@ -1939,40 +1988,30 @@
       <c r="F10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>292</v>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -2008,10 +2047,10 @@
       <c r="M11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" t="s">
         <v>126</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>45691</v>
       </c>
       <c r="P11" s="4" t="s">
@@ -2024,8 +2063,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2044,15 +2083,14 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O12" s="5"/>
+      <c r="P12" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2074,9 +2112,7 @@
       <c r="G13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
@@ -2088,10 +2124,10 @@
       <c r="M13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" t="s">
         <v>126</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>45691</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -2104,7 +2140,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2140,10 +2176,10 @@
       <c r="M14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" t="s">
         <v>158</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>45691</v>
       </c>
       <c r="P14" s="4" t="s">
@@ -2156,8 +2192,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2166,33 +2202,23 @@
       <c r="C15" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
       <c r="G15" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
       <c r="M15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5" t="s">
+      <c r="P15" t="s">
         <v>201</v>
       </c>
-      <c r="Q15" s="8" t="s">
-        <v>297</v>
+      <c r="Q15" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2228,10 +2254,10 @@
       <c r="M16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" t="s">
         <v>138</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>45691</v>
       </c>
       <c r="P16" s="4" t="s">
@@ -2244,8 +2270,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2254,33 +2280,23 @@
       <c r="C17" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
       <c r="G17" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
       <c r="M17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5" t="s">
+      <c r="P17" t="s">
         <v>202</v>
       </c>
-      <c r="Q17" s="8" t="s">
-        <v>294</v>
+      <c r="Q17" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2319,7 +2335,7 @@
       <c r="N18" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>45691</v>
       </c>
       <c r="P18" s="4" t="s">
@@ -2332,8 +2348,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2351,22 +2367,18 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
       <c r="M19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5" t="s">
+      <c r="P19" t="s">
         <v>203</v>
       </c>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2417,7 @@
       <c r="N20" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>45691</v>
       </c>
       <c r="P20" s="4" t="s">
@@ -2418,8 +2430,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2439,14 +2451,14 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O21" s="5"/>
+      <c r="P21" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -2468,37 +2480,31 @@
       <c r="G22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>45691</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>293</v>
+      <c r="Q22" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2528,29 +2534,24 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>45691</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="7" t="s">
         <v>220</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2586,10 +2587,10 @@
       <c r="M24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" t="s">
         <v>103</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>45691</v>
       </c>
       <c r="P24" s="4" t="s">
@@ -2602,7 +2603,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -2641,7 +2642,7 @@
       <c r="N25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>45691</v>
       </c>
       <c r="P25" s="4" t="s">
@@ -2654,7 +2655,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -2693,7 +2694,7 @@
       <c r="N26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>45691</v>
       </c>
       <c r="P26" s="4" t="s">
@@ -2706,7 +2707,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2733,30 +2734,25 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N27" s="5"/>
-      <c r="O27" s="6">
+      <c r="O27" s="5">
         <v>45691</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="7" t="s">
         <v>221</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -2781,21 +2777,13 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
       <c r="P28" s="4" t="s">
         <v>205</v>
       </c>
@@ -2806,8 +2794,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2831,18 +2819,18 @@
         <v>54</v>
       </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="6"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="Q29" s="8" t="s">
-        <v>295</v>
+      <c r="Q29" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -2881,7 +2869,7 @@
       <c r="N30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <v>45691</v>
       </c>
       <c r="P30" s="4" t="s">
@@ -2894,8 +2882,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2913,24 +2901,20 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
       <c r="M31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5" t="s">
+      <c r="P31" t="s">
         <v>207</v>
       </c>
-      <c r="Q31" s="8" t="s">
-        <v>296</v>
+      <c r="Q31" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -2969,7 +2953,7 @@
       <c r="N32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>45691</v>
       </c>
       <c r="P32" s="4" t="s">
@@ -2982,8 +2966,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3001,24 +2985,20 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
       <c r="M33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5" t="s">
+      <c r="P33" t="s">
         <v>208</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="7" t="s">
         <v>223</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -3057,7 +3037,7 @@
       <c r="N34" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <v>45691</v>
       </c>
       <c r="P34" s="4" t="s">
@@ -3070,8 +3050,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3089,24 +3069,20 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
       <c r="M35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
       <c r="P35" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="7" t="s">
         <v>224</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -3128,9 +3104,7 @@
       <c r="G36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
@@ -3145,7 +3119,7 @@
       <c r="N36" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <v>45691</v>
       </c>
       <c r="P36" s="4" t="s">
@@ -3158,7 +3132,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -3197,7 +3171,7 @@
       <c r="N37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="5">
         <v>45691</v>
       </c>
       <c r="P37" s="4" t="s">
@@ -3210,8 +3184,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3231,12 +3205,12 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O38" s="5"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -3275,7 +3249,7 @@
       <c r="N39" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <v>45691</v>
       </c>
       <c r="P39" s="4" t="s">
@@ -3288,7 +3262,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -3315,19 +3289,13 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O40" s="6">
+      <c r="N40" s="4"/>
+      <c r="O40" s="5">
         <v>45691</v>
       </c>
       <c r="P40" s="4" t="s">
@@ -3340,7 +3308,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
@@ -3381,7 +3349,7 @@
       <c r="N41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="5">
         <v>45691</v>
       </c>
       <c r="P41" s="4" t="s">
@@ -3394,8 +3362,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3415,14 +3383,14 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O42" s="5"/>
+      <c r="P42" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -3451,32 +3419,24 @@
         <v>800</v>
       </c>
       <c r="J43" s="4"/>
-      <c r="K43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" s="7" t="s">
+      <c r="N43" s="4"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="Q43" s="7" t="s">
+      <c r="Q43" s="6" t="s">
         <v>226</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -3515,7 +3475,7 @@
       <c r="N44" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="5">
         <v>45691</v>
       </c>
       <c r="P44" s="4" t="s">
@@ -3528,7 +3488,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
@@ -3567,7 +3527,7 @@
       <c r="N45" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="5">
         <v>45691</v>
       </c>
       <c r="P45" s="4" t="s">
@@ -3580,7 +3540,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
@@ -3607,32 +3567,26 @@
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="N46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O46" s="6">
+      <c r="N46" s="4"/>
+      <c r="O46" s="5">
         <v>45691</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="7" t="s">
         <v>227</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
@@ -3657,33 +3611,27 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="N47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O47" s="6">
+      <c r="N47" s="4"/>
+      <c r="O47" s="5">
         <v>45691</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Q47" s="8" t="s">
+      <c r="Q47" s="7" t="s">
         <v>160</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3692,33 +3640,23 @@
       <c r="C48" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
       <c r="G48" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
       <c r="M48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5" t="s">
+      <c r="P48" t="s">
         <v>213</v>
       </c>
-      <c r="Q48" s="8" t="s">
+      <c r="Q48" s="7" t="s">
         <v>229</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -3756,10 +3694,10 @@
       <c r="M49" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N49" s="5" t="s">
+      <c r="N49" t="s">
         <v>126</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="5">
         <v>45691</v>
       </c>
       <c r="P49" s="4" t="s">
@@ -3772,7 +3710,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
@@ -3813,7 +3751,7 @@
       <c r="N50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="5">
         <v>45691</v>
       </c>
       <c r="P50" s="4" t="s">
@@ -3826,7 +3764,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -3855,96 +3793,75 @@
         <v>3.75</v>
       </c>
       <c r="J51" s="4"/>
-      <c r="K51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O51" s="6" t="s">
+      <c r="N51" s="4"/>
+      <c r="O51" s="5" t="s">
         <v>53</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="Q51" s="8" t="s">
+      <c r="Q51" s="7" t="s">
         <v>228</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="5"/>
       <c r="C52" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q52" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="R52" s="13"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="M52" t="s">
+        <v>50</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>233</v>
       </c>
-      <c r="B53" s="5"/>
       <c r="C53" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q53" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="R53" s="13"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="M53" t="s">
+        <v>50</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="R53" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>255</v>
       </c>
-      <c r="B54" s="5"/>
       <c r="C54" s="4" t="s">
         <v>184</v>
       </c>
@@ -3960,181 +3877,221 @@
       <c r="G54" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
       <c r="K54" s="4" t="s">
         <v>255</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5" t="s">
+      <c r="M54" t="s">
+        <v>50</v>
+      </c>
+      <c r="N54" t="s">
         <v>253</v>
       </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5" t="s">
+      <c r="O54" s="5">
+        <v>45698</v>
+      </c>
+      <c r="P54" t="s">
         <v>255</v>
       </c>
-      <c r="Q54" s="8" t="s">
+      <c r="Q54" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="R54" s="13"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="R54" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>234</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" t="s">
         <v>252</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" t="s">
         <v>260</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" t="s">
         <v>259</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="11" t="s">
+      <c r="G55" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="M55" t="s">
+        <v>50</v>
+      </c>
+      <c r="N55" t="s">
+        <v>329</v>
+      </c>
+      <c r="O55" s="5">
+        <v>45700</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" t="s">
+        <v>260</v>
+      </c>
+      <c r="F56" t="s">
+        <v>259</v>
+      </c>
+      <c r="G56" t="s">
+        <v>323</v>
+      </c>
+      <c r="K56" t="s">
+        <v>323</v>
+      </c>
+      <c r="L56" t="s">
+        <v>324</v>
+      </c>
+      <c r="M56" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" t="s">
+        <v>325</v>
+      </c>
+      <c r="O56" s="5">
+        <v>45700</v>
+      </c>
+      <c r="P56" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q56" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="R55" s="13"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="R56" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" t="s">
         <v>252</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" t="s">
         <v>260</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F57" t="s">
         <v>259</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="15" t="s">
+      <c r="G57" t="s">
+        <v>328</v>
+      </c>
+      <c r="K57" t="s">
+        <v>328</v>
+      </c>
+      <c r="L57" t="s">
+        <v>327</v>
+      </c>
+      <c r="M57" t="s">
+        <v>50</v>
+      </c>
+      <c r="N57" t="s">
+        <v>326</v>
+      </c>
+      <c r="O57" s="5">
+        <v>45700</v>
+      </c>
+      <c r="P57" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q57" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="R56" s="13"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="R57" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E58" t="s">
+        <v>279</v>
+      </c>
+      <c r="F58" t="s">
+        <v>278</v>
+      </c>
+      <c r="G58" t="s">
+        <v>319</v>
+      </c>
+      <c r="K58" t="s">
+        <v>319</v>
+      </c>
+      <c r="L58" t="s">
+        <v>320</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N58" t="s">
+        <v>321</v>
+      </c>
+      <c r="O58" s="5">
+        <v>45700</v>
+      </c>
+      <c r="P58" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="R58" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" t="s">
         <v>260</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q57" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="R57" s="13"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q58" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="R58" s="13"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" t="s">
         <v>259</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -4155,595 +4112,548 @@
       <c r="N59" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="5">
         <v>45698</v>
       </c>
-      <c r="P59" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q59" s="16" t="s">
+      <c r="P59" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q59" s="15" t="s">
         <v>275</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s">
         <v>252</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" t="s">
         <v>260</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" t="s">
         <v>259</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" t="s">
         <v>239</v>
       </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5" t="s">
+      <c r="K60" t="s">
         <v>239</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="L60" t="s">
         <v>257</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" t="s">
         <v>50</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" t="s">
         <v>258</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60" s="5">
         <v>45698</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="R60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" t="s">
+        <v>240</v>
+      </c>
+      <c r="K61" t="s">
+        <v>240</v>
+      </c>
+      <c r="L61" t="s">
+        <v>276</v>
+      </c>
+      <c r="M61" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61" t="s">
+        <v>277</v>
+      </c>
+      <c r="O61" s="5">
+        <v>45698</v>
+      </c>
+      <c r="P61" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="Q60" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="R60" s="5" t="s">
+      <c r="Q61" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R61" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="5" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" t="s">
         <v>252</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E62" t="s">
         <v>260</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F62" t="s">
         <v>259</v>
       </c>
-      <c r="G61" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="M61" s="5" t="s">
+      <c r="G62" t="s">
+        <v>241</v>
+      </c>
+      <c r="K62" t="s">
+        <v>241</v>
+      </c>
+      <c r="L62" t="s">
+        <v>263</v>
+      </c>
+      <c r="M62" t="s">
         <v>50</v>
       </c>
-      <c r="N61" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O61" s="6">
+      <c r="N62" t="s">
+        <v>262</v>
+      </c>
+      <c r="O62" s="5">
         <v>45698</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P62" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="Q61" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="R61" s="5" t="s">
+      <c r="Q62" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="R62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="5" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" t="s">
         <v>252</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" t="s">
         <v>260</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F63" t="s">
         <v>259</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="M62" s="5" t="s">
+      <c r="G63" t="s">
+        <v>242</v>
+      </c>
+      <c r="K63" t="s">
+        <v>242</v>
+      </c>
+      <c r="L63" t="s">
+        <v>265</v>
+      </c>
+      <c r="M63" t="s">
         <v>50</v>
       </c>
-      <c r="N62" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="O62" s="6">
+      <c r="N63" t="s">
+        <v>264</v>
+      </c>
+      <c r="O63" s="5">
         <v>45698</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P63" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="Q62" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="R62" s="5" t="s">
+      <c r="Q63" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="R63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" t="s">
+        <v>260</v>
+      </c>
+      <c r="F64" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" t="s">
+        <v>243</v>
+      </c>
+      <c r="K64" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="L64" t="s">
+        <v>266</v>
+      </c>
+      <c r="M64" t="s">
+        <v>50</v>
+      </c>
+      <c r="N64" t="s">
+        <v>270</v>
+      </c>
+      <c r="O64" s="5">
+        <v>45698</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="R64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" t="s">
         <v>252</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E65" t="s">
         <v>260</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F65" t="s">
         <v>259</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G65" t="s">
+        <v>244</v>
+      </c>
+      <c r="K65" t="s">
         <v>242</v>
       </c>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5" t="s">
+      <c r="L65" t="s">
+        <v>267</v>
+      </c>
+      <c r="M65" t="s">
+        <v>50</v>
+      </c>
+      <c r="N65" t="s">
+        <v>271</v>
+      </c>
+      <c r="O65" s="5">
+        <v>45698</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="R65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" t="s">
+        <v>259</v>
+      </c>
+      <c r="G66" t="s">
+        <v>245</v>
+      </c>
+      <c r="K66" t="s">
         <v>242</v>
       </c>
-      <c r="L63" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="M63" s="5" t="s">
+      <c r="L66" t="s">
+        <v>268</v>
+      </c>
+      <c r="M66" t="s">
         <v>50</v>
       </c>
-      <c r="N63" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="O63" s="6">
+      <c r="N66" t="s">
+        <v>272</v>
+      </c>
+      <c r="O66" s="5">
         <v>45698</v>
       </c>
-      <c r="P63" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q63" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="R63" s="5" t="s">
+      <c r="P66" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="R66" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="5" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" t="s">
         <v>252</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E67" t="s">
         <v>260</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F67" t="s">
         <v>259</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5" t="s">
+      <c r="G67" t="s">
+        <v>246</v>
+      </c>
+      <c r="K67" t="s">
         <v>242</v>
       </c>
-      <c r="L64" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="M64" s="5" t="s">
+      <c r="L67" t="s">
+        <v>269</v>
+      </c>
+      <c r="M67" t="s">
         <v>50</v>
       </c>
-      <c r="N64" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="O64" s="6">
+      <c r="N67" t="s">
+        <v>273</v>
+      </c>
+      <c r="O67" s="5">
         <v>45698</v>
       </c>
-      <c r="P64" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q64" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="R64" s="5" t="s">
+      <c r="P67" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="R67" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="5" t="s">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" t="s">
         <v>252</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E68" t="s">
         <v>260</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F68" t="s">
         <v>259</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="M65" s="5" t="s">
+      <c r="M68" t="s">
         <v>50</v>
       </c>
-      <c r="N65" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="O65" s="6">
-        <v>45698</v>
-      </c>
-      <c r="P65" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q65" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="R65" s="5" t="s">
+      <c r="P68" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="R68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="5" t="s">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E69" t="s">
         <v>260</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F69" t="s">
         <v>259</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="M66" s="5" t="s">
+      <c r="G69" t="s">
+        <v>334</v>
+      </c>
+      <c r="K69" t="s">
+        <v>334</v>
+      </c>
+      <c r="L69" t="s">
+        <v>333</v>
+      </c>
+      <c r="M69" t="s">
         <v>50</v>
       </c>
-      <c r="N66" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="O66" s="6">
-        <v>45698</v>
-      </c>
-      <c r="P66" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q66" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="R66" s="5" t="s">
+      <c r="N69" t="s">
+        <v>332</v>
+      </c>
+      <c r="O69" s="5">
+        <v>45700</v>
+      </c>
+      <c r="P69" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q69" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="R69" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="5" t="s">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="s">
         <v>252</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E70" t="s">
         <v>260</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F70" t="s">
         <v>259</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="M67" s="5" t="s">
+      <c r="G70" t="s">
+        <v>337</v>
+      </c>
+      <c r="K70" t="s">
+        <v>337</v>
+      </c>
+      <c r="L70" t="s">
+        <v>336</v>
+      </c>
+      <c r="M70" t="s">
         <v>50</v>
       </c>
-      <c r="N67" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="O67" s="6">
-        <v>45698</v>
-      </c>
-      <c r="P67" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q67" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="R67" s="5" t="s">
+      <c r="N70" t="s">
+        <v>335</v>
+      </c>
+      <c r="O70" s="5">
+        <v>45700</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="R70" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="5" t="s">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
         <v>252</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E71" t="s">
         <v>260</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F71" t="s">
         <v>259</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5" t="s">
+      <c r="M71" t="s">
         <v>50</v>
       </c>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q68" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="R68" s="5" t="s">
+      <c r="P71" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="R71" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="5" t="s">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" t="s">
         <v>252</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E72" t="s">
         <v>260</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F72" t="s">
         <v>259</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5" t="s">
+      <c r="M72" t="s">
         <v>50</v>
       </c>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q69" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="R69" s="5" t="s">
+      <c r="P72" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="R72" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q70" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q71" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q72" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="R72" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:P51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P51">
     <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bengt/Documents/SMHI/Algtoxiner Jordbruksverket/Toxiner i SHARK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2674812C-77AD-A740-9D9C-18FD38653A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F22D506-7905-4FA1-A77E-A6A13959047F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="343">
   <si>
     <t>Kortnamn-IOC</t>
   </si>
@@ -1042,6 +1042,21 @@
   </si>
   <si>
     <t>[Dha7]MC-RR</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Namn</t>
+  </si>
+  <si>
+    <t>Shortname</t>
+  </si>
+  <si>
+    <t>Merge_MH</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1153,6 +1168,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,9 +1187,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1211,7 +1227,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1317,7 +1333,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1459,7 +1475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1467,37 +1483,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="880" topLeftCell="A31" activePane="bottomLeft"/>
-      <selection activeCell="F32" sqref="F32"/>
-      <selection pane="bottomLeft" activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.5" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="46.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.453125" customWidth="1"/>
+    <col min="15" max="15" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1552,8 +1567,11 @@
       <c r="R1" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1604,8 +1622,12 @@
       <c r="R2" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" t="str">
+        <f>CONCATENATE(P2, " (", R2, ")")</f>
+        <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1656,8 +1678,12 @@
       <c r="R3" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S66" si="0">CONCATENATE(P3, " (", R3, ")")</f>
+        <v>45_OH_homoYTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1708,8 +1734,12 @@
       <c r="R4" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" t="str">
+        <f t="shared" si="0"/>
+        <v>45_OH_YTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1794,12 @@
       <c r="R5" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" t="str">
+        <f t="shared" si="0"/>
+        <v>DA (mg/kg)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1816,8 +1850,12 @@
       <c r="R6" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" t="str">
+        <f t="shared" si="0"/>
+        <v>AZA1 (ug AZA eq/kg)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1868,8 +1906,12 @@
       <c r="R7" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" t="str">
+        <f t="shared" si="0"/>
+        <v>AZA2 (ug AZA eq/kg)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1920,8 +1962,12 @@
       <c r="R8" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" t="str">
+        <f t="shared" si="0"/>
+        <v>AZA3 (ug AZA eq/kg)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1968,8 +2014,12 @@
       <c r="R9" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" t="str">
+        <f t="shared" si="0"/>
+        <v>AZA_tot (ug AZA eq/kg)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>162</v>
       </c>
@@ -2010,8 +2060,12 @@
       <c r="R10" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" t="str">
+        <f t="shared" si="0"/>
+        <v>C1_2 (true or false)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -2062,8 +2116,12 @@
       <c r="R11" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" t="str">
+        <f t="shared" si="0"/>
+        <v>STX C1_C2 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>174</v>
       </c>
@@ -2087,10 +2145,18 @@
       <c r="P12" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q12" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="0"/>
+        <v>C3_4 (Unit)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2139,8 +2205,12 @@
       <c r="R13" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" t="str">
+        <f t="shared" si="0"/>
+        <v>STX C3_C4 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2191,8 +2261,12 @@
       <c r="R14" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" t="str">
+        <f t="shared" si="0"/>
+        <v>CarboxyYTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
@@ -2217,8 +2291,12 @@
       <c r="R15" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" t="str">
+        <f t="shared" si="0"/>
+        <v>dcGTX2_3_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2269,8 +2347,12 @@
       <c r="R16" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16" t="str">
+        <f t="shared" si="0"/>
+        <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>171</v>
       </c>
@@ -2295,8 +2377,12 @@
       <c r="R17" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17" t="str">
+        <f t="shared" si="0"/>
+        <v>dcNEO_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2347,8 +2433,12 @@
       <c r="R18" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18" t="str">
+        <f t="shared" si="0"/>
+        <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
@@ -2373,12 +2463,18 @@
       <c r="P19" t="s">
         <v>203</v>
       </c>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="12" t="s">
+        <v>338</v>
+      </c>
       <c r="R19" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19" t="str">
+        <f t="shared" si="0"/>
+        <v>dcSTX_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2429,8 +2525,12 @@
       <c r="R20" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20" t="str">
+        <f t="shared" si="0"/>
+        <v>dcSTX (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>173</v>
       </c>
@@ -2455,10 +2555,18 @@
       <c r="P21" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q21" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="0"/>
+        <v>DA_LP205 (Unit)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -2503,8 +2611,12 @@
       <c r="R22" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22" t="str">
+        <f t="shared" si="0"/>
+        <v>DA_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2550,8 +2662,12 @@
       <c r="R23" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23" t="str">
+        <f t="shared" si="0"/>
+        <v>DST_tot (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2602,8 +2718,12 @@
       <c r="R24" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24" t="str">
+        <f t="shared" si="0"/>
+        <v>DTX1 (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -2654,8 +2774,12 @@
       <c r="R25" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" t="str">
+        <f t="shared" si="0"/>
+        <v>DTX3 (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -2706,8 +2830,12 @@
       <c r="R26" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26" t="str">
+        <f t="shared" si="0"/>
+        <v>DTX2 (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2751,8 +2879,12 @@
       <c r="R27" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27" t="str">
+        <f t="shared" si="0"/>
+        <v>DTX2_acyl (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -2793,8 +2925,12 @@
       <c r="R28" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28" t="str">
+        <f t="shared" si="0"/>
+        <v>E_coli (cells/100 g)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
@@ -2829,8 +2965,12 @@
       <c r="R29" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S29" t="str">
+        <f t="shared" si="0"/>
+        <v>GTX1_4_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -2881,8 +3021,12 @@
       <c r="R30" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S30" t="str">
+        <f t="shared" si="0"/>
+        <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -2913,8 +3057,12 @@
       <c r="R31" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S31" t="str">
+        <f t="shared" si="0"/>
+        <v>GTX2_3_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -2965,8 +3113,12 @@
       <c r="R32" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S32" t="str">
+        <f t="shared" si="0"/>
+        <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -2997,8 +3149,12 @@
       <c r="R33" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S33" t="str">
+        <f t="shared" si="0"/>
+        <v>GTX5_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -3049,8 +3205,12 @@
       <c r="R34" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S34" t="str">
+        <f t="shared" si="0"/>
+        <v>GTX5 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
@@ -3081,8 +3241,12 @@
       <c r="R35" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S35" t="str">
+        <f t="shared" si="0"/>
+        <v>GTX6_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -3131,8 +3295,12 @@
       <c r="R36" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S36" t="str">
+        <f t="shared" si="0"/>
+        <v>GTX6 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -3183,8 +3351,12 @@
       <c r="R37" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" t="str">
+        <f t="shared" si="0"/>
+        <v>HomoYTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>175</v>
       </c>
@@ -3206,11 +3378,21 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P38" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="0"/>
+        <v>Shortname (Unit)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -3261,8 +3443,12 @@
       <c r="R39" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S39" t="str">
+        <f t="shared" si="0"/>
+        <v>NeoSTX (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -3307,8 +3493,12 @@
       <c r="R40" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S40" t="str">
+        <f t="shared" si="0"/>
+        <v>OA_acyl (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
@@ -3361,8 +3551,12 @@
       <c r="R41" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S41" t="str">
+        <f t="shared" si="0"/>
+        <v>Okadaic acid (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>176</v>
       </c>
@@ -3387,10 +3581,18 @@
       <c r="P42" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q42" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="0"/>
+        <v>PSP_tot (Unit)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -3435,8 +3637,12 @@
       <c r="R43" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S43" t="str">
+        <f t="shared" si="0"/>
+        <v>PST_tot (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -3487,8 +3693,12 @@
       <c r="R44" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S44" t="str">
+        <f t="shared" si="0"/>
+        <v>PTX1 (ug PTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
@@ -3539,8 +3749,12 @@
       <c r="R45" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S45" t="str">
+        <f t="shared" si="0"/>
+        <v>PTX2 (ug PTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
@@ -3585,8 +3799,12 @@
       <c r="R46" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S46" t="str">
+        <f t="shared" si="0"/>
+        <v>PTX_tot (ug PTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
@@ -3629,8 +3847,12 @@
       <c r="R47" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S47" t="str">
+        <f t="shared" si="0"/>
+        <v>SPX1 (ug/kg)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -3655,8 +3877,12 @@
       <c r="R48" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S48" t="str">
+        <f t="shared" si="0"/>
+        <v>STX_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -3709,8 +3935,12 @@
       <c r="R49" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S49" t="str">
+        <f t="shared" si="0"/>
+        <v>STX (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
@@ -3763,8 +3993,12 @@
       <c r="R50" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S50" t="str">
+        <f t="shared" si="0"/>
+        <v>YTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -3811,8 +4045,12 @@
       <c r="R51" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S51" t="str">
+        <f t="shared" si="0"/>
+        <v>YTX_tot (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -3831,11 +4069,15 @@
       <c r="Q52" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="R52" s="12" t="s">
+      <c r="R52" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S52" t="str">
+        <f t="shared" si="0"/>
+        <v>Ana_a (mg/kg)</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -3854,11 +4096,15 @@
       <c r="Q53" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="R53" s="12" t="s">
+      <c r="R53" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S53" t="str">
+        <f t="shared" si="0"/>
+        <v>h_Ana (mg/kg)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>255</v>
       </c>
@@ -3898,11 +4144,15 @@
       <c r="Q54" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="R54" s="12" t="s">
+      <c r="R54" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S54" t="str">
+        <f t="shared" si="0"/>
+        <v>CYN (mg/kg)</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>234</v>
       </c>
@@ -3942,11 +4192,15 @@
       <c r="Q55" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="R55" s="12" t="s">
+      <c r="R55" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S55" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_HTyR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>235</v>
       </c>
@@ -3986,11 +4240,15 @@
       <c r="Q56" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="R56" s="12" t="s">
+      <c r="R56" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S56" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_LR_D_Asp3 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>236</v>
       </c>
@@ -4030,11 +4288,15 @@
       <c r="Q57" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="R57" s="12" t="s">
+      <c r="R57" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S57" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_RR_D_Asp3 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>237</v>
       </c>
@@ -4074,11 +4336,15 @@
       <c r="Q58" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="R58" s="12" t="s">
+      <c r="R58" s="16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S58" t="str">
+        <f t="shared" si="0"/>
+        <v>NOD_R (mg/kg)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -4124,8 +4390,12 @@
       <c r="R59" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S59" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_RR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>239</v>
       </c>
@@ -4168,8 +4438,12 @@
       <c r="R60" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S60" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_LR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>240</v>
       </c>
@@ -4212,8 +4486,12 @@
       <c r="R61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S61" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_YR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>241</v>
       </c>
@@ -4256,8 +4534,12 @@
       <c r="R62" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S62" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_LA (mg/kg)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>242</v>
       </c>
@@ -4300,8 +4582,12 @@
       <c r="R63" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S63" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_LF (mg/kg)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -4344,8 +4630,12 @@
       <c r="R64" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S64" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_LW (mg/kg)</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -4388,8 +4678,12 @@
       <c r="R65" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S65" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_LY (mg/kg)</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>245</v>
       </c>
@@ -4432,8 +4726,12 @@
       <c r="R66" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S66" t="str">
+        <f t="shared" si="0"/>
+        <v>MC_WR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>246</v>
       </c>
@@ -4476,8 +4774,12 @@
       <c r="R67" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S67" t="str">
+        <f t="shared" ref="S67:S72" si="1">CONCATENATE(P67, " (", R67, ")")</f>
+        <v>MC_HilR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>247</v>
       </c>
@@ -4505,8 +4807,12 @@
       <c r="R68" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S68" t="str">
+        <f t="shared" si="1"/>
+        <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>248</v>
       </c>
@@ -4549,8 +4855,12 @@
       <c r="R69" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S69" t="str">
+        <f t="shared" si="1"/>
+        <v>MC_LR_Dha7 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>249</v>
       </c>
@@ -4593,8 +4903,12 @@
       <c r="R70" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S70" t="str">
+        <f t="shared" si="1"/>
+        <v>MC_RR_Dha7 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>250</v>
       </c>
@@ -4622,8 +4936,12 @@
       <c r="R71" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S71" t="str">
+        <f t="shared" si="1"/>
+        <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>251</v>
       </c>
@@ -4651,9 +4969,13 @@
       <c r="R72" t="s">
         <v>50</v>
       </c>
+      <c r="S72" t="str">
+        <f t="shared" si="1"/>
+        <v>MC_HtyR_D_Asp3_E_Dhb7 (mg/kg)</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P51">
+  <sortState ref="A2:P51">
     <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderstorstensson/Dropbox/R/SLV-Biotoxin-Validator-App/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F22D506-7905-4FA1-A77E-A6A13959047F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3E57F3-39CD-9D45-9C2B-B133671167F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18640" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$O$48</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -612,12 +612,6 @@
     <t>45_OH_YTX</t>
   </si>
   <si>
-    <t>STX C1_C2</t>
-  </si>
-  <si>
-    <t>STX C3_C4</t>
-  </si>
-  <si>
     <t>dcGTX2_dcGTX3</t>
   </si>
   <si>
@@ -1057,6 +1051,12 @@
   </si>
   <si>
     <t>Merge_MH</t>
+  </si>
+  <si>
+    <t>STX_C3_C4</t>
+  </si>
+  <si>
+    <t>STX_C1_C2</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1485,34 +1485,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
   <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="L3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="46.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.453125" customWidth="1"/>
-    <col min="15" max="15" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.5" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
@@ -1562,16 +1562,16 @@
         <v>190</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>45_OH_homoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>45_OH_YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>DA (mg/kg)</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>AZA1 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>AZA2 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>AZA3 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2006,10 +2006,10 @@
         <v>45691</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>185</v>
@@ -2019,7 +2019,7 @@
         <v>AZA_tot (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>162</v>
       </c>
@@ -2052,20 +2052,20 @@
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="Q10" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="R10" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="0"/>
         <v>C1_2 (true or false)</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -2108,20 +2108,20 @@
         <v>45691</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>186</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="0"/>
-        <v>STX C1_C2 (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <v>STX_C1_C2 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>174</v>
       </c>
@@ -2143,20 +2143,20 @@
       <c r="M12" s="4"/>
       <c r="O12" s="5"/>
       <c r="P12" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="0"/>
         <v>C3_4 (Unit)</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2197,20 +2197,20 @@
         <v>45691</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>195</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>186</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="0"/>
-        <v>STX C3_C4 (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+        <v>STX_C3_C4 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>CarboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
@@ -2283,20 +2283,20 @@
         <v>54</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="0"/>
         <v>dcGTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2339,10 +2339,10 @@
         <v>45691</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>186</v>
@@ -2352,7 +2352,7 @@
         <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>171</v>
       </c>
@@ -2369,20 +2369,20 @@
         <v>54</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="0"/>
         <v>dcNEO_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
@@ -2461,20 +2461,20 @@
         <v>54</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="0"/>
         <v>dcSTX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>dcSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>173</v>
       </c>
@@ -2553,20 +2553,20 @@
       <c r="N21" s="4"/>
       <c r="O21" s="5"/>
       <c r="P21" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" si="0"/>
         <v>DA_LP205 (Unit)</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -2603,20 +2603,20 @@
         <v>45691</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S22" t="str">
         <f t="shared" si="0"/>
         <v>DA_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2654,10 +2654,10 @@
         <v>45691</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>187</v>
@@ -2667,7 +2667,7 @@
         <v>DST_tot (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>DTX1 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>DTX3 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>DTX2 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>111</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>187</v>
@@ -2884,7 +2884,7 @@
         <v>DTX2_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -2917,10 +2917,10 @@
       <c r="N28" s="4"/>
       <c r="O28" s="5"/>
       <c r="P28" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>161</v>
@@ -2930,7 +2930,7 @@
         <v>E_coli (cells/100 g)</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
@@ -2957,20 +2957,20 @@
       <c r="N29" s="4"/>
       <c r="O29" s="5"/>
       <c r="P29" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S29" t="str">
         <f t="shared" si="0"/>
         <v>GTX1_4_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -3013,10 +3013,10 @@
         <v>45691</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>186</v>
@@ -3026,7 +3026,7 @@
         <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -3049,20 +3049,20 @@
         <v>54</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S31" t="str">
         <f t="shared" si="0"/>
         <v>GTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -3105,10 +3105,10 @@
         <v>45691</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>186</v>
@@ -3118,7 +3118,7 @@
         <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -3141,20 +3141,20 @@
         <v>54</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S33" t="str">
         <f t="shared" si="0"/>
         <v>GTX5_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>GTX5 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
@@ -3233,20 +3233,20 @@
         <v>54</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" si="0"/>
         <v>GTX6_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>GTX6 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>HomoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>175</v>
       </c>
@@ -3379,20 +3379,20 @@
       <c r="N38" s="4"/>
       <c r="O38" s="5"/>
       <c r="P38" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S38" t="str">
         <f t="shared" si="0"/>
         <v>Shortname (Unit)</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>NeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>110</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R40" s="4" t="s">
         <v>187</v>
@@ -3498,7 +3498,7 @@
         <v>OA_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>Okadaic acid (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>176</v>
       </c>
@@ -3579,20 +3579,20 @@
       <c r="N42" s="4"/>
       <c r="O42" s="5"/>
       <c r="P42" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S42" t="str">
         <f t="shared" si="0"/>
         <v>PSP_tot (Unit)</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -3629,10 +3629,10 @@
       <c r="N43" s="4"/>
       <c r="O43" s="5"/>
       <c r="P43" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>186</v>
@@ -3642,7 +3642,7 @@
         <v>PST_tot (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>PTX1 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>PTX2 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
@@ -3791,10 +3791,10 @@
         <v>45691</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>188</v>
@@ -3804,7 +3804,7 @@
         <v>PTX_tot (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>SPX1 (ug/kg)</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -3869,20 +3869,20 @@
         <v>54</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="S48" t="str">
         <f t="shared" si="0"/>
         <v>STX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>STX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -4037,10 +4037,10 @@
         <v>53</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>67</v>
@@ -4050,24 +4050,24 @@
         <v>YTX_tot (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M52" t="s">
         <v>50</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>50</v>
@@ -4077,24 +4077,24 @@
         <v>Ana_a (mg/kg)</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M53" t="s">
         <v>50</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R53" s="16" t="s">
         <v>50</v>
@@ -4104,45 +4104,45 @@
         <v>h_Ana (mg/kg)</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D54" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="G54" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M54" t="s">
         <v>50</v>
       </c>
       <c r="N54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O54" s="5">
         <v>45698</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="R54" s="16" t="s">
         <v>50</v>
@@ -4152,45 +4152,45 @@
         <v>CYN (mg/kg)</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
         <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F55" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M55" t="s">
         <v>50</v>
       </c>
       <c r="N55" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O55" s="5">
         <v>45700</v>
       </c>
       <c r="P55" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>50</v>
@@ -4200,45 +4200,45 @@
         <v>MC_HTyR (mg/kg)</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
         <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F56" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M56" t="s">
         <v>50</v>
       </c>
       <c r="N56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O56" s="5">
         <v>45700</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R56" s="16" t="s">
         <v>50</v>
@@ -4248,45 +4248,45 @@
         <v>MC_LR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
         <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G57" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K57" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M57" t="s">
         <v>50</v>
       </c>
       <c r="N57" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O57" s="5">
         <v>45700</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R57" s="16" t="s">
         <v>50</v>
@@ -4296,45 +4296,45 @@
         <v>MC_RR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
         <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G58" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K58" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L58" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N58" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O58" s="5">
         <v>45700</v>
       </c>
       <c r="P58" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>50</v>
@@ -4344,48 +4344,48 @@
         <v>NOD_R (mg/kg)</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C59" t="s">
         <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E59" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F59" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O59" s="5">
         <v>45698</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q59" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>50</v>
@@ -4395,45 +4395,45 @@
         <v>MC_RR (mg/kg)</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
         <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F60" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K60" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L60" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M60" t="s">
         <v>50</v>
       </c>
       <c r="N60" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O60" s="5">
         <v>45698</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R60" t="s">
         <v>50</v>
@@ -4443,45 +4443,45 @@
         <v>MC_LR (mg/kg)</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C61" t="s">
         <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F61" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L61" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M61" t="s">
         <v>50</v>
       </c>
       <c r="N61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O61" s="5">
         <v>45698</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R61" t="s">
         <v>50</v>
@@ -4491,45 +4491,45 @@
         <v>MC_YR (mg/kg)</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C62" t="s">
         <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F62" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L62" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M62" t="s">
         <v>50</v>
       </c>
       <c r="N62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O62" s="5">
         <v>45698</v>
       </c>
       <c r="P62" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R62" t="s">
         <v>50</v>
@@ -4539,45 +4539,45 @@
         <v>MC_LA (mg/kg)</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
         <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K63" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M63" t="s">
         <v>50</v>
       </c>
       <c r="N63" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O63" s="5">
         <v>45698</v>
       </c>
       <c r="P63" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R63" t="s">
         <v>50</v>
@@ -4587,45 +4587,45 @@
         <v>MC_LF (mg/kg)</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" t="s">
         <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M64" t="s">
         <v>50</v>
       </c>
       <c r="N64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O64" s="5">
         <v>45698</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R64" t="s">
         <v>50</v>
@@ -4635,45 +4635,45 @@
         <v>MC_LW (mg/kg)</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
         <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G65" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K65" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M65" t="s">
         <v>50</v>
       </c>
       <c r="N65" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O65" s="5">
         <v>45698</v>
       </c>
       <c r="P65" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q65" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R65" t="s">
         <v>50</v>
@@ -4683,45 +4683,45 @@
         <v>MC_LY (mg/kg)</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C66" t="s">
         <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F66" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K66" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M66" t="s">
         <v>50</v>
       </c>
       <c r="N66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O66" s="5">
         <v>45698</v>
       </c>
       <c r="P66" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R66" t="s">
         <v>50</v>
@@ -4731,45 +4731,45 @@
         <v>MC_WR (mg/kg)</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
         <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F67" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G67" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M67" t="s">
         <v>50</v>
       </c>
       <c r="N67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O67" s="5">
         <v>45698</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R67" t="s">
         <v>50</v>
@@ -4779,30 +4779,30 @@
         <v>MC_HilR (mg/kg)</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s">
         <v>184</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M68" t="s">
         <v>50</v>
       </c>
       <c r="P68" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q68" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R68" t="s">
         <v>50</v>
@@ -4812,45 +4812,45 @@
         <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
         <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F69" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L69" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M69" t="s">
         <v>50</v>
       </c>
       <c r="N69" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O69" s="5">
         <v>45700</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R69" t="s">
         <v>50</v>
@@ -4860,45 +4860,45 @@
         <v>MC_LR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C70" t="s">
         <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E70" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F70" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G70" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K70" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M70" t="s">
         <v>50</v>
       </c>
       <c r="N70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O70" s="5">
         <v>45700</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R70" t="s">
         <v>50</v>
@@ -4908,30 +4908,30 @@
         <v>MC_RR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
         <v>250</v>
       </c>
-      <c r="C71" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" t="s">
-        <v>252</v>
-      </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M71" t="s">
         <v>50</v>
       </c>
       <c r="P71" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="R71" t="s">
         <v>50</v>
@@ -4941,30 +4941,30 @@
         <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C72" t="s">
         <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F72" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s">
         <v>50</v>
       </c>
       <c r="P72" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R72" t="s">
         <v>50</v>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderstorstensson/Dropbox/R/SLV-Biotoxin-Validator-App/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3E57F3-39CD-9D45-9C2B-B133671167F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C15B5-758B-4EB4-9374-E32ABA6416C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18640" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="18645" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$O$48</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="350">
   <si>
     <t>Kortnamn-IOC</t>
   </si>
@@ -714,9 +714,6 @@
     <t>STX screening positive</t>
   </si>
   <si>
-    <t>Enhet_MH</t>
-  </si>
-  <si>
     <t>Parameternamn_MH</t>
   </si>
   <si>
@@ -1057,6 +1054,30 @@
   </si>
   <si>
     <t>STX_C1_C2</t>
+  </si>
+  <si>
+    <t>Enhet_MH_kg</t>
+  </si>
+  <si>
+    <t>mg YTX eq/L</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>ug AZA eq/L</t>
+  </si>
+  <si>
+    <t>ug STXdiHCL eq/L</t>
+  </si>
+  <si>
+    <t>ug OA eq/L</t>
+  </si>
+  <si>
+    <t>ug PTX eq/L</t>
+  </si>
+  <si>
+    <t>ug/L</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1483,36 +1504,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.5" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1523,7 +1545,7 @@
         <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
@@ -1562,16 +1584,19 @@
         <v>190</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1622,12 +1647,15 @@
       <c r="R2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="T2" t="str">
         <f>CONCATENATE(P2, " (", R2, ")")</f>
         <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1678,12 +1706,15 @@
       <c r="R3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:S66" si="0">CONCATENATE(P3, " (", R3, ")")</f>
+      <c r="S3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T66" si="0">CONCATENATE(P3, " (", R3, ")")</f>
         <v>45_OH_homoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1734,12 +1765,15 @@
       <c r="R4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S4" t="str">
+      <c r="S4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="T4" t="str">
         <f t="shared" si="0"/>
         <v>45_OH_YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1794,12 +1828,15 @@
       <c r="R5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S5" t="str">
+      <c r="S5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="T5" t="str">
         <f t="shared" si="0"/>
         <v>DA (mg/kg)</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1850,12 +1887,15 @@
       <c r="R6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="S6" t="str">
+      <c r="S6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="T6" t="str">
         <f t="shared" si="0"/>
         <v>AZA1 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1906,12 +1946,15 @@
       <c r="R7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="S7" t="str">
+      <c r="S7" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="T7" t="str">
         <f t="shared" si="0"/>
         <v>AZA2 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1962,12 +2005,15 @@
       <c r="R8" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="S8" t="str">
+      <c r="S8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="T8" t="str">
         <f t="shared" si="0"/>
         <v>AZA3 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2014,12 +2060,15 @@
       <c r="R9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="S9" t="str">
+      <c r="S9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="T9" t="str">
         <f t="shared" si="0"/>
         <v>AZA_tot (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>162</v>
       </c>
@@ -2052,20 +2101,23 @@
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S10" t="str">
+      <c r="S10" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T10" t="str">
         <f t="shared" si="0"/>
         <v>C1_2 (true or false)</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -2108,7 +2160,7 @@
         <v>45691</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>213</v>
@@ -2116,12 +2168,15 @@
       <c r="R11" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S11" t="str">
+      <c r="S11" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T11" t="str">
         <f t="shared" si="0"/>
         <v>STX_C1_C2 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>174</v>
       </c>
@@ -2143,20 +2198,23 @@
       <c r="M12" s="4"/>
       <c r="O12" s="5"/>
       <c r="P12" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="S12" t="str">
+      <c r="S12" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="T12" t="str">
         <f t="shared" si="0"/>
         <v>C3_4 (Unit)</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2197,7 +2255,7 @@
         <v>45691</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>214</v>
@@ -2205,12 +2263,15 @@
       <c r="R13" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S13" t="str">
+      <c r="S13" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T13" t="str">
         <f t="shared" si="0"/>
         <v>STX_C3_C4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2261,12 +2322,15 @@
       <c r="R14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S14" t="str">
+      <c r="S14" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="T14" t="str">
         <f t="shared" si="0"/>
         <v>CarboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
@@ -2286,17 +2350,20 @@
         <v>199</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S15" t="str">
+      <c r="S15" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T15" t="str">
         <f t="shared" si="0"/>
         <v>dcGTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2347,12 +2414,15 @@
       <c r="R16" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S16" t="str">
+      <c r="S16" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T16" t="str">
         <f t="shared" si="0"/>
         <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>171</v>
       </c>
@@ -2372,17 +2442,20 @@
         <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S17" t="str">
+      <c r="S17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T17" t="str">
         <f t="shared" si="0"/>
         <v>dcNEO_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2433,12 +2506,15 @@
       <c r="R18" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S18" t="str">
+      <c r="S18" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T18" t="str">
         <f t="shared" si="0"/>
         <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
@@ -2464,17 +2540,20 @@
         <v>201</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S19" t="str">
+      <c r="S19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T19" t="str">
         <f t="shared" si="0"/>
         <v>dcSTX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2525,12 +2604,15 @@
       <c r="R20" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S20" t="str">
+      <c r="S20" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T20" t="str">
         <f t="shared" si="0"/>
         <v>dcSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>173</v>
       </c>
@@ -2553,20 +2635,23 @@
       <c r="N21" s="4"/>
       <c r="O21" s="5"/>
       <c r="P21" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q21" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="R21" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="S21" t="str">
+      <c r="S21" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="T21" t="str">
         <f t="shared" si="0"/>
         <v>DA_LP205 (Unit)</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -2606,17 +2691,20 @@
         <v>202</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S22" t="str">
+      <c r="S22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T22" t="str">
         <f t="shared" si="0"/>
         <v>DA_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2662,12 +2750,15 @@
       <c r="R23" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S23" t="str">
+      <c r="S23" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T23" t="str">
         <f t="shared" si="0"/>
         <v>DST_tot (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2718,12 +2809,15 @@
       <c r="R24" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S24" t="str">
+      <c r="S24" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T24" t="str">
         <f t="shared" si="0"/>
         <v>DTX1 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -2774,12 +2868,15 @@
       <c r="R25" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S25" t="str">
+      <c r="S25" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T25" t="str">
         <f t="shared" si="0"/>
         <v>DTX3 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -2830,12 +2927,15 @@
       <c r="R26" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S26" t="str">
+      <c r="S26" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T26" t="str">
         <f t="shared" si="0"/>
         <v>DTX2 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2879,12 +2979,15 @@
       <c r="R27" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S27" t="str">
+      <c r="S27" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T27" t="str">
         <f t="shared" si="0"/>
         <v>DTX2_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -2925,12 +3028,15 @@
       <c r="R28" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="S28" t="str">
+      <c r="S28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T28" t="str">
         <f t="shared" si="0"/>
         <v>E_coli (cells/100 g)</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
@@ -2960,17 +3066,20 @@
         <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S29" t="str">
+      <c r="S29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T29" t="str">
         <f t="shared" si="0"/>
         <v>GTX1_4_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -3021,12 +3130,15 @@
       <c r="R30" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S30" t="str">
+      <c r="S30" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T30" t="str">
         <f t="shared" si="0"/>
         <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -3052,17 +3164,20 @@
         <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S31" t="str">
+      <c r="S31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T31" t="str">
         <f t="shared" si="0"/>
         <v>GTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -3113,12 +3228,15 @@
       <c r="R32" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S32" t="str">
+      <c r="S32" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T32" t="str">
         <f t="shared" si="0"/>
         <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -3149,12 +3267,15 @@
       <c r="R33" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S33" t="str">
+      <c r="S33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T33" t="str">
         <f t="shared" si="0"/>
         <v>GTX5_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -3205,12 +3326,15 @@
       <c r="R34" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S34" t="str">
+      <c r="S34" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T34" t="str">
         <f t="shared" si="0"/>
         <v>GTX5 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
@@ -3241,12 +3365,15 @@
       <c r="R35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S35" t="str">
+      <c r="S35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T35" t="str">
         <f t="shared" si="0"/>
         <v>GTX6_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -3295,12 +3422,15 @@
       <c r="R36" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S36" t="str">
+      <c r="S36" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T36" t="str">
         <f t="shared" si="0"/>
         <v>GTX6 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -3351,12 +3481,15 @@
       <c r="R37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S37" t="str">
+      <c r="S37" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="T37" t="str">
         <f t="shared" si="0"/>
         <v>HomoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>175</v>
       </c>
@@ -3379,20 +3512,23 @@
       <c r="N38" s="4"/>
       <c r="O38" s="5"/>
       <c r="P38" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="S38" t="str">
+        <v>336</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="T38" t="str">
         <f t="shared" si="0"/>
         <v>Shortname (Unit)</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -3443,12 +3579,15 @@
       <c r="R39" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S39" t="str">
+      <c r="S39" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T39" t="str">
         <f t="shared" si="0"/>
         <v>NeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -3493,12 +3632,15 @@
       <c r="R40" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S40" t="str">
+      <c r="S40" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T40" t="str">
         <f t="shared" si="0"/>
         <v>OA_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
@@ -3551,12 +3693,15 @@
       <c r="R41" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S41" t="str">
+      <c r="S41" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T41" t="str">
         <f t="shared" si="0"/>
         <v>Okadaic acid (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>176</v>
       </c>
@@ -3579,20 +3724,23 @@
       <c r="N42" s="4"/>
       <c r="O42" s="5"/>
       <c r="P42" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q42" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="R42" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="R42" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="S42" t="str">
+      <c r="S42" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="T42" t="str">
         <f t="shared" si="0"/>
         <v>PSP_tot (Unit)</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -3637,12 +3785,15 @@
       <c r="R43" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S43" t="str">
+      <c r="S43" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T43" t="str">
         <f t="shared" si="0"/>
         <v>PST_tot (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -3693,12 +3844,15 @@
       <c r="R44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="S44" t="str">
+      <c r="S44" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="T44" t="str">
         <f t="shared" si="0"/>
         <v>PTX1 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
@@ -3749,12 +3903,15 @@
       <c r="R45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="S45" t="str">
+      <c r="S45" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="T45" t="str">
         <f t="shared" si="0"/>
         <v>PTX2 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
@@ -3799,12 +3956,15 @@
       <c r="R46" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="S46" t="str">
+      <c r="S46" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="T46" t="str">
         <f t="shared" si="0"/>
         <v>PTX_tot (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
@@ -3847,12 +4007,15 @@
       <c r="R47" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="S47" t="str">
+      <c r="S47" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="T47" t="str">
         <f t="shared" si="0"/>
         <v>SPX1 (ug/kg)</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -3877,12 +4040,15 @@
       <c r="R48" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S48" t="str">
+      <c r="S48" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="T48" t="str">
         <f t="shared" si="0"/>
         <v>STX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -3935,12 +4101,15 @@
       <c r="R49" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S49" t="str">
+      <c r="S49" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T49" t="str">
         <f t="shared" si="0"/>
         <v>STX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
@@ -3993,12 +4162,15 @@
       <c r="R50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S50" t="str">
+      <c r="S50" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="T50" t="str">
         <f t="shared" si="0"/>
         <v>YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -4045,931 +4217,997 @@
       <c r="R51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S51" t="str">
+      <c r="S51" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="T51" t="str">
         <f t="shared" si="0"/>
         <v>YTX_tot (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M52" t="s">
         <v>50</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S52" t="str">
+      <c r="S52" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="T52" t="str">
         <f t="shared" si="0"/>
         <v>Ana_a (mg/kg)</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M53" t="s">
         <v>50</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R53" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S53" t="str">
+      <c r="S53" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="T53" t="str">
         <f t="shared" si="0"/>
         <v>h_Ana (mg/kg)</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="K54" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M54" t="s">
         <v>50</v>
       </c>
       <c r="N54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O54" s="5">
         <v>45698</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R54" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S54" t="str">
+      <c r="S54" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="T54" t="str">
         <f t="shared" si="0"/>
         <v>CYN (mg/kg)</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" t="s">
         <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M55" t="s">
         <v>50</v>
       </c>
       <c r="N55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O55" s="5">
         <v>45700</v>
       </c>
       <c r="P55" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S55" t="str">
+      <c r="S55" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="T55" t="str">
         <f t="shared" si="0"/>
         <v>MC_HTyR (mg/kg)</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
         <v>184</v>
       </c>
       <c r="D56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G56" t="s">
+        <v>320</v>
+      </c>
+      <c r="K56" t="s">
+        <v>320</v>
+      </c>
+      <c r="L56" t="s">
         <v>321</v>
-      </c>
-      <c r="K56" t="s">
-        <v>321</v>
-      </c>
-      <c r="L56" t="s">
-        <v>322</v>
       </c>
       <c r="M56" t="s">
         <v>50</v>
       </c>
       <c r="N56" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O56" s="5">
         <v>45700</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R56" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S56" t="str">
+      <c r="S56" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="T56" t="str">
         <f t="shared" si="0"/>
         <v>MC_LR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
         <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M57" t="s">
         <v>50</v>
       </c>
       <c r="N57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O57" s="5">
         <v>45700</v>
       </c>
       <c r="P57" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R57" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S57" t="str">
+      <c r="S57" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="T57" t="str">
         <f t="shared" si="0"/>
         <v>MC_RR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s">
         <v>184</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G58" t="s">
+        <v>316</v>
+      </c>
+      <c r="K58" t="s">
+        <v>316</v>
+      </c>
+      <c r="L58" t="s">
         <v>317</v>
-      </c>
-      <c r="K58" t="s">
-        <v>317</v>
-      </c>
-      <c r="L58" t="s">
-        <v>318</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O58" s="5">
         <v>45700</v>
       </c>
       <c r="P58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S58" t="str">
+      <c r="S58" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="T58" t="str">
         <f t="shared" si="0"/>
         <v>NOD_R (mg/kg)</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
         <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O59" s="5">
         <v>45698</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q59" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S59" t="str">
+      <c r="S59" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="T59" t="str">
         <f t="shared" si="0"/>
         <v>MC_RR (mg/kg)</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" t="s">
         <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M60" t="s">
         <v>50</v>
       </c>
       <c r="N60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O60" s="5">
         <v>45698</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R60" t="s">
         <v>50</v>
       </c>
-      <c r="S60" t="str">
+      <c r="S60" t="s">
+        <v>344</v>
+      </c>
+      <c r="T60" t="str">
         <f t="shared" si="0"/>
         <v>MC_LR (mg/kg)</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C61" t="s">
         <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M61" t="s">
         <v>50</v>
       </c>
       <c r="N61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O61" s="5">
         <v>45698</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R61" t="s">
         <v>50</v>
       </c>
-      <c r="S61" t="str">
+      <c r="S61" t="s">
+        <v>344</v>
+      </c>
+      <c r="T61" t="str">
         <f t="shared" si="0"/>
         <v>MC_YR (mg/kg)</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C62" t="s">
         <v>184</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M62" t="s">
         <v>50</v>
       </c>
       <c r="N62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O62" s="5">
         <v>45698</v>
       </c>
       <c r="P62" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R62" t="s">
         <v>50</v>
       </c>
-      <c r="S62" t="str">
+      <c r="S62" t="s">
+        <v>344</v>
+      </c>
+      <c r="T62" t="str">
         <f t="shared" si="0"/>
         <v>MC_LA (mg/kg)</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C63" t="s">
         <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M63" t="s">
         <v>50</v>
       </c>
       <c r="N63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O63" s="5">
         <v>45698</v>
       </c>
       <c r="P63" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R63" t="s">
         <v>50</v>
       </c>
-      <c r="S63" t="str">
+      <c r="S63" t="s">
+        <v>344</v>
+      </c>
+      <c r="T63" t="str">
         <f t="shared" si="0"/>
         <v>MC_LF (mg/kg)</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C64" t="s">
         <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L64" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M64" t="s">
         <v>50</v>
       </c>
       <c r="N64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O64" s="5">
         <v>45698</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R64" t="s">
         <v>50</v>
       </c>
-      <c r="S64" t="str">
+      <c r="S64" t="s">
+        <v>344</v>
+      </c>
+      <c r="T64" t="str">
         <f t="shared" si="0"/>
         <v>MC_LW (mg/kg)</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C65" t="s">
         <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M65" t="s">
         <v>50</v>
       </c>
       <c r="N65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O65" s="5">
         <v>45698</v>
       </c>
       <c r="P65" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q65" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R65" t="s">
         <v>50</v>
       </c>
-      <c r="S65" t="str">
+      <c r="S65" t="s">
+        <v>344</v>
+      </c>
+      <c r="T65" t="str">
         <f t="shared" si="0"/>
         <v>MC_LY (mg/kg)</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
         <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M66" t="s">
         <v>50</v>
       </c>
       <c r="N66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O66" s="5">
         <v>45698</v>
       </c>
       <c r="P66" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R66" t="s">
         <v>50</v>
       </c>
-      <c r="S66" t="str">
+      <c r="S66" t="s">
+        <v>344</v>
+      </c>
+      <c r="T66" t="str">
         <f t="shared" si="0"/>
         <v>MC_WR (mg/kg)</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C67" t="s">
         <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M67" t="s">
         <v>50</v>
       </c>
       <c r="N67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O67" s="5">
         <v>45698</v>
       </c>
       <c r="P67" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R67" t="s">
         <v>50</v>
       </c>
-      <c r="S67" t="str">
-        <f t="shared" ref="S67:S72" si="1">CONCATENATE(P67, " (", R67, ")")</f>
+      <c r="S67" t="s">
+        <v>344</v>
+      </c>
+      <c r="T67" t="str">
+        <f t="shared" ref="T67:T72" si="1">CONCATENATE(P67, " (", R67, ")")</f>
         <v>MC_HilR (mg/kg)</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C68" t="s">
         <v>184</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M68" t="s">
         <v>50</v>
       </c>
       <c r="P68" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q68" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R68" t="s">
         <v>50</v>
       </c>
-      <c r="S68" t="str">
+      <c r="S68" t="s">
+        <v>344</v>
+      </c>
+      <c r="T68" t="str">
         <f t="shared" si="1"/>
         <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C69" t="s">
         <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M69" t="s">
         <v>50</v>
       </c>
       <c r="N69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O69" s="5">
         <v>45700</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R69" t="s">
         <v>50</v>
       </c>
-      <c r="S69" t="str">
+      <c r="S69" t="s">
+        <v>344</v>
+      </c>
+      <c r="T69" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C70" t="s">
         <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M70" t="s">
         <v>50</v>
       </c>
       <c r="N70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O70" s="5">
         <v>45700</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R70" t="s">
         <v>50</v>
       </c>
-      <c r="S70" t="str">
+      <c r="S70" t="s">
+        <v>344</v>
+      </c>
+      <c r="T70" t="str">
         <f t="shared" si="1"/>
         <v>MC_RR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
         <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M71" t="s">
         <v>50</v>
       </c>
       <c r="P71" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R71" t="s">
         <v>50</v>
       </c>
-      <c r="S71" t="str">
+      <c r="S71" t="s">
+        <v>344</v>
+      </c>
+      <c r="T71" t="str">
         <f t="shared" si="1"/>
         <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" t="s">
         <v>249</v>
       </c>
-      <c r="C72" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" t="s">
-        <v>250</v>
-      </c>
       <c r="E72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M72" t="s">
         <v>50</v>
       </c>
       <c r="P72" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R72" t="s">
         <v>50</v>
       </c>
-      <c r="S72" t="str">
+      <c r="S72" t="s">
+        <v>344</v>
+      </c>
+      <c r="T72" t="str">
         <f t="shared" si="1"/>
         <v>MC_HtyR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderstorstensson/Dropbox/R/SLV-Biotoxin-Validator-App/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C15B5-758B-4EB4-9374-E32ABA6416C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4C1E7-8C2A-D74A-9006-35E88D0B6D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="18645" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$O$48</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="351">
   <si>
     <t>Kortnamn-IOC</t>
   </si>
@@ -1078,6 +1078,9 @@
   </si>
   <si>
     <t>ug/L</t>
+  </si>
+  <si>
+    <t>Enhet_MH_l</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1507,34 +1510,34 @@
   <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1"/>
-    <col min="20" max="20" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.5" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" customWidth="1"/>
+    <col min="20" max="20" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1590,13 +1593,13 @@
         <v>342</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>45_OH_homoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>45_OH_YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>DA (mg/kg)</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>AZA1 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>AZA2 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>AZA3 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>AZA_tot (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>162</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>C1_2 (true or false)</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>STX_C1_C2 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>174</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>C3_4 (Unit)</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>STX_C3_C4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>CarboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>dcGTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>171</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>dcNEO_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>dcSTX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>dcSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>173</v>
       </c>
@@ -2651,7 +2654,7 @@
         <v>DA_LP205 (Unit)</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>DA_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>DST_tot (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>DTX1 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -2876,7 +2879,7 @@
         <v>DTX3 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>DTX2 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>DTX2_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>E_coli (cells/100 g)</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>GTX1_4_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
@@ -3177,7 +3180,7 @@
         <v>GTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>GTX5_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>39</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>GTX5 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>41</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>GTX6_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>GTX6 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>HomoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>175</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>Shortname (Unit)</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>NeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>19</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>OA_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>20</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>Okadaic acid (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>176</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>PSP_tot (Unit)</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>PST_tot (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>21</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>PTX1 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>PTX2 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>PTX_tot (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>24</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>SPX1 (ug/kg)</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>STX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>STX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>YTX_tot (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>229</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>Ana_a (mg/kg)</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>230</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>h_Ana (mg/kg)</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>252</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>CYN (mg/kg)</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>231</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>MC_HTyR (mg/kg)</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>232</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>MC_LR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>233</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>MC_RR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>234</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>NOD_R (mg/kg)</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>235</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>MC_RR (mg/kg)</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>236</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>MC_LR (mg/kg)</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>237</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>MC_YR (mg/kg)</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>238</v>
       </c>
@@ -4747,7 +4750,7 @@
         <v>MC_LA (mg/kg)</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>239</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>MC_LF (mg/kg)</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>240</v>
       </c>
@@ -4849,7 +4852,7 @@
         <v>MC_LW (mg/kg)</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>241</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>MC_LY (mg/kg)</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>242</v>
       </c>
@@ -4951,7 +4954,7 @@
         <v>MC_WR (mg/kg)</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>243</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>MC_HilR (mg/kg)</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>244</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>245</v>
       </c>
@@ -5089,7 +5092,7 @@
         <v>MC_LR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>246</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>MC_RR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>247</v>
       </c>
@@ -5176,7 +5179,7 @@
         <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>248</v>
       </c>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderstorstensson/Dropbox/R/SLV-Biotoxin-Validator-App/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4C1E7-8C2A-D74A-9006-35E88D0B6D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E250C31-8A6C-4DB2-BBED-0997748B703F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18640" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18645" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$O$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$V$72</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="355">
   <si>
     <t>Kortnamn-IOC</t>
   </si>
@@ -1081,6 +1081,18 @@
   </si>
   <si>
     <t>Enhet_MH_l</t>
+  </si>
+  <si>
+    <t>Anatoxin</t>
+  </si>
+  <si>
+    <t>Z_Cyanotoxin</t>
+  </si>
+  <si>
+    <t>Sorteringsgrupp1</t>
+  </si>
+  <si>
+    <t>Sorteringsgrupp2</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1507,37 +1519,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.5" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" customWidth="1"/>
-    <col min="20" max="20" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.42578125" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1554,113 +1567,115 @@
         <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="T2" t="str">
-        <f>CONCATENATE(P2, " (", R2, ")")</f>
-        <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" t="str">
+        <f>CONCATENATE(R2, " (", T2, ")")</f>
+        <v>E_coli (cells/100 g)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>179</v>
@@ -1672,54 +1687,60 @@
         <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="4">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="5">
+        <v>72</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="5">
         <v>45691</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T66" si="0">CONCATENATE(P3, " (", R3, ")")</f>
-        <v>45_OH_homoYTX (mg YTX eq/kg)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="V3" t="str">
+        <f>CONCATENATE(R3, " (", T3, ")")</f>
+        <v>AZA1 (ug AZA eq/kg)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>179</v>
@@ -1731,117 +1752,125 @@
         <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="4">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="5">
+        <v>76</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="5">
         <v>45691</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="R4" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="0"/>
-        <v>45_OH_YTX (mg YTX eq/kg)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="V4" t="str">
+        <f>CONCATENATE(R4, " (", T4, ")")</f>
+        <v>AZA2 (ug AZA eq/kg)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="5">
-        <v>45688</v>
+        <v>77</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>45691</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="0"/>
-        <v>DA (mg/kg)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="V5" t="str">
+        <f>CONCATENATE(R5, " (", T5, ")")</f>
+        <v>AZA3 (ug AZA eq/kg)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>179</v>
@@ -1856,169 +1885,167 @@
         <v>92</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="4">
         <v>30</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="K6" s="4">
+        <v>160</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5">
         <v>45691</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="R6" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" si="0"/>
-        <v>AZA1 (ug AZA eq/kg)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V6" t="str">
+        <f>CONCATENATE(R6, " (", T6, ")")</f>
+        <v>AZA_tot (ug AZA eq/kg)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="4">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>20</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>73</v>
+        <v>48</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>45688</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="0"/>
-        <v>AZA2 (ug AZA eq/kg)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="V7" t="str">
+        <f>CONCATENATE(R7, " (", T7, ")")</f>
+        <v>DA (mg/kg)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="4">
-        <v>30</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="0"/>
-        <v>AZA3 (ug AZA eq/kg)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="V8" t="str">
+        <f>CONCATENATE(R8, " (", T8, ")")</f>
+        <v>DA_LP205 (Unit)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>179</v>
@@ -2027,256 +2054,312 @@
         <v>184</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="4">
-        <v>30</v>
-      </c>
-      <c r="I9" s="4">
-        <v>160</v>
+        <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="5">
+      <c r="O9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="5">
         <v>45691</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="R9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="0"/>
-        <v>AZA_tot (ug AZA eq/kg)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V9" t="str">
+        <f>CONCATENATE(R9, " (", T9, ")")</f>
+        <v>DA_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="4">
+        <v>30</v>
+      </c>
+      <c r="K10" s="4">
+        <v>160</v>
+      </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>288</v>
+      <c r="O10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>45691</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="0"/>
-        <v>C1_2 (true or false)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="V10" t="str">
+        <f>CONCATENATE(R10, " (", T10, ")")</f>
+        <v>DST_tot (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="4">
-        <v>40</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>152</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4">
+        <v>30</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" t="s">
-        <v>126</v>
-      </c>
-      <c r="O11" s="5">
+        <v>100</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" s="5">
         <v>45691</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="R11" s="4" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="0"/>
-        <v>STX_C1_C2 (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>174</v>
+        <v>102</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="V11" t="str">
+        <f>CONCATENATE(R11, " (", T11, ")")</f>
+        <v>DTX1 (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="4">
+        <v>30</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="0"/>
-        <v>C3_4 (Unit)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>45691</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="V12" t="str">
+        <f>CONCATENATE(R12, " (", T12, ")")</f>
+        <v>DTX3 (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="4">
+        <v>30</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O13" s="5">
+        <v>101</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="5">
         <v>45691</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="R13" s="4" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="0"/>
-        <v>STX_C3_C4 (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="V13" t="str">
+        <f>CONCATENATE(R13, " (", T13, ")")</f>
+        <v>DTX2 (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>179</v>
@@ -2288,283 +2371,374 @@
         <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" t="s">
-        <v>158</v>
-      </c>
-      <c r="O14" s="5">
+        <v>95</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="4">
+        <v>30</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="5">
         <v>45691</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="R14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="0"/>
-        <v>CarboxyYTX (mg YTX eq/kg)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>169</v>
+        <v>111</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="V14" t="str">
+        <f>CONCATENATE(R14, " (", T14, ")")</f>
+        <v>DTX2_acyl (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>293</v>
+        <v>95</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="4">
+        <v>30</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5">
+        <v>45691</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="0"/>
-        <v>dcGTX2_3_screen_pos (true or false)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="V15" t="str">
+        <f>CONCATENATE(R15, " (", T15, ")")</f>
+        <v>OA_acyl (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="4">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="4">
-        <v>125</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>137</v>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <v>1</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N16" t="s">
-        <v>138</v>
-      </c>
-      <c r="O16" s="5">
+        <v>97</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="5">
         <v>45691</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="R16" s="4" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="0"/>
-        <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="V16" t="str">
+        <f>CONCATENATE(R16, " (", T16, ")")</f>
+        <v>Okadaic acid (ug OA eq/kg)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>172</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="4">
+        <v>30</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>115</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>45691</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="0"/>
-        <v>dcNEO_screen_pos (true or false)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="V17" t="str">
+        <f>CONCATENATE(R17, " (", T17, ")")</f>
+        <v>PTX1 (ug PTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="4">
-        <v>160</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="4">
+        <v>30</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O18" s="5">
+        <v>120</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q18" s="5">
         <v>45691</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="R18" s="4" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="0"/>
-        <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>120</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="V18" t="str">
+        <f>CONCATENATE(R18, " (", T18, ")")</f>
+        <v>PTX2 (ug PTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="M19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>335</v>
+        <v>114</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="4">
+        <v>30</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="5">
+        <v>45691</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="0"/>
-        <v>dcSTX_screen_pos (true or false)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="V19" t="str">
+        <f>CONCATENATE(R19, " (", T19, ")")</f>
+        <v>PTX_tot (ug PTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>55</v>
@@ -2573,926 +2747,977 @@
         <v>121</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="4">
-        <v>41</v>
-      </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O20" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="0"/>
-        <v>dcSTX (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>173</v>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V20" t="str">
+        <f>CONCATENATE(R20, " (", T20, ")")</f>
+        <v>C1_2 (true or false)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="4">
+        <v>40</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="0"/>
-        <v>DA_LP205 (Unit)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>12</v>
+      <c r="M21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>45691</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V21" t="str">
+        <f>CONCATENATE(R21, " (", T21, ")")</f>
+        <v>STX_C1_C2 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" t="s">
-        <v>46</v>
-      </c>
-      <c r="O22" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="0"/>
-        <v>DA_screen_pos (true or false)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="V22" t="str">
+        <f>CONCATENATE(R22, " (", T22, ")")</f>
+        <v>C3_4 (Unit)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="4">
-        <v>30</v>
-      </c>
-      <c r="I23" s="4">
-        <v>160</v>
+        <v>121</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O23" s="5">
+        <v>151</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q23" s="5">
         <v>45691</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="R23" s="4" t="s">
-        <v>187</v>
+        <v>340</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="0"/>
-        <v>DST_tot (ug OA eq/kg)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>214</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V23" t="str">
+        <f>CONCATENATE(R23, " (", T23, ")")</f>
+        <v>STX_C3_C4 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="4">
+        <v>121</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R24" t="s">
+        <v>199</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V24" t="str">
+        <f>CONCATENATE(R24, " (", T24, ")")</f>
+        <v>dcGTX2_3_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N24" t="s">
-        <v>103</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="B25" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="4">
+        <v>125</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="5">
         <v>45691</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="0"/>
-        <v>DTX1 (ug OA eq/kg)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="4">
-        <v>30</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="R25" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="0"/>
-        <v>DTX3 (ug OA eq/kg)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
+        <v>215</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V25" t="str">
+        <f>CONCATENATE(R25, " (", T25, ")")</f>
+        <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="4">
-        <v>30</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="O26" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="0"/>
-        <v>DTX2 (ug OA eq/kg)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R26" t="s">
+        <v>200</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V26" t="str">
+        <f>CONCATENATE(R26, " (", T26, ")")</f>
+        <v>dcNEO_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="4">
-        <v>30</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="4">
+        <v>160</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O27" s="5">
+        <v>147</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q27" s="5">
         <v>45691</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="R27" s="4" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="0"/>
-        <v>DTX2_acyl (ug OA eq/kg)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>148</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V27" t="str">
+        <f>CONCATENATE(R27, " (", T27, ")")</f>
+        <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="0"/>
-        <v>E_coli (cells/100 g)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>35</v>
+      <c r="O28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28" t="s">
+        <v>201</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V28" t="str">
+        <f>CONCATENATE(R28, " (", T28, ")")</f>
+        <v>dcSTX_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G29" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="4">
+        <v>41</v>
+      </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="P29" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>291</v>
+        <v>142</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>45691</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="0"/>
-        <v>GTX1_4_screen_pos (true or false)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>141</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V29" t="str">
+        <f>CONCATENATE(R29, " (", T29, ")")</f>
+        <v>dcSTX (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="4">
-        <v>330</v>
-      </c>
-      <c r="I30" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="O30" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="5"/>
       <c r="R30" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="0"/>
-        <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>36</v>
+        <v>204</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V30" t="str">
+        <f>CONCATENATE(R30, " (", T30, ")")</f>
+        <v>GTX1_4_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="4">
+        <v>330</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>292</v>
+        <v>134</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>45691</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="0"/>
-        <v>GTX2_3_screen_pos (true or false)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>216</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V31" t="str">
+        <f>CONCATENATE(R31, " (", T31, ")")</f>
+        <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="4">
-        <v>80</v>
-      </c>
-      <c r="I32" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O32" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="0"/>
-        <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>38</v>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="O32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V32" t="str">
+        <f>CONCATENATE(R32, " (", T32, ")")</f>
+        <v>GTX2_3_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G33" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="4">
+        <v>80</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>221</v>
+        <v>135</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>45691</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="0"/>
-        <v>GTX5_screen_pos (true or false)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>216</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V33" t="str">
+        <f>CONCATENATE(R33, " (", T33, ")")</f>
+        <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="4">
-        <v>8</v>
-      </c>
-      <c r="I34" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O34" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="0"/>
-        <v>GTX5 (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>41</v>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R34" t="s">
+        <v>206</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V34" t="str">
+        <f>CONCATENATE(R34, " (", T34, ")")</f>
+        <v>GTX5_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G35" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="4">
+        <v>8</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="4" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>222</v>
+        <v>145</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>45691</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="0"/>
-        <v>GTX6_screen_pos (true or false)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>143</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V35" t="str">
+        <f>CONCATENATE(R35, " (", T35, ")")</f>
+        <v>GTX5 (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="O36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V36" t="str">
+        <f>CONCATENATE(R36, " (", T36, ")")</f>
+        <v>GTX6_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4" t="s">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="P37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="O36" s="5">
+      <c r="Q37" s="5">
         <v>45691</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="T37" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S36" s="4" t="s">
+      <c r="U37" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="T36" t="str">
-        <f t="shared" si="0"/>
+      <c r="V37" t="str">
+        <f>CONCATENATE(R37, " (", T37, ")")</f>
         <v>GTX6 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="O37" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="0"/>
-        <v>HomoYTX (mg YTX eq/kg)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>175</v>
       </c>
@@ -3504,8 +3729,12 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -3513,25 +3742,27 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="11" t="s">
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="S38" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="T38" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="S38" s="11" t="s">
+      <c r="U38" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="T38" t="str">
-        <f t="shared" si="0"/>
+      <c r="V38" t="str">
+        <f>CONCATENATE(R38, " (", T38, ")")</f>
         <v>Shortname (Unit)</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -3548,165 +3779,161 @@
         <v>121</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="4">
+      <c r="J39" s="4">
         <v>167</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="O39" s="5">
+      <c r="Q39" s="5">
         <v>45691</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="S39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="T39" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S39" s="4" t="s">
+      <c r="U39" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="T39" t="str">
-        <f t="shared" si="0"/>
+      <c r="V39" t="str">
+        <f>CONCATENATE(R39, " (", T39, ")")</f>
         <v>NeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>19</v>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="4">
-        <v>30</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
-      <c r="O40" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="0"/>
-        <v>OA_acyl (ug OA eq/kg)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="V40" t="str">
+        <f>CONCATENATE(R40, " (", T40, ")")</f>
+        <v>PSP_tot (Unit)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="4">
-        <v>30</v>
-      </c>
-      <c r="I41" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="J41" s="4">
-        <v>1</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O41" s="5">
-        <v>45691</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="S41" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="0"/>
-        <v>Okadaic acid (ug OA eq/kg)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="K41" s="4">
+        <v>800</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="V41" t="str">
+        <f>CONCATENATE(R41, " (", T41, ")")</f>
+        <v>PST_tot (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>181</v>
@@ -3714,38 +3941,38 @@
       <c r="C42" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q42" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="R42" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="0"/>
-        <v>PSP_tot (Unit)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R42" t="s">
+        <v>211</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="V42" t="str">
+        <f>CONCATENATE(R42, " (", T42, ")")</f>
+        <v>STX_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>181</v>
@@ -3760,45 +3987,59 @@
         <v>121</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H43" s="4">
-        <v>380</v>
-      </c>
-      <c r="I43" s="4">
-        <v>800</v>
-      </c>
-      <c r="J43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="4">
+        <v>40</v>
+      </c>
       <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="L43" s="4">
+        <v>1</v>
+      </c>
       <c r="M43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>224</v>
+      <c r="P43" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>45691</v>
       </c>
       <c r="R43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="T43" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S43" s="4" t="s">
+      <c r="U43" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="T43" t="str">
-        <f t="shared" si="0"/>
-        <v>PST_tot (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V43" t="str">
+        <f>CONCATENATE(R43, " (", T43, ")")</f>
+        <v>STX (ug STXdiHCL eq/kg)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>179</v>
@@ -3810,54 +4051,52 @@
         <v>56</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H44" s="4">
-        <v>30</v>
-      </c>
-      <c r="I44" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="J44" s="4"/>
-      <c r="K44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="O44" s="5">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="5">
         <v>45691</v>
       </c>
-      <c r="P44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="R44" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="0"/>
-        <v>PTX1 (ug PTX eq/kg)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="V44" t="str">
+        <f>CONCATENATE(R44, " (", T44, ")")</f>
+        <v>SPX1 (ug/kg)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>179</v>
@@ -3869,54 +4108,60 @@
         <v>56</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="4">
-        <v>30</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O45" s="5">
+        <v>57</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="5">
         <v>45691</v>
       </c>
-      <c r="P45" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="R45" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="0"/>
-        <v>PTX2 (ug PTX eq/kg)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="V45" t="str">
+        <f>CONCATENATE(R45, " (", T45, ")")</f>
+        <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>179</v>
@@ -3928,48 +4173,60 @@
         <v>56</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="4">
-        <v>30</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.1</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="5">
+        <v>62</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="5">
         <v>45691</v>
       </c>
-      <c r="P46" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="R46" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" si="0"/>
-        <v>PTX_tot (ug PTX eq/kg)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="V46" t="str">
+        <f>CONCATENATE(R46, " (", T46, ")")</f>
+        <v>45_OH_homoYTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>179</v>
@@ -3981,138 +4238,188 @@
         <v>56</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.1</v>
+      </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="5">
+        <v>71</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q47" s="5">
         <v>45691</v>
       </c>
-      <c r="P47" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="R47" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="0"/>
-        <v>SPX1 (ug/kg)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="T47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="V47" t="str">
+        <f>CONCATENATE(R47, " (", T47, ")")</f>
+        <v>45_OH_YTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>167</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>54</v>
+        <v>84</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>227</v>
+        <v>158</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>45691</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="0"/>
-        <v>STX_screen_pos (true or false)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="V48" t="str">
+        <f>CONCATENATE(R48, " (", T48, ")")</f>
+        <v>CarboxyYTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="4">
-        <v>40</v>
-      </c>
-      <c r="I49" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N49" t="s">
-        <v>126</v>
-      </c>
-      <c r="O49" s="5">
+        <v>89</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q49" s="5">
         <v>45691</v>
       </c>
-      <c r="P49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="R49" s="4" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="0"/>
-        <v>STX (ug STXdiHCL eq/kg)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U49" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="V49" t="str">
+        <f>CONCATENATE(R49, " (", T49, ")")</f>
+        <v>HomoYTX (mg YTX eq/kg)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
@@ -4129,51 +4436,57 @@
         <v>64</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="4">
+      <c r="J50" s="4">
         <v>0.1</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
         <v>1</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="O50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O50" s="5">
+      <c r="Q50" s="5">
         <v>45691</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="R50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q50" s="4" t="s">
+      <c r="S50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R50" s="4" t="s">
+      <c r="T50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S50" s="4" t="s">
+      <c r="U50" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="T50" t="str">
-        <f t="shared" si="0"/>
+      <c r="V50" t="str">
+        <f>CONCATENATE(R50, " (", T50, ")")</f>
         <v>YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -4190,45 +4503,51 @@
         <v>64</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H51" s="4">
+      <c r="J51" s="4">
         <v>0.1</v>
       </c>
-      <c r="I51" s="4">
+      <c r="K51" s="4">
         <v>3.75</v>
       </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="5" t="s">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="R51" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="Q51" s="7" t="s">
+      <c r="S51" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="R51" s="4" t="s">
+      <c r="T51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="S51" s="4" t="s">
+      <c r="U51" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="T51" t="str">
-        <f t="shared" si="0"/>
+      <c r="V51" t="str">
+        <f>CONCATENATE(R51, " (", T51, ")")</f>
         <v>YTX_tot (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>229</v>
       </c>
@@ -4238,27 +4557,33 @@
       <c r="D52" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="M52" t="s">
+      <c r="F52" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" t="s">
         <v>50</v>
       </c>
-      <c r="P52" s="10" t="s">
+      <c r="R52" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="Q52" s="10" t="s">
+      <c r="S52" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="R52" s="16" t="s">
+      <c r="T52" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S52" s="16" t="s">
+      <c r="U52" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="T52" t="str">
-        <f t="shared" si="0"/>
+      <c r="V52" t="str">
+        <f>CONCATENATE(R52, " (", T52, ")")</f>
         <v>Ana_a (mg/kg)</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>230</v>
       </c>
@@ -4268,27 +4593,33 @@
       <c r="D53" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="M53" t="s">
+      <c r="F53" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="O53" t="s">
         <v>50</v>
       </c>
-      <c r="P53" s="10" t="s">
+      <c r="R53" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="Q53" s="10" t="s">
+      <c r="S53" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="R53" s="16" t="s">
+      <c r="T53" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S53" s="16" t="s">
+      <c r="U53" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="T53" t="str">
-        <f t="shared" si="0"/>
+      <c r="V53" t="str">
+        <f>CONCATENATE(R53, " (", T53, ")")</f>
         <v>h_Ana (mg/kg)</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>252</v>
       </c>
@@ -4302,46 +4633,52 @@
         <v>251</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="N54" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M54" t="s">
+      <c r="O54" t="s">
         <v>50</v>
       </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
         <v>250</v>
       </c>
-      <c r="O54" s="5">
+      <c r="Q54" s="5">
         <v>45698</v>
       </c>
-      <c r="P54" t="s">
+      <c r="R54" t="s">
         <v>252</v>
       </c>
-      <c r="Q54" s="7" t="s">
+      <c r="S54" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="R54" s="16" t="s">
+      <c r="T54" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S54" s="16" t="s">
+      <c r="U54" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="T54" t="str">
-        <f t="shared" si="0"/>
+      <c r="V54" t="str">
+        <f>CONCATENATE(R54, " (", T54, ")")</f>
         <v>CYN (mg/kg)</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C55" t="s">
         <v>184</v>
@@ -4352,47 +4689,53 @@
       <c r="E55" t="s">
         <v>257</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G55" t="s">
+        <v>257</v>
+      </c>
+      <c r="H55" t="s">
         <v>256</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>327</v>
+      <c r="I55" t="s">
+        <v>243</v>
       </c>
       <c r="M55" t="s">
+        <v>239</v>
+      </c>
+      <c r="N55" t="s">
+        <v>266</v>
+      </c>
+      <c r="O55" t="s">
         <v>50</v>
       </c>
-      <c r="N55" t="s">
-        <v>326</v>
-      </c>
-      <c r="O55" s="5">
-        <v>45700</v>
-      </c>
-      <c r="P55" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q55" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="R55" s="16" t="s">
+      <c r="P55" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>45698</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="T55" t="s">
         <v>50</v>
       </c>
-      <c r="S55" s="16" t="s">
+      <c r="U55" t="s">
         <v>344</v>
       </c>
-      <c r="T55" t="str">
-        <f t="shared" si="0"/>
-        <v>MC_HTyR (mg/kg)</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>232</v>
+      <c r="V55" t="str">
+        <f>CONCATENATE(R55, " (", T55, ")")</f>
+        <v>MC_HilR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>247</v>
       </c>
       <c r="C56" t="s">
         <v>184</v>
@@ -4403,47 +4746,38 @@
       <c r="E56" t="s">
         <v>257</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G56" t="s">
+        <v>257</v>
+      </c>
+      <c r="H56" t="s">
         <v>256</v>
       </c>
-      <c r="G56" t="s">
-        <v>320</v>
-      </c>
-      <c r="K56" t="s">
-        <v>320</v>
-      </c>
-      <c r="L56" t="s">
-        <v>321</v>
-      </c>
-      <c r="M56" t="s">
+      <c r="O56" t="s">
         <v>50</v>
       </c>
-      <c r="N56" t="s">
-        <v>322</v>
-      </c>
-      <c r="O56" s="5">
-        <v>45700</v>
-      </c>
-      <c r="P56" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q56" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="R56" s="16" t="s">
+      <c r="R56" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="S56" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="T56" t="s">
         <v>50</v>
       </c>
-      <c r="S56" s="16" t="s">
+      <c r="U56" t="s">
         <v>344</v>
       </c>
-      <c r="T56" t="str">
-        <f t="shared" si="0"/>
-        <v>MC_LR_D_Asp3 (mg/kg)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>233</v>
+      <c r="V56" t="str">
+        <f>CONCATENATE(R56, " (", T56, ")")</f>
+        <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>231</v>
       </c>
       <c r="C57" t="s">
         <v>184</v>
@@ -4454,47 +4788,53 @@
       <c r="E57" t="s">
         <v>257</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G57" t="s">
+        <v>257</v>
+      </c>
+      <c r="H57" t="s">
         <v>256</v>
       </c>
-      <c r="G57" t="s">
-        <v>325</v>
-      </c>
-      <c r="K57" t="s">
-        <v>325</v>
-      </c>
-      <c r="L57" t="s">
-        <v>324</v>
-      </c>
-      <c r="M57" t="s">
+      <c r="I57" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="O57" t="s">
         <v>50</v>
       </c>
-      <c r="N57" t="s">
-        <v>323</v>
-      </c>
-      <c r="O57" s="5">
+      <c r="P57" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q57" s="5">
         <v>45700</v>
       </c>
-      <c r="P57" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q57" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="R57" s="16" t="s">
+      <c r="R57" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="S57" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="T57" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S57" s="16" t="s">
+      <c r="U57" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="T57" t="str">
-        <f t="shared" si="0"/>
-        <v>MC_RR_D_Asp3 (mg/kg)</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V57" t="str">
+        <f>CONCATENATE(R57, " (", T57, ")")</f>
+        <v>MC_HTyR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
         <v>184</v>
@@ -4503,49 +4843,40 @@
         <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>276</v>
-      </c>
-      <c r="F58" t="s">
-        <v>275</v>
+        <v>257</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="G58" t="s">
-        <v>316</v>
-      </c>
-      <c r="K58" t="s">
-        <v>316</v>
-      </c>
-      <c r="L58" t="s">
-        <v>317</v>
-      </c>
-      <c r="M58" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H58" t="s">
+        <v>256</v>
+      </c>
+      <c r="O58" t="s">
         <v>50</v>
       </c>
-      <c r="N58" t="s">
-        <v>318</v>
-      </c>
-      <c r="O58" s="5">
-        <v>45700</v>
-      </c>
-      <c r="P58" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q58" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="R58" s="16" t="s">
+      <c r="R58" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="S58" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="T58" t="s">
         <v>50</v>
       </c>
-      <c r="S58" s="16" t="s">
+      <c r="U58" t="s">
         <v>344</v>
       </c>
-      <c r="T58" t="str">
-        <f t="shared" si="0"/>
-        <v>NOD_R (mg/kg)</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V58" t="str">
+        <f>CONCATENATE(R58, " (", T58, ")")</f>
+        <v>MC_HtyR_D_Asp3_E_Dhb7 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
         <v>184</v>
@@ -4556,50 +4887,53 @@
       <c r="E59" t="s">
         <v>257</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G59" t="s">
+        <v>257</v>
+      </c>
+      <c r="H59" t="s">
         <v>256</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="M59" s="3" t="s">
+      <c r="I59" t="s">
+        <v>238</v>
+      </c>
+      <c r="M59" t="s">
+        <v>238</v>
+      </c>
+      <c r="N59" t="s">
+        <v>260</v>
+      </c>
+      <c r="O59" t="s">
         <v>50</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="O59" s="5">
+      <c r="P59" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q59" s="5">
         <v>45698</v>
       </c>
-      <c r="P59" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q59" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="R59" s="3" t="s">
+      <c r="R59" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="S59" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="T59" t="s">
         <v>50</v>
       </c>
-      <c r="S59" s="3" t="s">
+      <c r="U59" t="s">
         <v>344</v>
       </c>
-      <c r="T59" t="str">
-        <f t="shared" si="0"/>
-        <v>MC_RR (mg/kg)</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V59" t="str">
+        <f>CONCATENATE(R59, " (", T59, ")")</f>
+        <v>MC_LA (mg/kg)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
         <v>184</v>
@@ -4610,47 +4944,53 @@
       <c r="E60" t="s">
         <v>257</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G60" t="s">
+        <v>257</v>
+      </c>
+      <c r="H60" t="s">
         <v>256</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
+        <v>239</v>
+      </c>
+      <c r="M60" t="s">
+        <v>239</v>
+      </c>
+      <c r="N60" t="s">
+        <v>262</v>
+      </c>
+      <c r="O60" t="s">
+        <v>50</v>
+      </c>
+      <c r="P60" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>45698</v>
+      </c>
+      <c r="R60" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="S60" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="T60" t="s">
+        <v>50</v>
+      </c>
+      <c r="U60" t="s">
+        <v>344</v>
+      </c>
+      <c r="V60" t="str">
+        <f>CONCATENATE(R60, " (", T60, ")")</f>
+        <v>MC_LF (mg/kg)</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>236</v>
-      </c>
-      <c r="K60" t="s">
-        <v>236</v>
-      </c>
-      <c r="L60" t="s">
-        <v>254</v>
-      </c>
-      <c r="M60" t="s">
-        <v>50</v>
-      </c>
-      <c r="N60" t="s">
-        <v>255</v>
-      </c>
-      <c r="O60" s="5">
-        <v>45698</v>
-      </c>
-      <c r="P60" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q60" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="R60" t="s">
-        <v>50</v>
-      </c>
-      <c r="S60" t="s">
-        <v>344</v>
-      </c>
-      <c r="T60" t="str">
-        <f t="shared" si="0"/>
-        <v>MC_LR (mg/kg)</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>237</v>
       </c>
       <c r="C61" t="s">
         <v>184</v>
@@ -4661,47 +5001,53 @@
       <c r="E61" t="s">
         <v>257</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G61" t="s">
+        <v>257</v>
+      </c>
+      <c r="H61" t="s">
         <v>256</v>
       </c>
-      <c r="G61" t="s">
-        <v>237</v>
-      </c>
-      <c r="K61" t="s">
-        <v>237</v>
-      </c>
-      <c r="L61" t="s">
-        <v>273</v>
+      <c r="I61" t="s">
+        <v>236</v>
       </c>
       <c r="M61" t="s">
+        <v>236</v>
+      </c>
+      <c r="N61" t="s">
+        <v>254</v>
+      </c>
+      <c r="O61" t="s">
         <v>50</v>
       </c>
-      <c r="N61" t="s">
-        <v>274</v>
-      </c>
-      <c r="O61" s="5">
+      <c r="P61" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q61" s="5">
         <v>45698</v>
       </c>
-      <c r="P61" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q61" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="R61" t="s">
+      <c r="R61" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="S61" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="T61" t="s">
         <v>50</v>
       </c>
-      <c r="S61" t="s">
+      <c r="U61" t="s">
         <v>344</v>
       </c>
-      <c r="T61" t="str">
-        <f t="shared" si="0"/>
-        <v>MC_YR (mg/kg)</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>238</v>
+      <c r="V61" t="str">
+        <f>CONCATENATE(R61, " (", T61, ")")</f>
+        <v>MC_LR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="C62" t="s">
         <v>184</v>
@@ -4712,47 +5058,53 @@
       <c r="E62" t="s">
         <v>257</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G62" t="s">
+        <v>257</v>
+      </c>
+      <c r="H62" t="s">
         <v>256</v>
       </c>
-      <c r="G62" t="s">
-        <v>238</v>
-      </c>
-      <c r="K62" t="s">
-        <v>238</v>
-      </c>
-      <c r="L62" t="s">
-        <v>260</v>
+      <c r="I62" t="s">
+        <v>320</v>
       </c>
       <c r="M62" t="s">
+        <v>320</v>
+      </c>
+      <c r="N62" t="s">
+        <v>321</v>
+      </c>
+      <c r="O62" t="s">
         <v>50</v>
       </c>
-      <c r="N62" t="s">
-        <v>259</v>
-      </c>
-      <c r="O62" s="5">
-        <v>45698</v>
-      </c>
-      <c r="P62" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q62" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="R62" t="s">
+      <c r="P62" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>45700</v>
+      </c>
+      <c r="R62" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="S62" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="T62" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S62" t="s">
+      <c r="U62" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="T62" t="str">
-        <f t="shared" si="0"/>
-        <v>MC_LA (mg/kg)</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>239</v>
+      <c r="V62" t="str">
+        <f>CONCATENATE(R62, " (", T62, ")")</f>
+        <v>MC_LR_D_Asp3 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="C63" t="s">
         <v>184</v>
@@ -4763,45 +5115,51 @@
       <c r="E63" t="s">
         <v>257</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" t="s">
+        <v>257</v>
+      </c>
+      <c r="H63" t="s">
         <v>256</v>
       </c>
-      <c r="G63" t="s">
-        <v>239</v>
-      </c>
-      <c r="K63" t="s">
-        <v>239</v>
-      </c>
-      <c r="L63" t="s">
-        <v>262</v>
+      <c r="I63" t="s">
+        <v>331</v>
       </c>
       <c r="M63" t="s">
+        <v>331</v>
+      </c>
+      <c r="N63" t="s">
+        <v>330</v>
+      </c>
+      <c r="O63" t="s">
         <v>50</v>
       </c>
-      <c r="N63" t="s">
-        <v>261</v>
-      </c>
-      <c r="O63" s="5">
-        <v>45698</v>
-      </c>
-      <c r="P63" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q63" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="R63" t="s">
+      <c r="P63" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>45700</v>
+      </c>
+      <c r="R63" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="S63" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="T63" t="s">
         <v>50</v>
       </c>
-      <c r="S63" t="s">
+      <c r="U63" t="s">
         <v>344</v>
       </c>
-      <c r="T63" t="str">
-        <f t="shared" si="0"/>
-        <v>MC_LF (mg/kg)</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V63" t="str">
+        <f>CONCATENATE(R63, " (", T63, ")")</f>
+        <v>MC_LR_Dha7 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>240</v>
       </c>
@@ -4814,45 +5172,51 @@
       <c r="E64" t="s">
         <v>257</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G64" t="s">
+        <v>257</v>
+      </c>
+      <c r="H64" t="s">
         <v>256</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
         <v>240</v>
       </c>
-      <c r="K64" t="s">
+      <c r="M64" t="s">
         <v>239</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" t="s">
         <v>263</v>
       </c>
-      <c r="M64" t="s">
+      <c r="O64" t="s">
         <v>50</v>
       </c>
-      <c r="N64" t="s">
+      <c r="P64" t="s">
         <v>267</v>
       </c>
-      <c r="O64" s="5">
+      <c r="Q64" s="5">
         <v>45698</v>
       </c>
-      <c r="P64" s="10" t="s">
+      <c r="R64" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="Q64" s="10" t="s">
+      <c r="S64" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="R64" t="s">
+      <c r="T64" t="s">
         <v>50</v>
       </c>
-      <c r="S64" t="s">
+      <c r="U64" t="s">
         <v>344</v>
       </c>
-      <c r="T64" t="str">
-        <f t="shared" si="0"/>
+      <c r="V64" t="str">
+        <f>CONCATENATE(R64, " (", T64, ")")</f>
         <v>MC_LW (mg/kg)</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>241</v>
       </c>
@@ -4865,47 +5229,53 @@
       <c r="E65" t="s">
         <v>257</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G65" t="s">
+        <v>257</v>
+      </c>
+      <c r="H65" t="s">
         <v>256</v>
       </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
         <v>241</v>
       </c>
-      <c r="K65" t="s">
+      <c r="M65" t="s">
         <v>239</v>
       </c>
-      <c r="L65" t="s">
+      <c r="N65" t="s">
         <v>264</v>
       </c>
-      <c r="M65" t="s">
+      <c r="O65" t="s">
         <v>50</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
         <v>268</v>
       </c>
-      <c r="O65" s="5">
+      <c r="Q65" s="5">
         <v>45698</v>
       </c>
-      <c r="P65" s="10" t="s">
+      <c r="R65" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="Q65" s="10" t="s">
+      <c r="S65" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="R65" t="s">
+      <c r="T65" t="s">
         <v>50</v>
       </c>
-      <c r="S65" t="s">
+      <c r="U65" t="s">
         <v>344</v>
       </c>
-      <c r="T65" t="str">
-        <f t="shared" si="0"/>
+      <c r="V65" t="str">
+        <f>CONCATENATE(R65, " (", T65, ")")</f>
         <v>MC_LY (mg/kg)</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C66" t="s">
         <v>184</v>
@@ -4916,47 +5286,56 @@
       <c r="E66" t="s">
         <v>257</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G66" t="s">
+        <v>257</v>
+      </c>
+      <c r="H66" t="s">
         <v>256</v>
       </c>
-      <c r="G66" t="s">
-        <v>242</v>
-      </c>
-      <c r="K66" t="s">
-        <v>239</v>
-      </c>
-      <c r="L66" t="s">
-        <v>265</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="I66" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O66" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N66" t="s">
-        <v>269</v>
-      </c>
-      <c r="O66" s="5">
+      <c r="P66" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q66" s="5">
         <v>45698</v>
       </c>
-      <c r="P66" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q66" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="R66" t="s">
+      <c r="R66" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="S66" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="T66" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S66" t="s">
+      <c r="U66" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="T66" t="str">
-        <f t="shared" si="0"/>
-        <v>MC_WR (mg/kg)</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>243</v>
+      <c r="V66" t="str">
+        <f>CONCATENATE(R66, " (", T66, ")")</f>
+        <v>MC_RR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="C67" t="s">
         <v>184</v>
@@ -4967,47 +5346,38 @@
       <c r="E67" t="s">
         <v>257</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G67" t="s">
+        <v>257</v>
+      </c>
+      <c r="H67" t="s">
         <v>256</v>
       </c>
-      <c r="G67" t="s">
-        <v>243</v>
-      </c>
-      <c r="K67" t="s">
-        <v>239</v>
-      </c>
-      <c r="L67" t="s">
-        <v>266</v>
-      </c>
-      <c r="M67" t="s">
+      <c r="O67" t="s">
         <v>50</v>
       </c>
-      <c r="N67" t="s">
-        <v>270</v>
-      </c>
-      <c r="O67" s="5">
-        <v>45698</v>
-      </c>
-      <c r="P67" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q67" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="R67" t="s">
+      <c r="R67" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="S67" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="T67" t="s">
         <v>50</v>
       </c>
-      <c r="S67" t="s">
+      <c r="U67" t="s">
         <v>344</v>
       </c>
-      <c r="T67" t="str">
-        <f t="shared" ref="T67:T72" si="1">CONCATENATE(P67, " (", R67, ")")</f>
-        <v>MC_HilR (mg/kg)</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V67" t="str">
+        <f>CONCATENATE(R67, " (", T67, ")")</f>
+        <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C68" t="s">
         <v>184</v>
@@ -5018,32 +5388,53 @@
       <c r="E68" t="s">
         <v>257</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G68" t="s">
+        <v>257</v>
+      </c>
+      <c r="H68" t="s">
         <v>256</v>
       </c>
+      <c r="I68" t="s">
+        <v>325</v>
+      </c>
       <c r="M68" t="s">
+        <v>325</v>
+      </c>
+      <c r="N68" t="s">
+        <v>324</v>
+      </c>
+      <c r="O68" t="s">
         <v>50</v>
       </c>
-      <c r="P68" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q68" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="R68" t="s">
+      <c r="P68" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>45700</v>
+      </c>
+      <c r="R68" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="S68" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="T68" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S68" t="s">
+      <c r="U68" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="T68" t="str">
-        <f t="shared" si="1"/>
-        <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
-        <v>245</v>
+      <c r="V68" t="str">
+        <f>CONCATENATE(R68, " (", T68, ")")</f>
+        <v>MC_RR_D_Asp3 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>246</v>
       </c>
       <c r="C69" t="s">
         <v>184</v>
@@ -5054,47 +5445,53 @@
       <c r="E69" t="s">
         <v>257</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G69" t="s">
+        <v>257</v>
+      </c>
+      <c r="H69" t="s">
         <v>256</v>
       </c>
-      <c r="G69" t="s">
-        <v>331</v>
-      </c>
-      <c r="K69" t="s">
-        <v>331</v>
-      </c>
-      <c r="L69" t="s">
-        <v>330</v>
+      <c r="I69" t="s">
+        <v>334</v>
       </c>
       <c r="M69" t="s">
+        <v>334</v>
+      </c>
+      <c r="N69" t="s">
+        <v>333</v>
+      </c>
+      <c r="O69" t="s">
         <v>50</v>
       </c>
-      <c r="N69" t="s">
-        <v>329</v>
-      </c>
-      <c r="O69" s="5">
+      <c r="P69" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q69" s="5">
         <v>45700</v>
       </c>
-      <c r="P69" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q69" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="R69" t="s">
+      <c r="R69" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="T69" t="s">
         <v>50</v>
       </c>
-      <c r="S69" t="s">
+      <c r="U69" t="s">
         <v>344</v>
       </c>
-      <c r="T69" t="str">
-        <f t="shared" si="1"/>
-        <v>MC_LR_Dha7 (mg/kg)</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V69" t="str">
+        <f>CONCATENATE(R69, " (", T69, ")")</f>
+        <v>MC_RR_Dha7 (mg/kg)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
         <v>184</v>
@@ -5105,47 +5502,53 @@
       <c r="E70" t="s">
         <v>257</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G70" t="s">
+        <v>257</v>
+      </c>
+      <c r="H70" t="s">
         <v>256</v>
       </c>
-      <c r="G70" t="s">
-        <v>334</v>
-      </c>
-      <c r="K70" t="s">
-        <v>334</v>
-      </c>
-      <c r="L70" t="s">
-        <v>333</v>
+      <c r="I70" t="s">
+        <v>242</v>
       </c>
       <c r="M70" t="s">
+        <v>239</v>
+      </c>
+      <c r="N70" t="s">
+        <v>265</v>
+      </c>
+      <c r="O70" t="s">
         <v>50</v>
       </c>
-      <c r="N70" t="s">
-        <v>332</v>
-      </c>
-      <c r="O70" s="5">
-        <v>45700</v>
-      </c>
-      <c r="P70" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q70" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="R70" t="s">
+      <c r="P70" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>45698</v>
+      </c>
+      <c r="R70" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="S70" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="T70" t="s">
         <v>50</v>
       </c>
-      <c r="S70" t="s">
+      <c r="U70" t="s">
         <v>344</v>
       </c>
-      <c r="T70" t="str">
-        <f t="shared" si="1"/>
-        <v>MC_RR_Dha7 (mg/kg)</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V70" t="str">
+        <f>CONCATENATE(R70, " (", T70, ")")</f>
+        <v>MC_WR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C71" t="s">
         <v>184</v>
@@ -5156,32 +5559,53 @@
       <c r="E71" t="s">
         <v>257</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G71" t="s">
+        <v>257</v>
+      </c>
+      <c r="H71" t="s">
         <v>256</v>
       </c>
+      <c r="I71" t="s">
+        <v>237</v>
+      </c>
       <c r="M71" t="s">
+        <v>237</v>
+      </c>
+      <c r="N71" t="s">
+        <v>273</v>
+      </c>
+      <c r="O71" t="s">
         <v>50</v>
       </c>
-      <c r="P71" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q71" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="R71" t="s">
+      <c r="P71" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>45698</v>
+      </c>
+      <c r="R71" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="S71" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="T71" t="s">
         <v>50</v>
       </c>
-      <c r="S71" t="s">
+      <c r="U71" t="s">
         <v>344</v>
       </c>
-      <c r="T71" t="str">
-        <f t="shared" si="1"/>
-        <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V71" t="str">
+        <f>CONCATENATE(R71, " (", T71, ")")</f>
+        <v>MC_YR (mg/kg)</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C72" t="s">
         <v>184</v>
@@ -5190,33 +5614,61 @@
         <v>249</v>
       </c>
       <c r="E72" t="s">
-        <v>257</v>
-      </c>
-      <c r="F72" t="s">
-        <v>256</v>
+        <v>276</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G72" t="s">
+        <v>276</v>
+      </c>
+      <c r="H72" t="s">
+        <v>275</v>
+      </c>
+      <c r="I72" t="s">
+        <v>316</v>
       </c>
       <c r="M72" t="s">
+        <v>316</v>
+      </c>
+      <c r="N72" t="s">
+        <v>317</v>
+      </c>
+      <c r="O72" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P72" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q72" s="10" t="s">
-        <v>303</v>
+      <c r="P72" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>45700</v>
       </c>
       <c r="R72" t="s">
+        <v>319</v>
+      </c>
+      <c r="S72" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="T72" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S72" t="s">
+      <c r="U72" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="T72" t="str">
-        <f t="shared" si="1"/>
-        <v>MC_HtyR_D_Asp3_E_Dhb7 (mg/kg)</v>
+      <c r="V72" t="str">
+        <f>CONCATENATE(R72, " (", T72, ")")</f>
+        <v>NOD_R (mg/kg)</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P51">
+  <autoFilter ref="A1:V72" xr:uid="{67F2284E-D0D8-49F9-9CC2-774CACBD7502}">
+    <sortState ref="A2:V72">
+      <sortCondition ref="F2:F72"/>
+      <sortCondition ref="G2:G72"/>
+      <sortCondition ref="A2:A72"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:R51">
     <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bengt/Documents/SMHI/Algtoxiner Jordbruksverket/Toxiner i SHARK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E250C31-8A6C-4DB2-BBED-0997748B703F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0495131-EB33-B74D-B112-AD272C80242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18645" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="17600" yWindow="500" windowWidth="33600" windowHeight="28280" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$V$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$Y$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="365">
   <si>
     <t>Kortnamn-IOC</t>
   </si>
@@ -1093,6 +1104,36 @@
   </si>
   <si>
     <t>Sorteringsgrupp2</t>
+  </si>
+  <si>
+    <t>METOA</t>
+  </si>
+  <si>
+    <t>REFSK_ANA</t>
+  </si>
+  <si>
+    <t>MET_COMNT</t>
+  </si>
+  <si>
+    <t>LC-MS/MS</t>
+  </si>
+  <si>
+    <t>EURL-SOP lipophilic toxins = EURLfM (2015) EU-harmonised standard operating procedure for determination of lipophilic marine biotoxins in molluscs by LC-MS/MS. Based on McNabb et al 2005</t>
+  </si>
+  <si>
+    <t>no comment</t>
+  </si>
+  <si>
+    <t>HPLC-fluorometric detection</t>
+  </si>
+  <si>
+    <t>Lawrence et al. 2005, Turner et al. 2009, Turner et al. 2010</t>
+  </si>
+  <si>
+    <t>Aida knows this</t>
+  </si>
+  <si>
+    <t>Malin P. knows this</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1183,11 +1224,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1204,7 +1254,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,9 +1276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1263,7 +1316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1369,7 +1422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1511,7 +1564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1519,123 +1572,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="43.42578125" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" customWidth="1"/>
-    <col min="22" max="22" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.5" customWidth="1"/>
+    <col min="20" max="20" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" customWidth="1"/>
+    <col min="25" max="25" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>53</v>
@@ -1644,4031 +1703,4532 @@
         <v>53</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="V2" t="str">
-        <f>CONCATENATE(R2, " (", T2, ")")</f>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Y33" si="0">CONCATENATE(U2, " (", W2, ")")</f>
         <v>E_coli (cells/100 g)</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="4">
+      <c r="M3" s="4">
         <v>30</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="T3" s="5">
         <v>45691</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="V3" t="str">
-        <f>CONCATENATE(R3, " (", T3, ")")</f>
+      <c r="Y3" t="str">
+        <f t="shared" si="0"/>
         <v>AZA1 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="4">
+      <c r="M4" s="4">
         <v>30</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="T4" s="5">
         <v>45691</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="V4" t="str">
-        <f>CONCATENATE(R4, " (", T4, ")")</f>
+      <c r="Y4" t="str">
+        <f t="shared" si="0"/>
         <v>AZA2 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="4">
+      <c r="M5" s="4">
         <v>30</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="T5" s="5">
         <v>45691</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="V5" t="str">
-        <f>CONCATENATE(R5, " (", T5, ")")</f>
+      <c r="Y5" t="str">
+        <f t="shared" si="0"/>
         <v>AZA3 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="4">
+      <c r="M6" s="4">
         <v>30</v>
       </c>
-      <c r="K6" s="4">
+      <c r="N6" s="4">
         <v>160</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5">
+      <c r="S6" s="4"/>
+      <c r="T6" s="5">
         <v>45691</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="V6" t="str">
-        <f>CONCATENATE(R6, " (", T6, ")")</f>
+      <c r="Y6" t="str">
+        <f t="shared" si="0"/>
         <v>AZA_tot (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="4">
+      <c r="M7" s="4">
         <v>3</v>
       </c>
-      <c r="K7" s="4">
+      <c r="N7" s="4">
         <v>20</v>
       </c>
-      <c r="L7" s="4">
+      <c r="O7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="T7" s="5">
         <v>45688</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="V7" t="str">
-        <f>CONCATENATE(R7, " (", T7, ")")</f>
+      <c r="Y7" t="str">
+        <f t="shared" si="0"/>
         <v>DA (mg/kg)</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="11" t="s">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="W8" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="X8" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="V8" t="str">
-        <f>CONCATENATE(R8, " (", T8, ")")</f>
+      <c r="Y8" t="str">
+        <f t="shared" si="0"/>
         <v>DA_LP205 (Unit)</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P9" t="s">
+      <c r="S9" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="T9" s="5">
         <v>45691</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V9" t="str">
-        <f>CONCATENATE(R9, " (", T9, ")")</f>
+      <c r="Y9" t="str">
+        <f t="shared" si="0"/>
         <v>DA_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J10" s="4">
+      <c r="M10" s="4">
         <v>30</v>
       </c>
-      <c r="K10" s="4">
+      <c r="N10" s="4">
         <v>160</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="T10" s="5">
         <v>45691</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="V10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="V10" t="str">
-        <f>CONCATENATE(R10, " (", T10, ")")</f>
+      <c r="Y10" t="str">
+        <f t="shared" si="0"/>
         <v>DST_tot (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="4">
+      <c r="M11" s="4">
         <v>30</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P11" t="s">
+      <c r="S11" t="s">
         <v>103</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="T11" s="5">
         <v>45691</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="V11" t="str">
-        <f>CONCATENATE(R11, " (", T11, ")")</f>
+      <c r="Y11" t="str">
+        <f t="shared" si="0"/>
         <v>DTX1 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="4">
+      <c r="M12" s="4">
         <v>30</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="T12" s="5">
         <v>45691</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="X12" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="V12" t="str">
-        <f>CONCATENATE(R12, " (", T12, ")")</f>
+      <c r="Y12" t="str">
+        <f t="shared" si="0"/>
         <v>DTX3 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="4">
+      <c r="M13" s="4">
         <v>30</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="T13" s="5">
         <v>45691</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="V13" t="str">
-        <f>CONCATENATE(R13, " (", T13, ")")</f>
+      <c r="Y13" t="str">
+        <f t="shared" si="0"/>
         <v>DTX2 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="4">
+      <c r="M14" s="4">
         <v>30</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="T14" s="5">
         <v>45691</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="V14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="V14" t="str">
-        <f>CONCATENATE(R14, " (", T14, ")")</f>
+      <c r="Y14" t="str">
+        <f t="shared" si="0"/>
         <v>DTX2_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="4">
+      <c r="M15" s="4">
         <v>30</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="5">
+      <c r="S15" s="4"/>
+      <c r="T15" s="5">
         <v>45691</v>
       </c>
-      <c r="R15" s="4" t="s">
+      <c r="U15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="V15" t="str">
-        <f>CONCATENATE(R15, " (", T15, ")")</f>
+      <c r="Y15" t="str">
+        <f t="shared" si="0"/>
         <v>OA_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="4">
+      <c r="M16" s="4">
         <v>30</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4">
         <v>1</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="T16" s="5">
         <v>45691</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="U16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="X16" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="V16" t="str">
-        <f>CONCATENATE(R16, " (", T16, ")")</f>
+      <c r="Y16" t="str">
+        <f t="shared" si="0"/>
         <v>Okadaic acid (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J17" s="4">
+      <c r="M17" s="4">
         <v>30</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="T17" s="5">
         <v>45691</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="V17" t="str">
-        <f>CONCATENATE(R17, " (", T17, ")")</f>
+      <c r="Y17" t="str">
+        <f t="shared" si="0"/>
         <v>PTX1 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J18" s="4">
+      <c r="M18" s="4">
         <v>30</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="S18" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="T18" s="5">
         <v>45691</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="U18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="V18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="X18" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="V18" t="str">
-        <f>CONCATENATE(R18, " (", T18, ")")</f>
+      <c r="Y18" t="str">
+        <f t="shared" si="0"/>
         <v>PTX2 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="4">
+      <c r="M19" s="4">
         <v>30</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="5">
+      <c r="S19" s="4"/>
+      <c r="T19" s="5">
         <v>45691</v>
       </c>
-      <c r="R19" s="4" t="s">
+      <c r="U19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="V19" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="X19" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="V19" t="str">
-        <f>CONCATENATE(R19, " (", T19, ")")</f>
+      <c r="Y19" t="str">
+        <f t="shared" si="0"/>
         <v>PTX_tot (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="7" t="s">
+      <c r="S20" s="4"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="V20" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="X20" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V20" t="str">
-        <f>CONCATENATE(R20, " (", T20, ")")</f>
+      <c r="Y20" t="str">
+        <f t="shared" si="0"/>
         <v>C1_2 (true or false)</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J21" s="4">
+      <c r="M21" s="4">
         <v>40</v>
       </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P21" t="s">
+      <c r="S21" t="s">
         <v>126</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="T21" s="5">
         <v>45691</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="U21" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="V21" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="X21" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V21" t="str">
-        <f>CONCATENATE(R21, " (", T21, ")")</f>
+      <c r="Y21" t="str">
+        <f t="shared" si="0"/>
         <v>STX_C1_C2 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="11" t="s">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="V22" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="W22" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="X22" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="V22" t="str">
-        <f>CONCATENATE(R22, " (", T22, ")")</f>
+      <c r="Y22" t="str">
+        <f t="shared" si="0"/>
         <v>C3_4 (Unit)</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P23" t="s">
+      <c r="S23" t="s">
         <v>126</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="T23" s="5">
         <v>45691</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="U23" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="V23" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="X23" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V23" t="str">
-        <f>CONCATENATE(R23, " (", T23, ")")</f>
+      <c r="Y23" t="str">
+        <f t="shared" si="0"/>
         <v>STX_C3_C4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R24" t="s">
+      <c r="U24" t="s">
         <v>199</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="V24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="X24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V24" t="str">
-        <f>CONCATENATE(R24, " (", T24, ")")</f>
+      <c r="Y24" t="str">
+        <f t="shared" si="0"/>
         <v>dcGTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="4">
+      <c r="M25" s="4">
         <v>125</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P25" t="s">
+      <c r="S25" t="s">
         <v>138</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="T25" s="5">
         <v>45691</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="V25" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="X25" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V25" t="str">
-        <f>CONCATENATE(R25, " (", T25, ")")</f>
+      <c r="Y25" t="str">
+        <f t="shared" si="0"/>
         <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R26" t="s">
+      <c r="U26" t="s">
         <v>200</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="V26" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="W26" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="X26" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V26" t="str">
-        <f>CONCATENATE(R26, " (", T26, ")")</f>
+      <c r="Y26" t="str">
+        <f t="shared" si="0"/>
         <v>dcNEO_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J27" s="4">
+      <c r="M27" s="4">
         <v>160</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="S27" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="T27" s="5">
         <v>45691</v>
       </c>
-      <c r="R27" s="4" t="s">
+      <c r="U27" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="V27" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="T27" s="4" t="s">
+      <c r="W27" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U27" s="4" t="s">
+      <c r="X27" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V27" t="str">
-        <f>CONCATENATE(R27, " (", T27, ")")</f>
+      <c r="Y27" t="str">
+        <f t="shared" si="0"/>
         <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="O28" s="4" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="R28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R28" t="s">
+      <c r="U28" t="s">
         <v>201</v>
       </c>
-      <c r="S28" s="12" t="s">
+      <c r="V28" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="W28" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="X28" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V28" t="str">
-        <f>CONCATENATE(R28, " (", T28, ")")</f>
+      <c r="Y28" t="str">
+        <f t="shared" si="0"/>
         <v>dcSTX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="4">
+      <c r="M29" s="4">
         <v>41</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="S29" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="T29" s="5">
         <v>45691</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="U29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="V29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="X29" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V29" t="str">
-        <f>CONCATENATE(R29, " (", T29, ")")</f>
+      <c r="Y29" t="str">
+        <f t="shared" si="0"/>
         <v>dcSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="4" t="s">
+      <c r="S30" s="4"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="V30" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="W30" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U30" s="4" t="s">
+      <c r="X30" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V30" t="str">
-        <f>CONCATENATE(R30, " (", T30, ")")</f>
+      <c r="Y30" t="str">
+        <f t="shared" si="0"/>
         <v>GTX1_4_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="4">
+      <c r="M31" s="4">
         <v>330</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="S31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="T31" s="5">
         <v>45691</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="U31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="V31" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="T31" s="4" t="s">
+      <c r="W31" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U31" s="4" t="s">
+      <c r="X31" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V31" t="str">
-        <f>CONCATENATE(R31, " (", T31, ")")</f>
+      <c r="Y31" t="str">
+        <f t="shared" si="0"/>
         <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="O32" s="4" t="s">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="R32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R32" t="s">
+      <c r="U32" t="s">
         <v>205</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="V32" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="W32" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="X32" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V32" t="str">
-        <f>CONCATENATE(R32, " (", T32, ")")</f>
+      <c r="Y32" t="str">
+        <f t="shared" si="0"/>
         <v>GTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="4">
+      <c r="M33" s="4">
         <v>80</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="S33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="T33" s="5">
         <v>45691</v>
       </c>
-      <c r="R33" s="4" t="s">
+      <c r="U33" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="V33" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="T33" s="4" t="s">
+      <c r="W33" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U33" s="4" t="s">
+      <c r="X33" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V33" t="str">
-        <f>CONCATENATE(R33, " (", T33, ")")</f>
+      <c r="Y33" t="str">
+        <f t="shared" si="0"/>
         <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="O34" s="4" t="s">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="R34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R34" t="s">
+      <c r="U34" t="s">
         <v>206</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="V34" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="T34" s="4" t="s">
+      <c r="W34" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="X34" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V34" t="str">
-        <f>CONCATENATE(R34, " (", T34, ")")</f>
+      <c r="Y34" t="str">
+        <f t="shared" ref="Y34:Y65" si="1">CONCATENATE(U34, " (", W34, ")")</f>
         <v>GTX5_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J35" s="4">
+      <c r="M35" s="4">
         <v>8</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="S35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="T35" s="5">
         <v>45691</v>
       </c>
-      <c r="R35" s="4" t="s">
+      <c r="U35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="V35" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="T35" s="4" t="s">
+      <c r="W35" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U35" s="4" t="s">
+      <c r="X35" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V35" t="str">
-        <f>CONCATENATE(R35, " (", T35, ")")</f>
+      <c r="Y35" t="str">
+        <f t="shared" si="1"/>
         <v>GTX5 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="O36" s="4" t="s">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="R36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R36" s="4" t="s">
+      <c r="U36" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="S36" s="7" t="s">
+      <c r="V36" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="T36" s="4" t="s">
+      <c r="W36" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U36" s="4" t="s">
+      <c r="X36" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V36" t="str">
-        <f>CONCATENATE(R36, " (", T36, ")")</f>
+      <c r="Y36" t="str">
+        <f t="shared" si="1"/>
         <v>GTX6_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="Q37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="T37" s="5">
         <v>45691</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="U37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S37" s="4" t="s">
+      <c r="V37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="T37" s="4" t="s">
+      <c r="W37" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U37" s="4" t="s">
+      <c r="X37" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V37" t="str">
-        <f>CONCATENATE(R37, " (", T37, ")")</f>
+      <c r="Y37" t="str">
+        <f t="shared" si="1"/>
         <v>GTX6 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="11" t="s">
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="S38" s="11" t="s">
+      <c r="V38" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="W38" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="X38" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="V38" t="str">
-        <f>CONCATENATE(R38, " (", T38, ")")</f>
+      <c r="Y38" t="str">
+        <f t="shared" si="1"/>
         <v>Shortname (Unit)</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J39" s="4">
+      <c r="M39" s="4">
         <v>167</v>
       </c>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="S39" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="T39" s="5">
         <v>45691</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="U39" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S39" s="4" t="s">
+      <c r="V39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="T39" s="4" t="s">
+      <c r="W39" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U39" s="4" t="s">
+      <c r="X39" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V39" t="str">
-        <f>CONCATENATE(R39, " (", T39, ")")</f>
+      <c r="Y39" t="str">
+        <f t="shared" si="1"/>
         <v>NeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="11" t="s">
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="S40" s="11" t="s">
+      <c r="V40" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="T40" s="11" t="s">
+      <c r="W40" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="U40" s="11" t="s">
+      <c r="X40" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="V40" t="str">
-        <f>CONCATENATE(R40, " (", T40, ")")</f>
+      <c r="Y40" t="str">
+        <f t="shared" si="1"/>
         <v>PSP_tot (Unit)</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J41" s="4">
+      <c r="M41" s="4">
         <v>380</v>
       </c>
-      <c r="K41" s="4">
+      <c r="N41" s="4">
         <v>800</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4" t="s">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="6" t="s">
+      <c r="S41" s="4"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="V41" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="T41" s="4" t="s">
+      <c r="W41" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U41" s="4" t="s">
+      <c r="X41" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V41" t="str">
-        <f>CONCATENATE(R41, " (", T41, ")")</f>
+      <c r="Y41" t="str">
+        <f t="shared" si="1"/>
         <v>PST_tot (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R42" t="s">
+      <c r="U42" t="s">
         <v>211</v>
       </c>
-      <c r="S42" s="7" t="s">
+      <c r="V42" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="T42" s="4" t="s">
+      <c r="W42" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U42" s="4" t="s">
+      <c r="X42" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="V42" t="str">
-        <f>CONCATENATE(R42, " (", T42, ")")</f>
+      <c r="Y42" t="str">
+        <f t="shared" si="1"/>
         <v>STX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="L43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J43" s="4">
+      <c r="M43" s="4">
         <v>40</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4">
+      <c r="N43" s="4"/>
+      <c r="O43" s="4">
         <v>1</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="P43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="Q43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O43" s="4" t="s">
+      <c r="R43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="P43" t="s">
+      <c r="S43" t="s">
         <v>126</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="T43" s="5">
         <v>45691</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="U43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S43" s="4" t="s">
+      <c r="V43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="T43" s="4" t="s">
+      <c r="W43" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U43" s="4" t="s">
+      <c r="X43" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="V43" t="str">
-        <f>CONCATENATE(R43, " (", T43, ")")</f>
+      <c r="Y43" t="str">
+        <f t="shared" si="1"/>
         <v>STX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
-      <c r="O44" s="4" t="s">
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="5">
+      <c r="S44" s="4"/>
+      <c r="T44" s="5">
         <v>45691</v>
       </c>
-      <c r="R44" s="4" t="s">
+      <c r="U44" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="S44" s="7" t="s">
+      <c r="V44" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="T44" s="4" t="s">
+      <c r="W44" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="U44" s="4" t="s">
+      <c r="X44" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="V44" t="str">
-        <f>CONCATENATE(R44, " (", T44, ")")</f>
+      <c r="Y44" t="str">
+        <f t="shared" si="1"/>
         <v>SPX1 (ug/kg)</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J45" s="4">
+      <c r="M45" s="4">
         <v>0.1</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="Q45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="4" t="s">
+      <c r="R45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P45" t="s">
+      <c r="S45" t="s">
         <v>60</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="T45" s="5">
         <v>45691</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="U45" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="S45" s="4" t="s">
+      <c r="V45" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T45" s="4" t="s">
+      <c r="W45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="U45" s="4" t="s">
+      <c r="X45" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="str">
-        <f>CONCATENATE(R45, " (", T45, ")")</f>
+      <c r="Y45" t="str">
+        <f t="shared" si="1"/>
         <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="L46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J46" s="4">
+      <c r="M46" s="4">
         <v>0.1</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4" t="s">
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N46" s="4" t="s">
+      <c r="Q46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O46" s="4" t="s">
+      <c r="R46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P46" s="4" t="s">
+      <c r="S46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="T46" s="5">
         <v>45691</v>
       </c>
-      <c r="R46" s="4" t="s">
+      <c r="U46" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="S46" s="4" t="s">
+      <c r="V46" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="T46" s="4" t="s">
+      <c r="W46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="U46" s="4" t="s">
+      <c r="X46" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="V46" t="str">
-        <f>CONCATENATE(R46, " (", T46, ")")</f>
+      <c r="Y46" t="str">
+        <f t="shared" si="1"/>
         <v>45_OH_homoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="L47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="4">
+      <c r="M47" s="4">
         <v>0.1</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4" t="s">
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="O47" s="4" t="s">
+      <c r="R47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P47" t="s">
+      <c r="S47" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="T47" s="5">
         <v>45691</v>
       </c>
-      <c r="R47" s="4" t="s">
+      <c r="U47" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="V47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="T47" s="4" t="s">
+      <c r="W47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="U47" s="4" t="s">
+      <c r="X47" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="V47" t="str">
-        <f>CONCATENATE(R47, " (", T47, ")")</f>
+      <c r="Y47" t="str">
+        <f t="shared" si="1"/>
         <v>45_OH_YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="4">
+      <c r="M48" s="4">
         <v>0.1</v>
       </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="Q48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O48" s="4" t="s">
+      <c r="R48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P48" t="s">
+      <c r="S48" t="s">
         <v>158</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="T48" s="5">
         <v>45691</v>
       </c>
-      <c r="R48" s="4" t="s">
+      <c r="U48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S48" s="4" t="s">
+      <c r="V48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T48" s="4" t="s">
+      <c r="W48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="U48" s="4" t="s">
+      <c r="X48" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="V48" t="str">
-        <f>CONCATENATE(R48, " (", T48, ")")</f>
+      <c r="Y48" t="str">
+        <f t="shared" si="1"/>
         <v>CarboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J49" s="4">
+      <c r="M49" s="4">
         <v>0.1</v>
       </c>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="Q49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="O49" s="4" t="s">
+      <c r="R49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P49" s="4" t="s">
+      <c r="S49" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q49" s="5">
+      <c r="T49" s="5">
         <v>45691</v>
       </c>
-      <c r="R49" s="4" t="s">
+      <c r="U49" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="S49" s="4" t="s">
+      <c r="V49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="T49" s="4" t="s">
+      <c r="W49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="U49" s="4" t="s">
+      <c r="X49" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="V49" t="str">
-        <f>CONCATENATE(R49, " (", T49, ")")</f>
+      <c r="Y49" t="str">
+        <f t="shared" si="1"/>
         <v>HomoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="G50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="L50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J50" s="4">
+      <c r="M50" s="4">
         <v>0.1</v>
       </c>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4">
+      <c r="N50" s="4"/>
+      <c r="O50" s="4">
         <v>1</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="P50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="Q50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O50" s="4" t="s">
+      <c r="R50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P50" s="4" t="s">
+      <c r="S50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q50" s="5">
+      <c r="T50" s="5">
         <v>45691</v>
       </c>
-      <c r="R50" s="4" t="s">
+      <c r="U50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S50" s="4" t="s">
+      <c r="V50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="T50" s="4" t="s">
+      <c r="W50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="U50" s="4" t="s">
+      <c r="X50" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="V50" t="str">
-        <f>CONCATENATE(R50, " (", T50, ")")</f>
+      <c r="Y50" t="str">
+        <f t="shared" si="1"/>
         <v>YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="L51" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J51" s="4">
+      <c r="M51" s="4">
         <v>0.1</v>
       </c>
-      <c r="K51" s="4">
+      <c r="N51" s="4">
         <v>3.75</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4" t="s">
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="5" t="s">
+      <c r="S51" s="4"/>
+      <c r="T51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R51" s="4" t="s">
+      <c r="U51" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="S51" s="7" t="s">
+      <c r="V51" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="T51" s="4" t="s">
+      <c r="W51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="U51" s="4" t="s">
+      <c r="X51" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="V51" t="str">
-        <f>CONCATENATE(R51, " (", T51, ")")</f>
+      <c r="Y51" t="str">
+        <f t="shared" si="1"/>
         <v>YTX_tot (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="O52" t="s">
+      <c r="R52" t="s">
         <v>50</v>
       </c>
-      <c r="R52" s="10" t="s">
+      <c r="U52" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="S52" s="10" t="s">
+      <c r="V52" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="T52" s="16" t="s">
+      <c r="W52" t="s">
         <v>50</v>
       </c>
-      <c r="U52" s="16" t="s">
+      <c r="X52" t="s">
         <v>344</v>
       </c>
-      <c r="V52" t="str">
-        <f>CONCATENATE(R52, " (", T52, ")")</f>
+      <c r="Y52" t="str">
+        <f t="shared" si="1"/>
         <v>Ana_a (mg/kg)</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="O53" t="s">
+      <c r="R53" t="s">
         <v>50</v>
       </c>
-      <c r="R53" s="10" t="s">
+      <c r="U53" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="S53" s="10" t="s">
+      <c r="V53" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="T53" s="16" t="s">
+      <c r="W53" t="s">
         <v>50</v>
       </c>
-      <c r="U53" s="16" t="s">
+      <c r="X53" t="s">
         <v>344</v>
       </c>
-      <c r="V53" t="str">
-        <f>CONCATENATE(R53, " (", T53, ")")</f>
+      <c r="Y53" t="str">
+        <f t="shared" si="1"/>
         <v>h_Ana (mg/kg)</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>252</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="L54" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="P54" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="Q54" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="O54" t="s">
+      <c r="R54" t="s">
         <v>50</v>
       </c>
-      <c r="P54" t="s">
+      <c r="S54" t="s">
         <v>250</v>
       </c>
-      <c r="Q54" s="5">
+      <c r="T54" s="5">
         <v>45698</v>
       </c>
-      <c r="R54" t="s">
+      <c r="U54" t="s">
         <v>252</v>
       </c>
-      <c r="S54" s="7" t="s">
+      <c r="V54" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="T54" s="16" t="s">
+      <c r="W54" t="s">
         <v>50</v>
       </c>
-      <c r="U54" s="16" t="s">
+      <c r="X54" t="s">
         <v>344</v>
       </c>
-      <c r="V54" t="str">
-        <f>CONCATENATE(R54, " (", T54, ")")</f>
+      <c r="Y54" t="str">
+        <f t="shared" si="1"/>
         <v>CYN (mg/kg)</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>243</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F55" t="s">
         <v>184</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>249</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>257</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G55" t="s">
+      <c r="J55" t="s">
         <v>257</v>
       </c>
-      <c r="H55" t="s">
+      <c r="K55" t="s">
         <v>256</v>
       </c>
-      <c r="I55" t="s">
+      <c r="L55" t="s">
         <v>243</v>
       </c>
-      <c r="M55" t="s">
+      <c r="P55" t="s">
         <v>239</v>
       </c>
-      <c r="N55" t="s">
+      <c r="Q55" t="s">
         <v>266</v>
       </c>
-      <c r="O55" t="s">
+      <c r="R55" t="s">
         <v>50</v>
       </c>
-      <c r="P55" t="s">
+      <c r="S55" t="s">
         <v>270</v>
       </c>
-      <c r="Q55" s="5">
+      <c r="T55" s="5">
         <v>45698</v>
       </c>
-      <c r="R55" s="10" t="s">
+      <c r="U55" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="S55" s="10" t="s">
+      <c r="V55" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="T55" t="s">
+      <c r="W55" t="s">
         <v>50</v>
       </c>
-      <c r="U55" t="s">
+      <c r="X55" t="s">
         <v>344</v>
       </c>
-      <c r="V55" t="str">
-        <f>CONCATENATE(R55, " (", T55, ")")</f>
+      <c r="Y55" t="str">
+        <f t="shared" si="1"/>
         <v>MC_HilR (mg/kg)</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>247</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F56" t="s">
         <v>184</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>249</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>257</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G56" t="s">
+      <c r="J56" t="s">
         <v>257</v>
       </c>
-      <c r="H56" t="s">
+      <c r="K56" t="s">
         <v>256</v>
       </c>
-      <c r="O56" t="s">
+      <c r="R56" t="s">
         <v>50</v>
       </c>
-      <c r="R56" s="10" t="s">
+      <c r="U56" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="S56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="T56" t="s">
+      <c r="W56" t="s">
         <v>50</v>
       </c>
-      <c r="U56" t="s">
+      <c r="X56" t="s">
         <v>344</v>
       </c>
-      <c r="V56" t="str">
-        <f>CONCATENATE(R56, " (", T56, ")")</f>
+      <c r="Y56" t="str">
+        <f t="shared" si="1"/>
         <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>231</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F57" t="s">
         <v>184</v>
       </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
         <v>249</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>257</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G57" t="s">
+      <c r="J57" t="s">
         <v>257</v>
       </c>
-      <c r="H57" t="s">
+      <c r="K57" t="s">
         <v>256</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="L57" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="P57" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="Q57" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="O57" t="s">
+      <c r="R57" t="s">
         <v>50</v>
       </c>
-      <c r="P57" t="s">
+      <c r="S57" t="s">
         <v>326</v>
       </c>
-      <c r="Q57" s="5">
+      <c r="T57" s="5">
         <v>45700</v>
       </c>
-      <c r="R57" s="10" t="s">
+      <c r="U57" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="S57" s="10" t="s">
+      <c r="V57" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="T57" s="16" t="s">
+      <c r="W57" t="s">
         <v>50</v>
       </c>
-      <c r="U57" s="16" t="s">
+      <c r="X57" t="s">
         <v>344</v>
       </c>
-      <c r="V57" t="str">
-        <f>CONCATENATE(R57, " (", T57, ")")</f>
+      <c r="Y57" t="str">
+        <f t="shared" si="1"/>
         <v>MC_HTyR (mg/kg)</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>248</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F58" t="s">
         <v>184</v>
       </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
         <v>249</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>257</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G58" t="s">
+      <c r="J58" t="s">
         <v>257</v>
       </c>
-      <c r="H58" t="s">
+      <c r="K58" t="s">
         <v>256</v>
       </c>
-      <c r="O58" t="s">
+      <c r="R58" t="s">
         <v>50</v>
       </c>
-      <c r="R58" s="10" t="s">
+      <c r="U58" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="S58" s="10" t="s">
+      <c r="V58" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="T58" t="s">
+      <c r="W58" t="s">
         <v>50</v>
       </c>
-      <c r="U58" t="s">
+      <c r="X58" t="s">
         <v>344</v>
       </c>
-      <c r="V58" t="str">
-        <f>CONCATENATE(R58, " (", T58, ")")</f>
+      <c r="Y58" t="str">
+        <f t="shared" si="1"/>
         <v>MC_HtyR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>238</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F59" t="s">
         <v>184</v>
       </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
         <v>249</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>257</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G59" t="s">
+      <c r="J59" t="s">
         <v>257</v>
       </c>
-      <c r="H59" t="s">
+      <c r="K59" t="s">
         <v>256</v>
       </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
         <v>238</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
         <v>238</v>
       </c>
-      <c r="N59" t="s">
+      <c r="Q59" t="s">
         <v>260</v>
       </c>
-      <c r="O59" t="s">
+      <c r="R59" t="s">
         <v>50</v>
       </c>
-      <c r="P59" t="s">
+      <c r="S59" t="s">
         <v>259</v>
       </c>
-      <c r="Q59" s="5">
+      <c r="T59" s="5">
         <v>45698</v>
       </c>
-      <c r="R59" s="10" t="s">
+      <c r="U59" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="S59" s="10" t="s">
+      <c r="V59" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="T59" t="s">
+      <c r="W59" t="s">
         <v>50</v>
       </c>
-      <c r="U59" t="s">
+      <c r="X59" t="s">
         <v>344</v>
       </c>
-      <c r="V59" t="str">
-        <f>CONCATENATE(R59, " (", T59, ")")</f>
+      <c r="Y59" t="str">
+        <f t="shared" si="1"/>
         <v>MC_LA (mg/kg)</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>239</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B60" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F60" t="s">
         <v>184</v>
       </c>
-      <c r="D60" t="s">
+      <c r="G60" t="s">
         <v>249</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>257</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G60" t="s">
+      <c r="J60" t="s">
         <v>257</v>
       </c>
-      <c r="H60" t="s">
+      <c r="K60" t="s">
         <v>256</v>
       </c>
-      <c r="I60" t="s">
+      <c r="L60" t="s">
         <v>239</v>
       </c>
-      <c r="M60" t="s">
+      <c r="P60" t="s">
         <v>239</v>
       </c>
-      <c r="N60" t="s">
+      <c r="Q60" t="s">
         <v>262</v>
       </c>
-      <c r="O60" t="s">
+      <c r="R60" t="s">
         <v>50</v>
       </c>
-      <c r="P60" t="s">
+      <c r="S60" t="s">
         <v>261</v>
       </c>
-      <c r="Q60" s="5">
+      <c r="T60" s="5">
         <v>45698</v>
       </c>
-      <c r="R60" s="10" t="s">
+      <c r="U60" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="S60" s="10" t="s">
+      <c r="V60" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="T60" t="s">
+      <c r="W60" t="s">
         <v>50</v>
       </c>
-      <c r="U60" t="s">
+      <c r="X60" t="s">
         <v>344</v>
       </c>
-      <c r="V60" t="str">
-        <f>CONCATENATE(R60, " (", T60, ")")</f>
+      <c r="Y60" t="str">
+        <f t="shared" si="1"/>
         <v>MC_LF (mg/kg)</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>236</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B61" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F61" t="s">
         <v>184</v>
       </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
         <v>249</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>257</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G61" t="s">
+      <c r="J61" t="s">
         <v>257</v>
       </c>
-      <c r="H61" t="s">
+      <c r="K61" t="s">
         <v>256</v>
       </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
         <v>236</v>
       </c>
-      <c r="M61" t="s">
+      <c r="P61" t="s">
         <v>236</v>
       </c>
-      <c r="N61" t="s">
+      <c r="Q61" t="s">
         <v>254</v>
       </c>
-      <c r="O61" t="s">
+      <c r="R61" t="s">
         <v>50</v>
       </c>
-      <c r="P61" t="s">
+      <c r="S61" t="s">
         <v>255</v>
       </c>
-      <c r="Q61" s="5">
+      <c r="T61" s="5">
         <v>45698</v>
       </c>
-      <c r="R61" s="10" t="s">
+      <c r="U61" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="S61" s="10" t="s">
+      <c r="V61" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="T61" t="s">
+      <c r="W61" t="s">
         <v>50</v>
       </c>
-      <c r="U61" t="s">
+      <c r="X61" t="s">
         <v>344</v>
       </c>
-      <c r="V61" t="str">
-        <f>CONCATENATE(R61, " (", T61, ")")</f>
+      <c r="Y61" t="str">
+        <f t="shared" si="1"/>
         <v>MC_LR (mg/kg)</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="F62" t="s">
         <v>184</v>
       </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
         <v>249</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>257</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G62" t="s">
+      <c r="J62" t="s">
         <v>257</v>
       </c>
-      <c r="H62" t="s">
+      <c r="K62" t="s">
         <v>256</v>
       </c>
-      <c r="I62" t="s">
+      <c r="L62" t="s">
         <v>320</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
         <v>320</v>
       </c>
-      <c r="N62" t="s">
+      <c r="Q62" t="s">
         <v>321</v>
       </c>
-      <c r="O62" t="s">
+      <c r="R62" t="s">
         <v>50</v>
       </c>
-      <c r="P62" t="s">
+      <c r="S62" t="s">
         <v>322</v>
       </c>
-      <c r="Q62" s="5">
+      <c r="T62" s="5">
         <v>45700</v>
       </c>
-      <c r="R62" s="14" t="s">
+      <c r="U62" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="S62" s="10" t="s">
+      <c r="V62" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="T62" s="16" t="s">
+      <c r="W62" t="s">
         <v>50</v>
       </c>
-      <c r="U62" s="16" t="s">
+      <c r="X62" t="s">
         <v>344</v>
       </c>
-      <c r="V62" t="str">
-        <f>CONCATENATE(R62, " (", T62, ")")</f>
+      <c r="Y62" t="str">
+        <f t="shared" si="1"/>
         <v>MC_LR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="F63" t="s">
         <v>184</v>
       </c>
-      <c r="D63" t="s">
+      <c r="G63" t="s">
         <v>249</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>257</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G63" t="s">
+      <c r="J63" t="s">
         <v>257</v>
       </c>
-      <c r="H63" t="s">
+      <c r="K63" t="s">
         <v>256</v>
       </c>
-      <c r="I63" t="s">
+      <c r="L63" t="s">
         <v>331</v>
       </c>
-      <c r="M63" t="s">
+      <c r="P63" t="s">
         <v>331</v>
       </c>
-      <c r="N63" t="s">
+      <c r="Q63" t="s">
         <v>330</v>
       </c>
-      <c r="O63" t="s">
+      <c r="R63" t="s">
         <v>50</v>
       </c>
-      <c r="P63" t="s">
+      <c r="S63" t="s">
         <v>329</v>
       </c>
-      <c r="Q63" s="5">
+      <c r="T63" s="5">
         <v>45700</v>
       </c>
-      <c r="R63" s="14" t="s">
+      <c r="U63" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="S63" s="14" t="s">
+      <c r="V63" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="T63" t="s">
+      <c r="W63" t="s">
         <v>50</v>
       </c>
-      <c r="U63" t="s">
+      <c r="X63" t="s">
         <v>344</v>
       </c>
-      <c r="V63" t="str">
-        <f>CONCATENATE(R63, " (", T63, ")")</f>
+      <c r="Y63" t="str">
+        <f t="shared" si="1"/>
         <v>MC_LR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>240</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F64" t="s">
         <v>184</v>
       </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
         <v>249</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>257</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="I64" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G64" t="s">
+      <c r="J64" t="s">
         <v>257</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K64" t="s">
         <v>256</v>
       </c>
-      <c r="I64" t="s">
+      <c r="L64" t="s">
         <v>240</v>
       </c>
-      <c r="M64" t="s">
+      <c r="P64" t="s">
         <v>239</v>
       </c>
-      <c r="N64" t="s">
+      <c r="Q64" t="s">
         <v>263</v>
       </c>
-      <c r="O64" t="s">
+      <c r="R64" t="s">
         <v>50</v>
       </c>
-      <c r="P64" t="s">
+      <c r="S64" t="s">
         <v>267</v>
       </c>
-      <c r="Q64" s="5">
+      <c r="T64" s="5">
         <v>45698</v>
       </c>
-      <c r="R64" s="10" t="s">
+      <c r="U64" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="S64" s="10" t="s">
+      <c r="V64" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="T64" t="s">
+      <c r="W64" t="s">
         <v>50</v>
       </c>
-      <c r="U64" t="s">
+      <c r="X64" t="s">
         <v>344</v>
       </c>
-      <c r="V64" t="str">
-        <f>CONCATENATE(R64, " (", T64, ")")</f>
+      <c r="Y64" t="str">
+        <f t="shared" si="1"/>
         <v>MC_LW (mg/kg)</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>241</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B65" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F65" t="s">
         <v>184</v>
       </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
         <v>249</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>257</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G65" t="s">
+      <c r="J65" t="s">
         <v>257</v>
       </c>
-      <c r="H65" t="s">
+      <c r="K65" t="s">
         <v>256</v>
       </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>241</v>
       </c>
-      <c r="M65" t="s">
+      <c r="P65" t="s">
         <v>239</v>
       </c>
-      <c r="N65" t="s">
+      <c r="Q65" t="s">
         <v>264</v>
       </c>
-      <c r="O65" t="s">
+      <c r="R65" t="s">
         <v>50</v>
       </c>
-      <c r="P65" t="s">
+      <c r="S65" t="s">
         <v>268</v>
       </c>
-      <c r="Q65" s="5">
+      <c r="T65" s="5">
         <v>45698</v>
       </c>
-      <c r="R65" s="10" t="s">
+      <c r="U65" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="S65" s="10" t="s">
+      <c r="V65" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="T65" t="s">
+      <c r="W65" t="s">
         <v>50</v>
       </c>
-      <c r="U65" t="s">
+      <c r="X65" t="s">
         <v>344</v>
       </c>
-      <c r="V65" t="str">
-        <f>CONCATENATE(R65, " (", T65, ")")</f>
+      <c r="Y65" t="str">
+        <f t="shared" si="1"/>
         <v>MC_LY (mg/kg)</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>235</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B66" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F66" t="s">
         <v>184</v>
       </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
         <v>249</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>257</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G66" t="s">
+      <c r="J66" t="s">
         <v>257</v>
       </c>
-      <c r="H66" t="s">
+      <c r="K66" t="s">
         <v>256</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3" t="s">
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="Q66" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="R66" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="S66" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="Q66" s="5">
+      <c r="T66" s="5">
         <v>45698</v>
       </c>
-      <c r="R66" s="15" t="s">
+      <c r="U66" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="S66" s="15" t="s">
+      <c r="V66" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="T66" s="3" t="s">
+      <c r="W66" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U66" s="3" t="s">
+      <c r="X66" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="V66" t="str">
-        <f>CONCATENATE(R66, " (", T66, ")")</f>
+      <c r="Y66" t="str">
+        <f t="shared" ref="Y66:Y72" si="2">CONCATENATE(U66, " (", W66, ")")</f>
         <v>MC_RR (mg/kg)</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B67" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="F67" t="s">
         <v>184</v>
       </c>
-      <c r="D67" t="s">
+      <c r="G67" t="s">
         <v>249</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H67" t="s">
         <v>257</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G67" t="s">
+      <c r="J67" t="s">
         <v>257</v>
       </c>
-      <c r="H67" t="s">
+      <c r="K67" t="s">
         <v>256</v>
       </c>
-      <c r="O67" t="s">
+      <c r="R67" t="s">
         <v>50</v>
       </c>
-      <c r="R67" s="13" t="s">
+      <c r="U67" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="S67" s="13" t="s">
+      <c r="V67" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="T67" t="s">
+      <c r="W67" t="s">
         <v>50</v>
       </c>
-      <c r="U67" t="s">
+      <c r="X67" t="s">
         <v>344</v>
       </c>
-      <c r="V67" t="str">
-        <f>CONCATENATE(R67, " (", T67, ")")</f>
+      <c r="Y67" t="str">
+        <f t="shared" si="2"/>
         <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B68" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="F68" t="s">
         <v>184</v>
       </c>
-      <c r="D68" t="s">
+      <c r="G68" t="s">
         <v>249</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>257</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G68" t="s">
+      <c r="J68" t="s">
         <v>257</v>
       </c>
-      <c r="H68" t="s">
+      <c r="K68" t="s">
         <v>256</v>
       </c>
-      <c r="I68" t="s">
+      <c r="L68" t="s">
         <v>325</v>
       </c>
-      <c r="M68" t="s">
+      <c r="P68" t="s">
         <v>325</v>
       </c>
-      <c r="N68" t="s">
+      <c r="Q68" t="s">
         <v>324</v>
       </c>
-      <c r="O68" t="s">
+      <c r="R68" t="s">
         <v>50</v>
       </c>
-      <c r="P68" t="s">
+      <c r="S68" t="s">
         <v>323</v>
       </c>
-      <c r="Q68" s="5">
+      <c r="T68" s="5">
         <v>45700</v>
       </c>
-      <c r="R68" s="13" t="s">
+      <c r="U68" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="S68" s="10" t="s">
+      <c r="V68" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="T68" s="16" t="s">
+      <c r="W68" t="s">
         <v>50</v>
       </c>
-      <c r="U68" s="16" t="s">
+      <c r="X68" t="s">
         <v>344</v>
       </c>
-      <c r="V68" t="str">
-        <f>CONCATENATE(R68, " (", T68, ")")</f>
+      <c r="Y68" t="str">
+        <f t="shared" si="2"/>
         <v>MC_RR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>246</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B69" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F69" t="s">
         <v>184</v>
       </c>
-      <c r="D69" t="s">
+      <c r="G69" t="s">
         <v>249</v>
       </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
         <v>257</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G69" t="s">
+      <c r="J69" t="s">
         <v>257</v>
       </c>
-      <c r="H69" t="s">
+      <c r="K69" t="s">
         <v>256</v>
       </c>
-      <c r="I69" t="s">
+      <c r="L69" t="s">
         <v>334</v>
       </c>
-      <c r="M69" t="s">
+      <c r="P69" t="s">
         <v>334</v>
       </c>
-      <c r="N69" t="s">
+      <c r="Q69" t="s">
         <v>333</v>
       </c>
-      <c r="O69" t="s">
+      <c r="R69" t="s">
         <v>50</v>
       </c>
-      <c r="P69" t="s">
+      <c r="S69" t="s">
         <v>332</v>
       </c>
-      <c r="Q69" s="5">
+      <c r="T69" s="5">
         <v>45700</v>
       </c>
-      <c r="R69" s="10" t="s">
+      <c r="U69" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="S69" s="10" t="s">
+      <c r="V69" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="T69" t="s">
+      <c r="W69" t="s">
         <v>50</v>
       </c>
-      <c r="U69" t="s">
+      <c r="X69" t="s">
         <v>344</v>
       </c>
-      <c r="V69" t="str">
-        <f>CONCATENATE(R69, " (", T69, ")")</f>
+      <c r="Y69" t="str">
+        <f t="shared" si="2"/>
         <v>MC_RR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>242</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B70" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F70" t="s">
         <v>184</v>
       </c>
-      <c r="D70" t="s">
+      <c r="G70" t="s">
         <v>249</v>
       </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>257</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G70" t="s">
+      <c r="J70" t="s">
         <v>257</v>
       </c>
-      <c r="H70" t="s">
+      <c r="K70" t="s">
         <v>256</v>
       </c>
-      <c r="I70" t="s">
+      <c r="L70" t="s">
         <v>242</v>
       </c>
-      <c r="M70" t="s">
+      <c r="P70" t="s">
         <v>239</v>
       </c>
-      <c r="N70" t="s">
+      <c r="Q70" t="s">
         <v>265</v>
       </c>
-      <c r="O70" t="s">
+      <c r="R70" t="s">
         <v>50</v>
       </c>
-      <c r="P70" t="s">
+      <c r="S70" t="s">
         <v>269</v>
       </c>
-      <c r="Q70" s="5">
+      <c r="T70" s="5">
         <v>45698</v>
       </c>
-      <c r="R70" s="10" t="s">
+      <c r="U70" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="S70" s="10" t="s">
+      <c r="V70" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="T70" t="s">
+      <c r="W70" t="s">
         <v>50</v>
       </c>
-      <c r="U70" t="s">
+      <c r="X70" t="s">
         <v>344</v>
       </c>
-      <c r="V70" t="str">
-        <f>CONCATENATE(R70, " (", T70, ")")</f>
+      <c r="Y70" t="str">
+        <f t="shared" si="2"/>
         <v>MC_WR (mg/kg)</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>237</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B71" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F71" t="s">
         <v>184</v>
       </c>
-      <c r="D71" t="s">
+      <c r="G71" t="s">
         <v>249</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>257</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G71" t="s">
+      <c r="J71" t="s">
         <v>257</v>
       </c>
-      <c r="H71" t="s">
+      <c r="K71" t="s">
         <v>256</v>
       </c>
-      <c r="I71" t="s">
+      <c r="L71" t="s">
         <v>237</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="s">
         <v>237</v>
       </c>
-      <c r="N71" t="s">
+      <c r="Q71" t="s">
         <v>273</v>
       </c>
-      <c r="O71" t="s">
+      <c r="R71" t="s">
         <v>50</v>
       </c>
-      <c r="P71" t="s">
+      <c r="S71" t="s">
         <v>274</v>
       </c>
-      <c r="Q71" s="5">
+      <c r="T71" s="5">
         <v>45698</v>
       </c>
-      <c r="R71" s="10" t="s">
+      <c r="U71" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="S71" s="10" t="s">
+      <c r="V71" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="T71" t="s">
+      <c r="W71" t="s">
         <v>50</v>
       </c>
-      <c r="U71" t="s">
+      <c r="X71" t="s">
         <v>344</v>
       </c>
-      <c r="V71" t="str">
-        <f>CONCATENATE(R71, " (", T71, ")")</f>
+      <c r="Y71" t="str">
+        <f t="shared" si="2"/>
         <v>MC_YR (mg/kg)</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>234</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B72" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F72" t="s">
         <v>184</v>
       </c>
-      <c r="D72" t="s">
+      <c r="G72" t="s">
         <v>249</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>276</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G72" t="s">
+      <c r="J72" t="s">
         <v>276</v>
       </c>
-      <c r="H72" t="s">
+      <c r="K72" t="s">
         <v>275</v>
       </c>
-      <c r="I72" t="s">
+      <c r="L72" t="s">
         <v>316</v>
       </c>
-      <c r="M72" t="s">
+      <c r="P72" t="s">
         <v>316</v>
       </c>
-      <c r="N72" t="s">
+      <c r="Q72" t="s">
         <v>317</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="R72" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P72" t="s">
+      <c r="S72" t="s">
         <v>318</v>
       </c>
-      <c r="Q72" s="5">
+      <c r="T72" s="5">
         <v>45700</v>
       </c>
-      <c r="R72" t="s">
+      <c r="U72" t="s">
         <v>319</v>
       </c>
-      <c r="S72" s="10" t="s">
+      <c r="V72" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="T72" s="16" t="s">
+      <c r="W72" t="s">
         <v>50</v>
       </c>
-      <c r="U72" s="16" t="s">
+      <c r="X72" t="s">
         <v>344</v>
       </c>
-      <c r="V72" t="str">
-        <f>CONCATENATE(R72, " (", T72, ")")</f>
+      <c r="Y72" t="str">
+        <f t="shared" si="2"/>
         <v>NOD_R (mg/kg)</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V72" xr:uid="{67F2284E-D0D8-49F9-9CC2-774CACBD7502}">
-    <sortState ref="A2:V72">
-      <sortCondition ref="F2:F72"/>
-      <sortCondition ref="G2:G72"/>
-      <sortCondition ref="A2:A72"/>
-    </sortState>
-  </autoFilter>
-  <sortState ref="A2:R51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U51">
     <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bengt/Documents/SMHI/Algtoxiner Jordbruksverket/Toxiner i SHARK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0495131-EB33-B74D-B112-AD272C80242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64426ED3-1226-4CCB-8D12-F0333908F256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17600" yWindow="500" windowWidth="33600" windowHeight="28280" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="17595" yWindow="495" windowWidth="33600" windowHeight="28275" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="367">
   <si>
     <t>Kortnamn-IOC</t>
   </si>
@@ -983,12 +972,6 @@
     <t>MC_RR_D_Asp3</t>
   </si>
   <si>
-    <t>DA_LP205</t>
-  </si>
-  <si>
-    <t>PSP_tot</t>
-  </si>
-  <si>
     <t>NOD-R</t>
   </si>
   <si>
@@ -1049,15 +1032,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Namn</t>
-  </si>
-  <si>
-    <t>Shortname</t>
-  </si>
-  <si>
     <t>Merge_MH</t>
   </si>
   <si>
@@ -1134,13 +1108,34 @@
   </si>
   <si>
     <t>Malin P. knows this</t>
+  </si>
+  <si>
+    <t>NEO_screen_pos</t>
+  </si>
+  <si>
+    <t>Neosaxitoxin screening positive</t>
+  </si>
+  <si>
+    <t>C3 and C4 screening positive</t>
+  </si>
+  <si>
+    <t>Decarbamoylsaxitoxin screening positive</t>
+  </si>
+  <si>
+    <t>Domoic acid screening</t>
+  </si>
+  <si>
+    <t>DA_screening</t>
+  </si>
+  <si>
+    <t>PST_tot_screen_pos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,8 +1184,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1206,12 +1209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,10 +1231,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1249,8 +1247,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1258,8 +1254,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1276,9 +1280,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1316,7 +1320,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1422,7 +1426,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1564,7 +1568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1574,48 +1578,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.5" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.5" customWidth="1"/>
-    <col min="20" max="20" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" customWidth="1"/>
-    <col min="25" max="25" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.42578125" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.42578125" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" customWidth="1"/>
+    <col min="25" max="25" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>357</v>
+      <c r="B1" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>178</v>
@@ -1630,10 +1637,10 @@
         <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>91</v>
@@ -1672,22 +1679,22 @@
         <v>228</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
@@ -1741,18 +1748,18 @@
         <v>E_coli (cells/100 g)</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>360</v>
+      <c r="B3" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>179</v>
@@ -1808,25 +1815,25 @@
         <v>185</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" si="0"/>
         <v>AZA1 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>360</v>
+      <c r="B4" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>179</v>
@@ -1882,25 +1889,25 @@
         <v>185</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="0"/>
         <v>AZA2 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>360</v>
+      <c r="B5" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>179</v>
@@ -1956,25 +1963,25 @@
         <v>185</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="0"/>
         <v>AZA3 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>360</v>
+      <c r="B6" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>179</v>
@@ -2026,25 +2033,25 @@
         <v>185</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="0"/>
         <v>AZA_tot (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>360</v>
+      <c r="B7" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>177</v>
@@ -2104,147 +2111,147 @@
         <v>50</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="0"/>
         <v>DA (mg/kg)</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>173</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E8" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="0"/>
-        <v>DA_LP205 (Unit)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="5">
-        <v>45691</v>
-      </c>
-      <c r="U9" s="4" t="s">
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V8" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W8" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="X8" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="Y9" t="str">
+      <c r="Y8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>DA_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="19">
+        <v>45691</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>DA_screening (mg/kg)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>360</v>
+      <c r="B10" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>179</v>
@@ -2295,25 +2302,25 @@
         <v>187</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="0"/>
         <v>DST_tot (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>360</v>
+      <c r="B11" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>179</v>
@@ -2369,25 +2376,25 @@
         <v>187</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="0"/>
         <v>DTX1 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>360</v>
+      <c r="B12" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>179</v>
@@ -2443,25 +2450,25 @@
         <v>187</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="0"/>
         <v>DTX3 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>360</v>
+      <c r="B13" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>179</v>
@@ -2517,25 +2524,25 @@
         <v>187</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="0"/>
         <v>DTX2 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>360</v>
+      <c r="B14" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>179</v>
@@ -2584,25 +2591,25 @@
         <v>187</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="0"/>
         <v>DTX2_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>360</v>
+      <c r="B15" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>179</v>
@@ -2652,25 +2659,25 @@
         <v>187</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="0"/>
         <v>OA_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>360</v>
+      <c r="B16" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>179</v>
@@ -2728,25 +2735,25 @@
         <v>187</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="0"/>
         <v>Okadaic acid (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>360</v>
+      <c r="B17" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>179</v>
@@ -2802,25 +2809,25 @@
         <v>188</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="0"/>
         <v>PTX1 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>360</v>
+      <c r="B18" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>179</v>
@@ -2876,25 +2883,25 @@
         <v>188</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="0"/>
         <v>PTX2 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>360</v>
+      <c r="B19" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>179</v>
@@ -2944,20 +2951,20 @@
         <v>188</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="0"/>
         <v>PTX_tot (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4" t="s">
         <v>181</v>
       </c>
@@ -3009,18 +3016,18 @@
         <v>C1_2 (true or false)</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>360</v>
+      <c r="B21" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>181</v>
@@ -3067,7 +3074,7 @@
         <v>45691</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>213</v>
@@ -3076,72 +3083,72 @@
         <v>186</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="0"/>
         <v>STX_C1_C2 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="11" t="s">
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="V22" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="W22" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y22" t="str">
+      <c r="V22" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>C3_4 (Unit)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+        <v>C3_4 (true or false)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>360</v>
+      <c r="B23" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>181</v>
@@ -3186,7 +3193,7 @@
         <v>45691</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="V23" s="4" t="s">
         <v>214</v>
@@ -3195,20 +3202,20 @@
         <v>186</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y23" t="str">
         <f t="shared" si="0"/>
         <v>STX_C3_C4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="4" t="s">
         <v>181</v>
       </c>
@@ -3244,18 +3251,18 @@
         <v>dcGTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>360</v>
+      <c r="B25" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>181</v>
@@ -3311,20 +3318,20 @@
         <v>186</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y25" t="str">
         <f t="shared" si="0"/>
         <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="4" t="s">
         <v>181</v>
       </c>
@@ -3360,18 +3367,18 @@
         <v>dcNEO_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>360</v>
+      <c r="B27" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>181</v>
@@ -3427,73 +3434,73 @@
         <v>186</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y27" t="str">
         <f t="shared" si="0"/>
         <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4" t="s">
+      <c r="K28" s="16"/>
+      <c r="L28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="R28" s="4" t="s">
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="R28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="U28" t="s">
+      <c r="U28" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="V28" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="W28" s="4" t="s">
+      <c r="V28" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="W28" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="X28" s="4" t="s">
+      <c r="X28" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="Y28" t="str">
+      <c r="Y28" s="18" t="str">
         <f t="shared" si="0"/>
         <v>dcSTX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>360</v>
+      <c r="B29" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>181</v>
@@ -3549,20 +3556,20 @@
         <v>186</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y29" t="str">
         <f t="shared" si="0"/>
         <v>dcSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="4" t="s">
         <v>181</v>
       </c>
@@ -3608,18 +3615,18 @@
         <v>GTX1_4_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>360</v>
+      <c r="B31" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>181</v>
@@ -3675,20 +3682,20 @@
         <v>186</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y31" t="str">
         <f t="shared" si="0"/>
         <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="4" t="s">
         <v>181</v>
       </c>
@@ -3730,18 +3737,18 @@
         <v>GTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>360</v>
+      <c r="B33" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>181</v>
@@ -3797,20 +3804,20 @@
         <v>186</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y33" t="str">
         <f t="shared" si="0"/>
         <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="4" t="s">
         <v>181</v>
       </c>
@@ -3852,18 +3859,18 @@
         <v>GTX5_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>360</v>
+      <c r="B35" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>181</v>
@@ -3919,20 +3926,20 @@
         <v>186</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y35" t="str">
         <f t="shared" si="1"/>
         <v>GTX5 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="4" t="s">
         <v>181</v>
       </c>
@@ -3974,18 +3981,18 @@
         <v>GTX6_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>360</v>
+      <c r="B37" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>181</v>
@@ -4039,73 +4046,73 @@
         <v>186</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y37" t="str">
         <f t="shared" si="1"/>
         <v>GTX6 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>175</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4" t="s">
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="V38" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="W38" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y38" t="str">
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="V38" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="X38" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y38" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Shortname (Unit)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+        <v>NEO_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>360</v>
+      <c r="B39" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>181</v>
@@ -4161,136 +4168,136 @@
         <v>186</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y39" t="str">
         <f t="shared" si="1"/>
         <v>NeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>176</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4" t="s">
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="J40" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="V40" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="W40" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="X40" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y40" t="str">
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="V40" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="W40" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="X40" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y40" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>PSP_tot (Unit)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+        <v>PST_tot_screen_pos (true or false)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="E41" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="16">
         <v>380</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="16">
         <v>800</v>
       </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4" t="s">
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="6" t="s">
+      <c r="S41" s="16"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="V41" s="6" t="s">
+      <c r="V41" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="W41" s="4" t="s">
+      <c r="W41" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="X41" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y41" t="str">
+      <c r="X41" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y41" s="18" t="str">
         <f t="shared" si="1"/>
         <v>PST_tot (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="4" t="s">
         <v>181</v>
       </c>
@@ -4326,18 +4333,18 @@
         <v>STX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>360</v>
+      <c r="B43" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>181</v>
@@ -4395,25 +4402,25 @@
         <v>186</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Y43" t="str">
         <f t="shared" si="1"/>
         <v>STX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>360</v>
+      <c r="B44" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>179</v>
@@ -4461,25 +4468,25 @@
         <v>189</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Y44" t="str">
         <f t="shared" si="1"/>
         <v>SPX1 (ug/kg)</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>360</v>
+      <c r="B45" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>179</v>
@@ -4535,25 +4542,25 @@
         <v>67</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Y45" t="str">
         <f t="shared" si="1"/>
         <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>360</v>
+      <c r="B46" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>179</v>
@@ -4609,25 +4616,25 @@
         <v>67</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Y46" t="str">
         <f t="shared" si="1"/>
         <v>45_OH_homoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>360</v>
+      <c r="B47" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>179</v>
@@ -4683,25 +4690,25 @@
         <v>67</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Y47" t="str">
         <f t="shared" si="1"/>
         <v>45_OH_YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>360</v>
+      <c r="B48" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>179</v>
@@ -4757,25 +4764,25 @@
         <v>67</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="str">
         <f t="shared" si="1"/>
         <v>CarboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>360</v>
+      <c r="B49" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>179</v>
@@ -4831,25 +4838,25 @@
         <v>67</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Y49" t="str">
         <f t="shared" si="1"/>
         <v>HomoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>360</v>
+      <c r="B50" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>179</v>
@@ -4907,25 +4914,25 @@
         <v>67</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Y50" t="str">
         <f t="shared" si="1"/>
         <v>YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>360</v>
+      <c r="B51" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>179</v>
@@ -4977,22 +4984,22 @@
         <v>67</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="str">
         <f t="shared" si="1"/>
         <v>YTX_tot (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>229</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>184</v>
@@ -5001,10 +5008,10 @@
         <v>249</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="R52" t="s">
         <v>50</v>
@@ -5019,22 +5026,22 @@
         <v>50</v>
       </c>
       <c r="X52" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y52" t="str">
         <f t="shared" si="1"/>
         <v>Ana_a (mg/kg)</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>230</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>184</v>
@@ -5043,10 +5050,10 @@
         <v>249</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="R53" t="s">
         <v>50</v>
@@ -5061,22 +5068,22 @@
         <v>50</v>
       </c>
       <c r="X53" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y53" t="str">
         <f t="shared" si="1"/>
         <v>h_Ana (mg/kg)</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>252</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>184</v>
@@ -5088,7 +5095,7 @@
         <v>251</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>251</v>
@@ -5124,22 +5131,22 @@
         <v>50</v>
       </c>
       <c r="X54" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y54" t="str">
         <f t="shared" si="1"/>
         <v>CYN (mg/kg)</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>243</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F55" t="s">
         <v>184</v>
@@ -5151,7 +5158,7 @@
         <v>257</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J55" t="s">
         <v>257</v>
@@ -5187,22 +5194,22 @@
         <v>50</v>
       </c>
       <c r="X55" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y55" t="str">
         <f t="shared" si="1"/>
         <v>MC_HilR (mg/kg)</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>247</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F56" t="s">
         <v>184</v>
@@ -5214,7 +5221,7 @@
         <v>257</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J56" t="s">
         <v>257</v>
@@ -5235,22 +5242,22 @@
         <v>50</v>
       </c>
       <c r="X56" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y56" t="str">
         <f t="shared" si="1"/>
         <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F57" t="s">
         <v>184</v>
@@ -5262,7 +5269,7 @@
         <v>257</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J57" t="s">
         <v>257</v>
@@ -5271,19 +5278,19 @@
         <v>256</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R57" t="s">
         <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="T57" s="5">
         <v>45700</v>
@@ -5298,22 +5305,22 @@
         <v>50</v>
       </c>
       <c r="X57" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y57" t="str">
         <f t="shared" si="1"/>
         <v>MC_HTyR (mg/kg)</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>248</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F58" t="s">
         <v>184</v>
@@ -5325,7 +5332,7 @@
         <v>257</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J58" t="s">
         <v>257</v>
@@ -5346,22 +5353,22 @@
         <v>50</v>
       </c>
       <c r="X58" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y58" t="str">
         <f t="shared" si="1"/>
         <v>MC_HtyR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>238</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F59" t="s">
         <v>184</v>
@@ -5373,7 +5380,7 @@
         <v>257</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J59" t="s">
         <v>257</v>
@@ -5409,22 +5416,22 @@
         <v>50</v>
       </c>
       <c r="X59" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="1"/>
         <v>MC_LA (mg/kg)</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F60" t="s">
         <v>184</v>
@@ -5436,7 +5443,7 @@
         <v>257</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J60" t="s">
         <v>257</v>
@@ -5472,22 +5479,22 @@
         <v>50</v>
       </c>
       <c r="X60" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y60" t="str">
         <f t="shared" si="1"/>
         <v>MC_LF (mg/kg)</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>236</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F61" t="s">
         <v>184</v>
@@ -5499,7 +5506,7 @@
         <v>257</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J61" t="s">
         <v>257</v>
@@ -5535,22 +5542,22 @@
         <v>50</v>
       </c>
       <c r="X61" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y61" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR (mg/kg)</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="D62" s="8"/>
       <c r="F62" t="s">
@@ -5563,7 +5570,7 @@
         <v>257</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J62" t="s">
         <v>257</v>
@@ -5572,24 +5579,24 @@
         <v>256</v>
       </c>
       <c r="L62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R62" t="s">
         <v>50</v>
       </c>
       <c r="S62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T62" s="5">
         <v>45700</v>
       </c>
-      <c r="U62" s="14" t="s">
+      <c r="U62" s="12" t="s">
         <v>312</v>
       </c>
       <c r="V62" s="10" t="s">
@@ -5599,22 +5606,22 @@
         <v>50</v>
       </c>
       <c r="X62" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y62" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="D63" s="8"/>
       <c r="F63" t="s">
@@ -5627,7 +5634,7 @@
         <v>257</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J63" t="s">
         <v>257</v>
@@ -5636,49 +5643,49 @@
         <v>256</v>
       </c>
       <c r="L63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q63" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R63" t="s">
         <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="T63" s="5">
         <v>45700</v>
       </c>
-      <c r="U63" s="14" t="s">
+      <c r="U63" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="V63" s="14" t="s">
+      <c r="V63" s="12" t="s">
         <v>300</v>
       </c>
       <c r="W63" t="s">
         <v>50</v>
       </c>
       <c r="X63" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y63" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F64" t="s">
         <v>184</v>
@@ -5690,7 +5697,7 @@
         <v>257</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J64" t="s">
         <v>257</v>
@@ -5726,22 +5733,22 @@
         <v>50</v>
       </c>
       <c r="X64" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y64" t="str">
         <f t="shared" si="1"/>
         <v>MC_LW (mg/kg)</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F65" t="s">
         <v>184</v>
@@ -5753,7 +5760,7 @@
         <v>257</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J65" t="s">
         <v>257</v>
@@ -5789,22 +5796,22 @@
         <v>50</v>
       </c>
       <c r="X65" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y65" t="str">
         <f t="shared" si="1"/>
         <v>MC_LY (mg/kg)</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>235</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F66" t="s">
         <v>184</v>
@@ -5816,7 +5823,7 @@
         <v>257</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J66" t="s">
         <v>257</v>
@@ -5845,32 +5852,32 @@
       <c r="T66" s="5">
         <v>45698</v>
       </c>
-      <c r="U66" s="15" t="s">
+      <c r="U66" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="V66" s="15" t="s">
+      <c r="V66" s="13" t="s">
         <v>272</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>50</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y66" t="str">
         <f t="shared" ref="Y66:Y72" si="2">CONCATENATE(U66, " (", W66, ")")</f>
         <v>MC_RR (mg/kg)</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="D67" s="9"/>
       <c r="F67" t="s">
@@ -5883,7 +5890,7 @@
         <v>257</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J67" t="s">
         <v>257</v>
@@ -5894,32 +5901,32 @@
       <c r="R67" t="s">
         <v>50</v>
       </c>
-      <c r="U67" s="13" t="s">
+      <c r="U67" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="V67" s="13" t="s">
+      <c r="V67" s="11" t="s">
         <v>299</v>
       </c>
       <c r="W67" t="s">
         <v>50</v>
       </c>
       <c r="X67" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y67" t="str">
         <f t="shared" si="2"/>
         <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="D68" s="9"/>
       <c r="F68" t="s">
@@ -5932,7 +5939,7 @@
         <v>257</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J68" t="s">
         <v>257</v>
@@ -5941,24 +5948,24 @@
         <v>256</v>
       </c>
       <c r="L68" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P68" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q68" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="R68" t="s">
         <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="T68" s="5">
         <v>45700</v>
       </c>
-      <c r="U68" s="13" t="s">
+      <c r="U68" s="11" t="s">
         <v>313</v>
       </c>
       <c r="V68" s="10" t="s">
@@ -5968,22 +5975,22 @@
         <v>50</v>
       </c>
       <c r="X68" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y68" t="str">
         <f t="shared" si="2"/>
         <v>MC_RR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>246</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F69" t="s">
         <v>184</v>
@@ -5995,7 +6002,7 @@
         <v>257</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J69" t="s">
         <v>257</v>
@@ -6004,19 +6011,19 @@
         <v>256</v>
       </c>
       <c r="L69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P69" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q69" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="R69" t="s">
         <v>50</v>
       </c>
       <c r="S69" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="T69" s="5">
         <v>45700</v>
@@ -6031,22 +6038,22 @@
         <v>50</v>
       </c>
       <c r="X69" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y69" t="str">
         <f t="shared" si="2"/>
         <v>MC_RR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>242</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F70" t="s">
         <v>184</v>
@@ -6058,7 +6065,7 @@
         <v>257</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J70" t="s">
         <v>257</v>
@@ -6094,22 +6101,22 @@
         <v>50</v>
       </c>
       <c r="X70" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="2"/>
         <v>MC_WR (mg/kg)</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>237</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F71" t="s">
         <v>184</v>
@@ -6121,7 +6128,7 @@
         <v>257</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J71" t="s">
         <v>257</v>
@@ -6157,22 +6164,22 @@
         <v>50</v>
       </c>
       <c r="X71" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y71" t="str">
         <f t="shared" si="2"/>
         <v>MC_YR (mg/kg)</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>234</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>363</v>
       </c>
       <c r="F72" t="s">
         <v>184</v>
@@ -6184,7 +6191,7 @@
         <v>276</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="J72" t="s">
         <v>276</v>
@@ -6193,34 +6200,34 @@
         <v>275</v>
       </c>
       <c r="L72" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P72" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q72" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S72" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="T72" s="5">
         <v>45700</v>
       </c>
       <c r="U72" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="V72" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="W72" t="s">
         <v>50</v>
       </c>
       <c r="X72" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="2"/>
@@ -6228,11 +6235,14 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U51">
+  <sortState ref="A2:U51">
     <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K41" r:id="rId1" xr:uid="{1626B51C-1015-4732-A4E4-DD5A79875C36}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64426ED3-1226-4CCB-8D12-F0333908F256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6703E71A-1F0D-4464-823E-0F483F5B07B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17595" yWindow="495" windowWidth="33600" windowHeight="28275" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
@@ -1029,9 +1029,6 @@
     <t>[Dha7]MC-RR</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Merge_MH</t>
   </si>
   <si>
@@ -1122,13 +1119,16 @@
     <t>Decarbamoylsaxitoxin screening positive</t>
   </si>
   <si>
-    <t>Domoic acid screening</t>
-  </si>
-  <si>
     <t>DA_screening</t>
   </si>
   <si>
     <t>PST_tot_screen_pos</t>
+  </si>
+  <si>
+    <t>PST total screening positive</t>
+  </si>
+  <si>
+    <t>Domoic acid screening value</t>
   </si>
 </sst>
 </file>
@@ -1578,11 +1578,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,13 +1616,13 @@
         <v>88</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>351</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>352</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>178</v>
@@ -1637,10 +1637,10 @@
         <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>91</v>
@@ -1679,13 +1679,13 @@
         <v>228</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
@@ -1753,13 +1753,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>179</v>
@@ -1815,7 +1815,7 @@
         <v>185</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" si="0"/>
@@ -1827,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>179</v>
@@ -1889,7 +1889,7 @@
         <v>185</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="0"/>
@@ -1901,13 +1901,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>179</v>
@@ -1963,7 +1963,7 @@
         <v>185</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="0"/>
@@ -1975,13 +1975,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>179</v>
@@ -2033,87 +2033,87 @@
         <v>185</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="0"/>
         <v>AZA_tot (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="16">
         <v>3</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="16">
         <v>20</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="16">
         <v>1</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="19">
         <v>45688</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y7" t="str">
+      <c r="X7" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>DA (mg/kg)</v>
       </c>
@@ -2123,13 +2123,13 @@
         <v>173</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>354</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>355</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>177</v>
@@ -2177,16 +2177,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>355</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>184</v>
@@ -2224,16 +2224,16 @@
         <v>45691</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>50</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -2245,13 +2245,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>179</v>
@@ -2302,7 +2302,7 @@
         <v>187</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="0"/>
@@ -2314,13 +2314,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>179</v>
@@ -2376,7 +2376,7 @@
         <v>187</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="0"/>
@@ -2388,13 +2388,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>179</v>
@@ -2450,7 +2450,7 @@
         <v>187</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="0"/>
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>179</v>
@@ -2524,7 +2524,7 @@
         <v>187</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="0"/>
@@ -2536,13 +2536,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>179</v>
@@ -2591,7 +2591,7 @@
         <v>187</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="0"/>
@@ -2603,13 +2603,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>179</v>
@@ -2659,7 +2659,7 @@
         <v>187</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="0"/>
@@ -2671,13 +2671,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>179</v>
@@ -2735,7 +2735,7 @@
         <v>187</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="0"/>
@@ -2747,13 +2747,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>179</v>
@@ -2809,7 +2809,7 @@
         <v>188</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="0"/>
@@ -2821,13 +2821,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>179</v>
@@ -2883,7 +2883,7 @@
         <v>188</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="0"/>
@@ -2895,13 +2895,13 @@
         <v>23</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>179</v>
@@ -2951,7 +2951,7 @@
         <v>188</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="0"/>
@@ -3021,13 +3021,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>181</v>
@@ -3074,7 +3074,7 @@
         <v>45691</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>213</v>
@@ -3083,7 +3083,7 @@
         <v>186</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="0"/>
@@ -3124,7 +3124,7 @@
         <v>287</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W22" s="16" t="s">
         <v>212</v>
@@ -3142,13 +3142,13 @@
         <v>29</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D23" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>181</v>
@@ -3193,7 +3193,7 @@
         <v>45691</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V23" s="4" t="s">
         <v>214</v>
@@ -3202,7 +3202,7 @@
         <v>186</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y23" t="str">
         <f t="shared" si="0"/>
@@ -3256,13 +3256,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D25" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>181</v>
@@ -3318,7 +3318,7 @@
         <v>186</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y25" t="str">
         <f t="shared" si="0"/>
@@ -3372,13 +3372,13 @@
         <v>31</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>181</v>
@@ -3434,7 +3434,7 @@
         <v>186</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y27" t="str">
         <f t="shared" si="0"/>
@@ -3476,7 +3476,7 @@
         <v>201</v>
       </c>
       <c r="V28" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="W28" s="16" t="s">
         <v>212</v>
@@ -3494,13 +3494,13 @@
         <v>33</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D29" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>181</v>
@@ -3556,7 +3556,7 @@
         <v>186</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y29" t="str">
         <f t="shared" si="0"/>
@@ -3620,13 +3620,13 @@
         <v>34</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D31" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>181</v>
@@ -3682,7 +3682,7 @@
         <v>186</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y31" t="str">
         <f t="shared" si="0"/>
@@ -3742,13 +3742,13 @@
         <v>37</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>181</v>
@@ -3804,7 +3804,7 @@
         <v>186</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y33" t="str">
         <f t="shared" si="0"/>
@@ -3864,13 +3864,13 @@
         <v>39</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D35" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>181</v>
@@ -3926,7 +3926,7 @@
         <v>186</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y35" t="str">
         <f t="shared" si="1"/>
@@ -3986,13 +3986,13 @@
         <v>40</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D37" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>181</v>
@@ -4046,7 +4046,7 @@
         <v>186</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="str">
         <f t="shared" si="1"/>
@@ -4085,10 +4085,10 @@
       <c r="S38" s="16"/>
       <c r="T38" s="19"/>
       <c r="U38" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="V38" s="16" t="s">
         <v>360</v>
-      </c>
-      <c r="V38" s="16" t="s">
-        <v>361</v>
       </c>
       <c r="W38" s="16" t="s">
         <v>212</v>
@@ -4106,13 +4106,13 @@
         <v>42</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D39" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>181</v>
@@ -4168,7 +4168,7 @@
         <v>186</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y39" t="str">
         <f t="shared" si="1"/>
@@ -4207,10 +4207,10 @@
       <c r="S40" s="16"/>
       <c r="T40" s="19"/>
       <c r="U40" s="16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="W40" s="16" t="s">
         <v>212</v>
@@ -4228,13 +4228,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>357</v>
-      </c>
       <c r="D41" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>181</v>
@@ -4284,7 +4284,7 @@
         <v>186</v>
       </c>
       <c r="X41" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y41" s="18" t="str">
         <f t="shared" si="1"/>
@@ -4338,13 +4338,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="D43" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>181</v>
@@ -4402,7 +4402,7 @@
         <v>186</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y43" t="str">
         <f t="shared" si="1"/>
@@ -4414,13 +4414,13 @@
         <v>24</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>179</v>
@@ -4468,7 +4468,7 @@
         <v>189</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y44" t="str">
         <f t="shared" si="1"/>
@@ -4480,13 +4480,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>179</v>
@@ -4542,7 +4542,7 @@
         <v>67</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y45" t="str">
         <f t="shared" si="1"/>
@@ -4554,13 +4554,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="D46" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>179</v>
@@ -4616,7 +4616,7 @@
         <v>67</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y46" t="str">
         <f t="shared" si="1"/>
@@ -4628,13 +4628,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>179</v>
@@ -4690,7 +4690,7 @@
         <v>67</v>
       </c>
       <c r="X47" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y47" t="str">
         <f t="shared" si="1"/>
@@ -4702,13 +4702,13 @@
         <v>11</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>179</v>
@@ -4764,7 +4764,7 @@
         <v>67</v>
       </c>
       <c r="X48" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y48" t="str">
         <f t="shared" si="1"/>
@@ -4776,13 +4776,13 @@
         <v>18</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>179</v>
@@ -4838,7 +4838,7 @@
         <v>67</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y49" t="str">
         <f t="shared" si="1"/>
@@ -4850,13 +4850,13 @@
         <v>25</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>179</v>
@@ -4914,7 +4914,7 @@
         <v>67</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y50" t="str">
         <f t="shared" si="1"/>
@@ -4926,13 +4926,13 @@
         <v>26</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>354</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>179</v>
@@ -4984,7 +4984,7 @@
         <v>67</v>
       </c>
       <c r="X51" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="str">
         <f t="shared" si="1"/>
@@ -4996,10 +4996,10 @@
         <v>229</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>184</v>
@@ -5008,10 +5008,10 @@
         <v>249</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R52" t="s">
         <v>50</v>
@@ -5026,7 +5026,7 @@
         <v>50</v>
       </c>
       <c r="X52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y52" t="str">
         <f t="shared" si="1"/>
@@ -5038,10 +5038,10 @@
         <v>230</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>184</v>
@@ -5050,10 +5050,10 @@
         <v>249</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R53" t="s">
         <v>50</v>
@@ -5068,7 +5068,7 @@
         <v>50</v>
       </c>
       <c r="X53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y53" t="str">
         <f t="shared" si="1"/>
@@ -5080,10 +5080,10 @@
         <v>252</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>184</v>
@@ -5095,7 +5095,7 @@
         <v>251</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>251</v>
@@ -5131,7 +5131,7 @@
         <v>50</v>
       </c>
       <c r="X54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y54" t="str">
         <f t="shared" si="1"/>
@@ -5143,10 +5143,10 @@
         <v>243</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F55" t="s">
         <v>184</v>
@@ -5158,7 +5158,7 @@
         <v>257</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J55" t="s">
         <v>257</v>
@@ -5194,7 +5194,7 @@
         <v>50</v>
       </c>
       <c r="X55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y55" t="str">
         <f t="shared" si="1"/>
@@ -5206,10 +5206,10 @@
         <v>247</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F56" t="s">
         <v>184</v>
@@ -5221,7 +5221,7 @@
         <v>257</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J56" t="s">
         <v>257</v>
@@ -5242,7 +5242,7 @@
         <v>50</v>
       </c>
       <c r="X56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y56" t="str">
         <f t="shared" si="1"/>
@@ -5254,10 +5254,10 @@
         <v>231</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F57" t="s">
         <v>184</v>
@@ -5269,7 +5269,7 @@
         <v>257</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J57" t="s">
         <v>257</v>
@@ -5305,7 +5305,7 @@
         <v>50</v>
       </c>
       <c r="X57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y57" t="str">
         <f t="shared" si="1"/>
@@ -5317,10 +5317,10 @@
         <v>248</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F58" t="s">
         <v>184</v>
@@ -5332,7 +5332,7 @@
         <v>257</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J58" t="s">
         <v>257</v>
@@ -5353,7 +5353,7 @@
         <v>50</v>
       </c>
       <c r="X58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y58" t="str">
         <f t="shared" si="1"/>
@@ -5365,10 +5365,10 @@
         <v>238</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F59" t="s">
         <v>184</v>
@@ -5380,7 +5380,7 @@
         <v>257</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J59" t="s">
         <v>257</v>
@@ -5416,7 +5416,7 @@
         <v>50</v>
       </c>
       <c r="X59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="1"/>
@@ -5428,10 +5428,10 @@
         <v>239</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F60" t="s">
         <v>184</v>
@@ -5443,7 +5443,7 @@
         <v>257</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J60" t="s">
         <v>257</v>
@@ -5479,7 +5479,7 @@
         <v>50</v>
       </c>
       <c r="X60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y60" t="str">
         <f t="shared" si="1"/>
@@ -5491,10 +5491,10 @@
         <v>236</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F61" t="s">
         <v>184</v>
@@ -5506,7 +5506,7 @@
         <v>257</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J61" t="s">
         <v>257</v>
@@ -5542,7 +5542,7 @@
         <v>50</v>
       </c>
       <c r="X61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y61" t="str">
         <f t="shared" si="1"/>
@@ -5554,10 +5554,10 @@
         <v>232</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D62" s="8"/>
       <c r="F62" t="s">
@@ -5570,7 +5570,7 @@
         <v>257</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J62" t="s">
         <v>257</v>
@@ -5606,7 +5606,7 @@
         <v>50</v>
       </c>
       <c r="X62" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y62" t="str">
         <f t="shared" si="1"/>
@@ -5618,10 +5618,10 @@
         <v>245</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D63" s="8"/>
       <c r="F63" t="s">
@@ -5634,7 +5634,7 @@
         <v>257</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J63" t="s">
         <v>257</v>
@@ -5670,7 +5670,7 @@
         <v>50</v>
       </c>
       <c r="X63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y63" t="str">
         <f t="shared" si="1"/>
@@ -5682,10 +5682,10 @@
         <v>240</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F64" t="s">
         <v>184</v>
@@ -5697,7 +5697,7 @@
         <v>257</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J64" t="s">
         <v>257</v>
@@ -5733,7 +5733,7 @@
         <v>50</v>
       </c>
       <c r="X64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y64" t="str">
         <f t="shared" si="1"/>
@@ -5745,10 +5745,10 @@
         <v>241</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F65" t="s">
         <v>184</v>
@@ -5760,7 +5760,7 @@
         <v>257</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J65" t="s">
         <v>257</v>
@@ -5796,7 +5796,7 @@
         <v>50</v>
       </c>
       <c r="X65" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y65" t="str">
         <f t="shared" si="1"/>
@@ -5808,10 +5808,10 @@
         <v>235</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F66" t="s">
         <v>184</v>
@@ -5823,7 +5823,7 @@
         <v>257</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J66" t="s">
         <v>257</v>
@@ -5862,7 +5862,7 @@
         <v>50</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y66" t="str">
         <f t="shared" ref="Y66:Y72" si="2">CONCATENATE(U66, " (", W66, ")")</f>
@@ -5874,10 +5874,10 @@
         <v>244</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D67" s="9"/>
       <c r="F67" t="s">
@@ -5890,7 +5890,7 @@
         <v>257</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J67" t="s">
         <v>257</v>
@@ -5911,7 +5911,7 @@
         <v>50</v>
       </c>
       <c r="X67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y67" t="str">
         <f t="shared" si="2"/>
@@ -5923,10 +5923,10 @@
         <v>233</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D68" s="9"/>
       <c r="F68" t="s">
@@ -5939,7 +5939,7 @@
         <v>257</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J68" t="s">
         <v>257</v>
@@ -5975,7 +5975,7 @@
         <v>50</v>
       </c>
       <c r="X68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y68" t="str">
         <f t="shared" si="2"/>
@@ -5987,10 +5987,10 @@
         <v>246</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F69" t="s">
         <v>184</v>
@@ -6002,7 +6002,7 @@
         <v>257</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J69" t="s">
         <v>257</v>
@@ -6038,7 +6038,7 @@
         <v>50</v>
       </c>
       <c r="X69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y69" t="str">
         <f t="shared" si="2"/>
@@ -6050,10 +6050,10 @@
         <v>242</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F70" t="s">
         <v>184</v>
@@ -6065,7 +6065,7 @@
         <v>257</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J70" t="s">
         <v>257</v>
@@ -6101,7 +6101,7 @@
         <v>50</v>
       </c>
       <c r="X70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="2"/>
@@ -6113,10 +6113,10 @@
         <v>237</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F71" t="s">
         <v>184</v>
@@ -6128,7 +6128,7 @@
         <v>257</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J71" t="s">
         <v>257</v>
@@ -6164,7 +6164,7 @@
         <v>50</v>
       </c>
       <c r="X71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y71" t="str">
         <f t="shared" si="2"/>
@@ -6176,10 +6176,10 @@
         <v>234</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F72" t="s">
         <v>184</v>
@@ -6191,7 +6191,7 @@
         <v>276</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J72" t="s">
         <v>276</v>
@@ -6227,7 +6227,7 @@
         <v>50</v>
       </c>
       <c r="X72" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="2"/>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderstorstensson/Dropbox/R/SLV-Biotoxin-Validator-App/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C643C-7CE5-5D45-9964-72F1B936AA6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6470FE-533F-4A1F-B397-F79D284FFE8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-600" yWindow="1020" windowWidth="33600" windowHeight="18640" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="-600" yWindow="1020" windowWidth="33600" windowHeight="18645" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$AG$72</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="397">
   <si>
     <t>Enhet</t>
   </si>
@@ -435,9 +435,6 @@
     <t>Decarbamoylgonyautoxin-2,Decarbamoylgonyautoxin-3</t>
   </si>
   <si>
-    <t>https://toxins.hais.ioc-unesco.org/toxins/514/https://toxins.hais.ioc-unesco.org/toxins/515/</t>
-  </si>
-  <si>
     <t>dcGTX2,dcGTX3</t>
   </si>
   <si>
@@ -1159,13 +1156,76 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>265996-92-7</t>
+  </si>
+  <si>
+    <t>265996-93-8</t>
+  </si>
+  <si>
+    <t>14277-97-5</t>
+  </si>
+  <si>
+    <t>81720-10-7</t>
+  </si>
+  <si>
+    <t>139933-46-3</t>
+  </si>
+  <si>
+    <t>78111-17-8</t>
+  </si>
+  <si>
+    <t>97564-90-4</t>
+  </si>
+  <si>
+    <t>97564-91-5</t>
+  </si>
+  <si>
+    <t>35523-89-8</t>
+  </si>
+  <si>
+    <t>https://toxins.hais.ioc-unesco.org/toxins/514/,https://toxins.hais.ioc-unesco.org/toxins/515/</t>
+  </si>
+  <si>
+    <t>68683-58-9</t>
+  </si>
+  <si>
+    <t>58911-04-9</t>
+  </si>
+  <si>
+    <t>64296-25-9</t>
+  </si>
+  <si>
+    <t>82810-44-4</t>
+  </si>
+  <si>
+    <t>64296-20-4</t>
+  </si>
+  <si>
+    <t>196309-97-4</t>
+  </si>
+  <si>
+    <t>124863-39-4</t>
+  </si>
+  <si>
+    <t>262842-91-1</t>
+  </si>
+  <si>
+    <t>196309-94-1</t>
+  </si>
+  <si>
+    <t>112514-54-2</t>
+  </si>
+  <si>
+    <t>143545-90-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,6 +1282,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001D35"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1265,7 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1294,9 +1368,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1313,7 +1391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1612,97 +1690,98 @@
   <dimension ref="A1:AG72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="18" width="21.33203125" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" customWidth="1"/>
-    <col min="22" max="22" width="12.5" customWidth="1"/>
-    <col min="23" max="23" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.5" customWidth="1"/>
-    <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="43.5" customWidth="1"/>
-    <col min="28" max="28" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.33203125" customWidth="1"/>
-    <col min="33" max="33" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="53.7109375" customWidth="1"/>
+    <col min="28" max="28" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.28515625" customWidth="1"/>
+    <col min="33" max="33" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>346</v>
-      </c>
       <c r="E1" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>374</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>88</v>
@@ -1714,13 +1793,13 @@
         <v>127</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>84</v>
@@ -1729,34 +1808,34 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1765,16 +1844,16 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>51</v>
@@ -1801,39 +1880,39 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG2" t="str">
         <f t="shared" ref="AG2:AG33" si="0">CONCATENATE(AC2, " (", AE2, ")")</f>
         <v>E_coli (cells/100 g)</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -1841,16 +1920,16 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>54</v>
@@ -1858,7 +1937,7 @@
       <c r="O3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="26"/>
       <c r="Q3" s="4" t="s">
         <v>89</v>
       </c>
@@ -1885,7 +1964,7 @@
       <c r="Z3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="24" t="s">
         <v>77</v>
       </c>
       <c r="AB3" s="5">
@@ -1898,28 +1977,28 @@
         <v>70</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG3" t="str">
         <f t="shared" si="0"/>
         <v>AZA1 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -1927,16 +2006,16 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L4" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>54</v>
@@ -1944,7 +2023,9 @@
       <c r="O4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="4"/>
+      <c r="P4" s="27" t="s">
+        <v>376</v>
+      </c>
       <c r="Q4" s="4" t="s">
         <v>89</v>
       </c>
@@ -1984,28 +2065,28 @@
         <v>71</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="0"/>
         <v>AZA2 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2013,16 +2094,16 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>54</v>
@@ -2030,7 +2111,9 @@
       <c r="O5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="4"/>
+      <c r="P5" s="26" t="s">
+        <v>377</v>
+      </c>
       <c r="Q5" s="4" t="s">
         <v>89</v>
       </c>
@@ -2070,28 +2153,28 @@
         <v>72</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="0"/>
         <v>AZA3 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -2099,16 +2182,16 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>54</v>
@@ -2146,34 +2229,34 @@
         <v>45691</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="0"/>
         <v>AZA_tot (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>349</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -2181,16 +2264,16 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L7" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N7" s="16" t="s">
         <v>53</v>
@@ -2198,7 +2281,9 @@
       <c r="O7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="16"/>
+      <c r="P7" s="26" t="s">
+        <v>378</v>
+      </c>
       <c r="Q7" s="16" t="s">
         <v>47</v>
       </c>
@@ -2229,7 +2314,7 @@
       <c r="Z7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AA7" s="18" t="s">
+      <c r="AA7" s="20" t="s">
         <v>44</v>
       </c>
       <c r="AB7" s="19">
@@ -2245,25 +2330,25 @@
         <v>48</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>DA (mg/kg)</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>349</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -2271,16 +2356,16 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L8" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2302,34 +2387,34 @@
       <c r="AA8" s="16"/>
       <c r="AB8" s="19"/>
       <c r="AC8" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AD8" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE8" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>DA_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>349</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -2337,16 +2422,16 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L9" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>53</v>
@@ -2375,41 +2460,41 @@
       <c r="Z9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AA9" s="18" t="s">
+      <c r="AA9" s="20" t="s">
         <v>44</v>
       </c>
       <c r="AB9" s="19">
         <v>45691</v>
       </c>
       <c r="AC9" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AD9" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE9" s="16" t="s">
         <v>48</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>DA_screening (mg/kg)</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -2417,16 +2502,16 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L10" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>54</v>
@@ -2445,7 +2530,7 @@
         <v>96</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U10" s="4">
         <v>30</v>
@@ -2463,34 +2548,34 @@
         <v>45691</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="0"/>
         <v>DST_tot (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -2498,16 +2583,16 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>54</v>
@@ -2515,7 +2600,9 @@
       <c r="O11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P11" s="4"/>
+      <c r="P11" s="26" t="s">
+        <v>379</v>
+      </c>
       <c r="Q11" s="4" t="s">
         <v>92</v>
       </c>
@@ -2542,7 +2629,7 @@
       <c r="Z11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA11" s="24" t="s">
         <v>100</v>
       </c>
       <c r="AB11" s="5">
@@ -2555,28 +2642,28 @@
         <v>99</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="0"/>
         <v>DTX1 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -2584,16 +2671,16 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L12" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>54</v>
@@ -2628,7 +2715,7 @@
       <c r="Z12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" s="4" t="s">
+      <c r="AA12" s="24" t="s">
         <v>106</v>
       </c>
       <c r="AB12" s="5">
@@ -2641,28 +2728,28 @@
         <v>105</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" si="0"/>
         <v>DTX3 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -2670,16 +2757,16 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>54</v>
@@ -2687,7 +2774,9 @@
       <c r="O13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="26" t="s">
+        <v>380</v>
+      </c>
       <c r="Q13" s="4" t="s">
         <v>92</v>
       </c>
@@ -2714,7 +2803,7 @@
       <c r="Z13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA13" s="4" t="s">
+      <c r="AA13" s="24" t="s">
         <v>103</v>
       </c>
       <c r="AB13" s="5">
@@ -2727,28 +2816,28 @@
         <v>102</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="0"/>
         <v>DTX2 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -2756,16 +2845,16 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>54</v>
@@ -2803,31 +2892,31 @@
         <v>108</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG14" t="str">
         <f t="shared" si="0"/>
         <v>DTX2_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -2835,16 +2924,16 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>54</v>
@@ -2883,31 +2972,31 @@
         <v>107</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG15" t="str">
         <f t="shared" si="0"/>
         <v>OA_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -2915,16 +3004,16 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>54</v>
@@ -2932,7 +3021,9 @@
       <c r="O16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="4"/>
+      <c r="P16" s="26" t="s">
+        <v>381</v>
+      </c>
       <c r="Q16" s="4" t="s">
         <v>92</v>
       </c>
@@ -2961,7 +3052,7 @@
       <c r="Z16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AA16" s="24" t="s">
         <v>95</v>
       </c>
       <c r="AB16" s="5">
@@ -2974,28 +3065,28 @@
         <v>94</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG16" t="str">
         <f t="shared" si="0"/>
         <v>Okadaic acid (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -3003,16 +3094,16 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>54</v>
@@ -3020,7 +3111,9 @@
       <c r="O17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="4"/>
+      <c r="P17" s="26" t="s">
+        <v>382</v>
+      </c>
       <c r="Q17" s="4" t="s">
         <v>111</v>
       </c>
@@ -3047,8 +3140,8 @@
       <c r="Z17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AA17" s="4" t="s">
-        <v>152</v>
+      <c r="AA17" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="AB17" s="5">
         <v>45691</v>
@@ -3060,28 +3153,28 @@
         <v>116</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG17" t="str">
         <f t="shared" si="0"/>
         <v>PTX1 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -3089,16 +3182,16 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L18" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>54</v>
@@ -3106,7 +3199,9 @@
       <c r="O18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="4"/>
+      <c r="P18" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="Q18" s="4" t="s">
         <v>111</v>
       </c>
@@ -3133,8 +3228,8 @@
       <c r="Z18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" s="4" t="s">
-        <v>153</v>
+      <c r="AA18" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="AB18" s="5">
         <v>45691</v>
@@ -3146,28 +3241,28 @@
         <v>117</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG18" t="str">
         <f t="shared" si="0"/>
         <v>PTX2 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -3175,16 +3270,16 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L19" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>54</v>
@@ -3220,25 +3315,25 @@
         <v>45691</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AD19" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG19" t="str">
         <f t="shared" si="0"/>
         <v>PTX_tot (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -3249,16 +3344,16 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L20" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>53</v>
@@ -3290,34 +3385,34 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="str">
         <f t="shared" si="0"/>
         <v>C1_2 (true or false)</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -3325,16 +3420,16 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>53</v>
@@ -3342,7 +3437,7 @@
       <c r="O21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P21" s="4"/>
+      <c r="P21" s="26"/>
       <c r="Q21" s="4" t="s">
         <v>118</v>
       </c>
@@ -3353,7 +3448,7 @@
         <v>119</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U21" s="4">
         <v>40</v>
@@ -3361,40 +3456,40 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AA21" s="24" t="s">
         <v>123</v>
       </c>
       <c r="AB21" s="5">
         <v>45691</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG21" t="str">
         <f t="shared" si="0"/>
         <v>STX_C1_C2 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -3405,16 +3500,16 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L22" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
@@ -3435,34 +3530,34 @@
       <c r="Z22" s="16"/>
       <c r="AB22" s="19"/>
       <c r="AC22" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AD22" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE22" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF22" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG22" s="18" t="str">
         <f t="shared" si="0"/>
         <v>C3_4 (true or false)</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D23" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -3470,16 +3565,16 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>53</v>
@@ -3498,16 +3593,16 @@
         <v>119</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>128</v>
@@ -3519,25 +3614,25 @@
         <v>45691</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG23" t="str">
         <f t="shared" si="0"/>
         <v>STX_C3_C4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -3548,17 +3643,18 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="P24" s="25"/>
       <c r="Q24" s="4" t="s">
         <v>118</v>
       </c>
@@ -3566,40 +3662,40 @@
         <v>118</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AC24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD24" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="str">
         <f t="shared" si="0"/>
         <v>dcGTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D25" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -3607,16 +3703,16 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L25" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>53</v>
@@ -3624,7 +3720,7 @@
       <c r="O25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="4"/>
+      <c r="P25" s="27"/>
       <c r="Q25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3635,7 +3731,7 @@
         <v>119</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U25" s="4">
         <v>125</v>
@@ -3643,7 +3739,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>134</v>
@@ -3651,32 +3747,32 @@
       <c r="Z25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA25" t="s">
-        <v>135</v>
+      <c r="AA25" s="24" t="s">
+        <v>385</v>
       </c>
       <c r="AB25" s="5">
         <v>45691</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG25" t="str">
         <f t="shared" si="0"/>
         <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3687,17 +3783,18 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
       <c r="J26" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L26" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="P26" s="25"/>
       <c r="Q26" s="4" t="s">
         <v>118</v>
       </c>
@@ -3705,40 +3802,40 @@
         <v>118</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AC26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG26" t="str">
         <f t="shared" si="0"/>
         <v>dcNEO_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D27" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -3746,16 +3843,16 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L27" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>53</v>
@@ -3763,7 +3860,9 @@
       <c r="O27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P27" s="4"/>
+      <c r="P27" s="26" t="s">
+        <v>386</v>
+      </c>
       <c r="Q27" s="4" t="s">
         <v>118</v>
       </c>
@@ -3774,7 +3873,7 @@
         <v>119</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U27" s="4">
         <v>160</v>
@@ -3782,38 +3881,38 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y27" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="Z27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA27" s="4" t="s">
-        <v>146</v>
+      <c r="AA27" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="AB27" s="5">
         <v>45691</v>
       </c>
       <c r="AC27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD27" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AD27" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="AE27" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG27" t="str">
         <f t="shared" si="0"/>
         <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>30</v>
       </c>
@@ -3826,16 +3925,16 @@
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L28" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
@@ -3848,7 +3947,7 @@
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
@@ -3857,34 +3956,34 @@
         <v>52</v>
       </c>
       <c r="AC28" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD28" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE28" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF28" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG28" s="18" t="str">
         <f t="shared" si="0"/>
         <v>dcSTX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D29" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -3892,16 +3991,16 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L29" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>53</v>
@@ -3909,7 +4008,9 @@
       <c r="O29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P29" s="4"/>
+      <c r="P29" s="26" t="s">
+        <v>387</v>
+      </c>
       <c r="Q29" s="4" t="s">
         <v>118</v>
       </c>
@@ -3931,13 +4032,13 @@
         <v>30</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA29" s="4" t="s">
-        <v>139</v>
+      <c r="AA29" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="AB29" s="5">
         <v>45691</v>
@@ -3946,20 +4047,20 @@
         <v>30</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG29" t="str">
         <f t="shared" si="0"/>
         <v>dcSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
@@ -3972,16 +4073,16 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L30" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -3994,7 +4095,7 @@
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -4007,34 +4108,34 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG30" t="str">
         <f t="shared" si="0"/>
         <v>GTX1_4_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D31" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -4042,16 +4143,16 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L31" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>53</v>
@@ -4093,23 +4194,23 @@
         <v>45691</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG31" t="str">
         <f t="shared" si="0"/>
         <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
@@ -4122,16 +4223,16 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L32" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -4144,7 +4245,7 @@
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -4153,34 +4254,34 @@
         <v>52</v>
       </c>
       <c r="AC32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD32" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG32" t="str">
         <f t="shared" si="0"/>
         <v>GTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D33" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
@@ -4188,16 +4289,16 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L33" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>53</v>
@@ -4239,23 +4340,23 @@
         <v>45691</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG33" t="str">
         <f t="shared" si="0"/>
         <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -4268,16 +4369,16 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L34" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -4290,7 +4391,7 @@
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -4299,34 +4400,34 @@
         <v>52</v>
       </c>
       <c r="AC34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD34" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG34" t="str">
         <f t="shared" ref="AG34:AG65" si="1">CONCATENATE(AC34, " (", AE34, ")")</f>
         <v>GTX5_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D35" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -4334,16 +4435,16 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L35" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>53</v>
@@ -4351,7 +4452,9 @@
       <c r="O35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P35" s="4"/>
+      <c r="P35" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="Q35" s="4" t="s">
         <v>118</v>
       </c>
@@ -4373,13 +4476,13 @@
         <v>36</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA35" s="4" t="s">
-        <v>142</v>
+      <c r="AA35" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="AB35" s="5">
         <v>45691</v>
@@ -4388,20 +4491,20 @@
         <v>36</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF35" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG35" t="str">
         <f t="shared" si="1"/>
         <v>GTX5 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
@@ -4414,16 +4517,16 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L36" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -4436,7 +4539,7 @@
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
@@ -4445,34 +4548,34 @@
         <v>52</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD36" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF36" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG36" t="str">
         <f t="shared" si="1"/>
         <v>GTX6_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D37" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
@@ -4480,16 +4583,16 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L37" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>53</v>
@@ -4497,7 +4600,9 @@
       <c r="O37" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P37" s="4"/>
+      <c r="P37" s="26" t="s">
+        <v>389</v>
+      </c>
       <c r="Q37" s="4" t="s">
         <v>118</v>
       </c>
@@ -4517,13 +4622,13 @@
         <v>39</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z37" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA37" s="4" t="s">
-        <v>143</v>
+      <c r="AA37" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="AB37" s="5">
         <v>45691</v>
@@ -4532,22 +4637,22 @@
         <v>39</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF37" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG37" t="str">
         <f t="shared" si="1"/>
         <v>GTX6 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -4558,16 +4663,16 @@
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="J38" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L38" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
@@ -4589,34 +4694,34 @@
       <c r="AA38" s="16"/>
       <c r="AB38" s="19"/>
       <c r="AC38" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD38" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="AD38" s="16" t="s">
-        <v>355</v>
-      </c>
       <c r="AE38" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF38" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG38" s="18" t="str">
         <f t="shared" si="1"/>
         <v>NEO_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D39" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
@@ -4624,16 +4729,16 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L39" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>53</v>
@@ -4641,7 +4746,9 @@
       <c r="O39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P39" s="4"/>
+      <c r="P39" s="26" t="s">
+        <v>390</v>
+      </c>
       <c r="Q39" s="4" t="s">
         <v>118</v>
       </c>
@@ -4668,7 +4775,7 @@
       <c r="Z39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA39" s="4" t="s">
+      <c r="AA39" s="24" t="s">
         <v>126</v>
       </c>
       <c r="AB39" s="5">
@@ -4681,19 +4788,19 @@
         <v>125</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG39" t="str">
         <f t="shared" si="1"/>
         <v>NeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4704,16 +4811,16 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="J40" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L40" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
@@ -4735,34 +4842,34 @@
       <c r="AA40" s="16"/>
       <c r="AB40" s="19"/>
       <c r="AC40" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD40" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="AD40" s="16" t="s">
-        <v>360</v>
-      </c>
       <c r="AE40" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF40" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG40" s="18" t="str">
         <f t="shared" si="1"/>
         <v>PST_tot_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>351</v>
-      </c>
       <c r="D41" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -4770,16 +4877,16 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="J41" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L41" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N41" s="16" t="s">
         <v>53</v>
@@ -4815,23 +4922,23 @@
       <c r="AA41" s="16"/>
       <c r="AB41" s="19"/>
       <c r="AC41" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD41" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE41" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF41" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG41" s="18" t="str">
         <f t="shared" si="1"/>
         <v>PST_tot (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
@@ -4844,17 +4951,18 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L42" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>179</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="P42" s="25"/>
       <c r="Q42" s="4" t="s">
         <v>118</v>
       </c>
@@ -4862,40 +4970,40 @@
         <v>118</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z42" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AC42" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE42" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AD42" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE42" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="AF42" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG42" t="str">
         <f t="shared" si="1"/>
         <v>STX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="D43" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
@@ -4903,16 +5011,16 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L43" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>53</v>
@@ -4920,7 +5028,9 @@
       <c r="O43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P43" s="4"/>
+      <c r="P43" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="Q43" s="4" t="s">
         <v>118</v>
       </c>
@@ -4949,7 +5059,7 @@
       <c r="Z43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AA43" s="24" t="s">
         <v>123</v>
       </c>
       <c r="AB43" s="5">
@@ -4962,28 +5072,28 @@
         <v>118</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF43" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG43" t="str">
         <f t="shared" si="1"/>
         <v>STX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
@@ -4991,35 +5101,35 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L44" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>54</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S44" s="4" t="s">
         <v>51</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -5034,34 +5144,34 @@
         <v>45691</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD44" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE44" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF44" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG44" t="str">
         <f t="shared" si="1"/>
         <v>SPX1 (ug/kg)</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
@@ -5069,16 +5179,16 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L45" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>54</v>
@@ -5113,14 +5223,14 @@
       <c r="Z45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AA45" s="24" t="s">
         <v>58</v>
       </c>
       <c r="AB45" s="5">
         <v>45691</v>
       </c>
       <c r="AC45" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AD45" s="4" t="s">
         <v>55</v>
@@ -5129,25 +5239,25 @@
         <v>65</v>
       </c>
       <c r="AF45" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG45" t="str">
         <f t="shared" si="1"/>
         <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="D46" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -5155,16 +5265,16 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L46" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>54</v>
@@ -5172,7 +5282,9 @@
       <c r="O46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P46" s="4"/>
+      <c r="P46" s="26" t="s">
+        <v>391</v>
+      </c>
       <c r="Q46" s="4" t="s">
         <v>62</v>
       </c>
@@ -5199,14 +5311,14 @@
       <c r="Z46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA46" s="4" t="s">
+      <c r="AA46" s="24" t="s">
         <v>61</v>
       </c>
       <c r="AB46" s="5">
         <v>45691</v>
       </c>
       <c r="AC46" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AD46" s="4" t="s">
         <v>59</v>
@@ -5215,25 +5327,25 @@
         <v>65</v>
       </c>
       <c r="AF46" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG46" t="str">
         <f t="shared" si="1"/>
         <v>45_OH_homoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -5241,16 +5353,16 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L47" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>54</v>
@@ -5258,7 +5370,9 @@
       <c r="O47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P47" s="4"/>
+      <c r="P47" s="26" t="s">
+        <v>392</v>
+      </c>
       <c r="Q47" s="4" t="s">
         <v>62</v>
       </c>
@@ -5285,14 +5399,14 @@
       <c r="Z47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AA47" s="24" t="s">
         <v>67</v>
       </c>
       <c r="AB47" s="5">
         <v>45691</v>
       </c>
       <c r="AC47" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD47" s="4" t="s">
         <v>68</v>
@@ -5301,25 +5415,25 @@
         <v>65</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="str">
         <f t="shared" si="1"/>
         <v>45_OH_YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -5327,16 +5441,16 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L48" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>54</v>
@@ -5344,7 +5458,9 @@
       <c r="O48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P48" s="4"/>
+      <c r="P48" s="26" t="s">
+        <v>393</v>
+      </c>
       <c r="Q48" s="4" t="s">
         <v>62</v>
       </c>
@@ -5371,8 +5487,8 @@
       <c r="Z48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA48" t="s">
-        <v>154</v>
+      <c r="AA48" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="AB48" s="5">
         <v>45691</v>
@@ -5387,25 +5503,25 @@
         <v>65</v>
       </c>
       <c r="AF48" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG48" t="str">
         <f t="shared" si="1"/>
         <v>CarboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
@@ -5413,16 +5529,16 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L49" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>54</v>
@@ -5430,7 +5546,9 @@
       <c r="O49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P49" s="4"/>
+      <c r="P49" s="26" t="s">
+        <v>394</v>
+      </c>
       <c r="Q49" s="4" t="s">
         <v>62</v>
       </c>
@@ -5457,7 +5575,7 @@
       <c r="Z49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA49" s="4" t="s">
+      <c r="AA49" s="24" t="s">
         <v>87</v>
       </c>
       <c r="AB49" s="5">
@@ -5473,25 +5591,25 @@
         <v>65</v>
       </c>
       <c r="AF49" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG49" t="str">
         <f t="shared" si="1"/>
         <v>HomoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
@@ -5499,16 +5617,16 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L50" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>54</v>
@@ -5516,7 +5634,9 @@
       <c r="O50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P50" s="4"/>
+      <c r="P50" s="26" t="s">
+        <v>395</v>
+      </c>
       <c r="Q50" s="4" t="s">
         <v>62</v>
       </c>
@@ -5545,7 +5665,7 @@
       <c r="Z50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA50" s="4" t="s">
+      <c r="AA50" s="24" t="s">
         <v>66</v>
       </c>
       <c r="AB50" s="5">
@@ -5561,25 +5681,25 @@
         <v>65</v>
       </c>
       <c r="AF50" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG50" t="str">
         <f t="shared" si="1"/>
         <v>YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -5587,16 +5707,16 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="L51" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>54</v>
@@ -5634,591 +5754,602 @@
         <v>51</v>
       </c>
       <c r="AC51" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AD51" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE51" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AF51" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG51" t="str">
         <f t="shared" si="1"/>
         <v>YTX_tot (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="P52" s="25"/>
       <c r="Q52" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z52" t="s">
         <v>48</v>
       </c>
       <c r="AC52" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD52" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE52" t="s">
         <v>48</v>
       </c>
       <c r="AF52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="str">
         <f t="shared" si="1"/>
         <v>Ana_a (mg/kg)</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="P53" s="25"/>
       <c r="Q53" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z53" t="s">
         <v>48</v>
       </c>
       <c r="AC53" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD53" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AE53" t="s">
         <v>48</v>
       </c>
       <c r="AF53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG53" t="str">
         <f t="shared" si="1"/>
         <v>h_Ana (mg/kg)</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="P54" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="S54" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="O54" s="4" t="s">
+      <c r="T54" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="R54" s="4" t="s">
+      <c r="X54" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="S54" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="T54" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="X54" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="Y54" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z54" t="s">
         <v>48</v>
       </c>
-      <c r="AA54" t="s">
-        <v>246</v>
+      <c r="AA54" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="AB54" s="5">
         <v>45698</v>
       </c>
       <c r="AC54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD54" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AE54" t="s">
         <v>48</v>
       </c>
       <c r="AF54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG54" t="str">
         <f t="shared" si="1"/>
         <v>CYN (mg/kg)</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O55" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P55" s="25"/>
       <c r="Q55" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z55" t="s">
         <v>48</v>
       </c>
-      <c r="AA55" t="s">
-        <v>265</v>
+      <c r="AA55" s="24" t="s">
+        <v>264</v>
       </c>
       <c r="AB55" s="5">
         <v>45698</v>
       </c>
       <c r="AC55" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AD55" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AE55" t="s">
         <v>48</v>
       </c>
       <c r="AF55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG55" t="str">
         <f t="shared" si="1"/>
         <v>MC_HilR (mg/kg)</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O56" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P56" s="25"/>
       <c r="Q56" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z56" t="s">
         <v>48</v>
       </c>
       <c r="AC56" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AD56" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE56" t="s">
         <v>48</v>
       </c>
       <c r="AF56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG56" t="str">
         <f t="shared" si="1"/>
         <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O57" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P57" s="25"/>
       <c r="Q57" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z57" t="s">
         <v>48</v>
       </c>
-      <c r="AA57" t="s">
-        <v>319</v>
+      <c r="AA57" s="24" t="s">
+        <v>318</v>
       </c>
       <c r="AB57" s="5">
         <v>45700</v>
       </c>
       <c r="AC57" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD57" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE57" t="s">
         <v>48</v>
       </c>
       <c r="AF57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG57" t="str">
         <f t="shared" si="1"/>
         <v>MC_HTyR (mg/kg)</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="M58" t="s">
+        <v>179</v>
+      </c>
+      <c r="N58" t="s">
         <v>244</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="M58" t="s">
-        <v>180</v>
-      </c>
-      <c r="N58" t="s">
-        <v>245</v>
-      </c>
       <c r="O58" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P58" s="25"/>
       <c r="Q58" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z58" t="s">
         <v>48</v>
       </c>
       <c r="AC58" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD58" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AE58" t="s">
         <v>48</v>
       </c>
       <c r="AF58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG58" t="str">
         <f t="shared" si="1"/>
         <v>MC_HtyR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O59" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P59" s="25"/>
       <c r="Q59" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z59" t="s">
         <v>48</v>
       </c>
-      <c r="AA59" t="s">
-        <v>254</v>
+      <c r="AA59" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="AB59" s="5">
         <v>45698</v>
       </c>
       <c r="AC59" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD59" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE59" t="s">
         <v>48</v>
       </c>
       <c r="AF59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="1"/>
         <v>MC_LA (mg/kg)</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O60" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P60" s="25"/>
       <c r="Q60" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z60" t="s">
         <v>48</v>
       </c>
-      <c r="AA60" t="s">
-        <v>256</v>
+      <c r="AA60" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="AB60" s="5">
         <v>45698</v>
       </c>
       <c r="AC60" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AD60" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AE60" t="s">
         <v>48</v>
       </c>
       <c r="AF60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG60" t="str">
         <f t="shared" si="1"/>
         <v>MC_LF (mg/kg)</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O61" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P61" s="25"/>
       <c r="Q61" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z61" t="s">
         <v>48</v>
       </c>
-      <c r="AA61" t="s">
-        <v>251</v>
+      <c r="AA61" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="AB61" s="5">
         <v>45698</v>
       </c>
       <c r="AC61" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD61" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AE61" t="s">
         <v>48</v>
       </c>
       <c r="AF61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG61" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR (mg/kg)</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -6229,67 +6360,68 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="M62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O62" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P62" s="25"/>
       <c r="Q62" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T62" t="s">
+        <v>312</v>
+      </c>
+      <c r="X62" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y62" t="s">
         <v>313</v>
-      </c>
-      <c r="X62" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>314</v>
       </c>
       <c r="Z62" t="s">
         <v>48</v>
       </c>
-      <c r="AA62" t="s">
-        <v>315</v>
+      <c r="AA62" s="24" t="s">
+        <v>314</v>
       </c>
       <c r="AB62" s="5">
         <v>45700</v>
       </c>
       <c r="AC62" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AD62" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE62" t="s">
         <v>48</v>
       </c>
       <c r="AF62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG62" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -6300,259 +6432,263 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="M63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O63" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P63" s="25"/>
       <c r="Q63" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Z63" t="s">
         <v>48</v>
       </c>
       <c r="AA63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB63" s="5">
         <v>45700</v>
       </c>
       <c r="AC63" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AD63" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE63" t="s">
         <v>48</v>
       </c>
       <c r="AF63" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG63" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O64" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P64" s="25"/>
       <c r="Q64" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z64" t="s">
         <v>48</v>
       </c>
       <c r="AA64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB64" s="5">
         <v>45698</v>
       </c>
       <c r="AC64" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD64" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE64" t="s">
         <v>48</v>
       </c>
       <c r="AF64" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG64" t="str">
         <f t="shared" si="1"/>
         <v>MC_LW (mg/kg)</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O65" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P65" s="25"/>
       <c r="Q65" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z65" t="s">
         <v>48</v>
       </c>
       <c r="AA65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB65" s="5">
         <v>45698</v>
       </c>
       <c r="AC65" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD65" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE65" t="s">
         <v>48</v>
       </c>
       <c r="AF65" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG65" t="str">
         <f t="shared" si="1"/>
         <v>MC_LY (mg/kg)</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O66" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P66" s="25"/>
       <c r="Q66" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AA66" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB66" s="5">
         <v>45698</v>
       </c>
       <c r="AC66" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD66" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AF66" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG66" t="str">
         <f t="shared" ref="AG66:AG72" si="2">CONCATENATE(AC66, " (", AE66, ")")</f>
         <v>MC_RR (mg/kg)</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -6563,52 +6699,53 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="M67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N67" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O67" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P67" s="25"/>
       <c r="Q67" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z67" t="s">
         <v>48</v>
       </c>
       <c r="AC67" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD67" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AE67" t="s">
         <v>48</v>
       </c>
       <c r="AF67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG67" t="str">
         <f t="shared" si="2"/>
         <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -6619,304 +6756,309 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="M68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O68" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P68" s="25"/>
       <c r="Q68" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z68" t="s">
         <v>48</v>
       </c>
       <c r="AA68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB68" s="5">
         <v>45700</v>
       </c>
       <c r="AC68" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD68" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE68" t="s">
         <v>48</v>
       </c>
       <c r="AF68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG68" t="str">
         <f t="shared" si="2"/>
         <v>MC_RR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O69" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P69" s="25"/>
       <c r="Q69" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Y69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Z69" t="s">
         <v>48</v>
       </c>
       <c r="AA69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB69" s="5">
         <v>45700</v>
       </c>
       <c r="AC69" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AD69" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE69" t="s">
         <v>48</v>
       </c>
       <c r="AF69" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG69" t="str">
         <f t="shared" si="2"/>
         <v>MC_RR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N70" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O70" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P70" s="25"/>
       <c r="Q70" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Y70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z70" t="s">
         <v>48</v>
       </c>
       <c r="AA70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB70" s="5">
         <v>45698</v>
       </c>
       <c r="AC70" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD70" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AE70" t="s">
         <v>48</v>
       </c>
       <c r="AF70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="2"/>
         <v>MC_WR (mg/kg)</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M71" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O71" t="s">
-        <v>253</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="P71" s="25"/>
       <c r="Q71" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z71" t="s">
         <v>48</v>
       </c>
       <c r="AA71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB71" s="5">
         <v>45698</v>
       </c>
       <c r="AC71" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD71" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE71" t="s">
         <v>48</v>
       </c>
       <c r="AF71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG71" t="str">
         <f t="shared" si="2"/>
         <v>MC_YR (mg/kg)</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O72" t="s">
-        <v>271</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="P72" s="25"/>
       <c r="Q72" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T72" t="s">
+        <v>308</v>
+      </c>
+      <c r="X72" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y72" t="s">
         <v>309</v>
-      </c>
-      <c r="X72" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>310</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AA72" t="s">
-        <v>311</v>
+      <c r="AA72" s="24" t="s">
+        <v>310</v>
       </c>
       <c r="AB72" s="5">
         <v>45700</v>
       </c>
       <c r="AC72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AD72" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE72" t="s">
         <v>48</v>
       </c>
       <c r="AF72" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="2"/>
@@ -6930,8 +7072,39 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="S41" r:id="rId1" xr:uid="{1626B51C-1015-4732-A4E4-DD5A79875C36}"/>
+    <hyperlink ref="AA7" r:id="rId2" xr:uid="{70A67022-9547-4C39-A96D-FABB76B65A5E}"/>
+    <hyperlink ref="AA9" r:id="rId3" xr:uid="{338342D9-68AD-44D3-95C3-16C92EABD5BF}"/>
+    <hyperlink ref="AA11" r:id="rId4" xr:uid="{D6CD074A-48D2-4C95-9DA6-864DF2F27C95}"/>
+    <hyperlink ref="AA12" r:id="rId5" xr:uid="{089377B3-6BA8-44DA-AAF2-6EE4C9DAA818}"/>
+    <hyperlink ref="AA13" r:id="rId6" xr:uid="{894BC872-CF08-4B37-BDA4-7208B6DFE767}"/>
+    <hyperlink ref="AA16" r:id="rId7" xr:uid="{C25B200F-9D87-493A-BFAF-A5F6605142B9}"/>
+    <hyperlink ref="AA17" r:id="rId8" xr:uid="{1CD0AC49-BF3F-469E-9D8D-D64831CC7947}"/>
+    <hyperlink ref="AA18" r:id="rId9" xr:uid="{A754AACD-1A70-424C-BFF3-63412AD44A72}"/>
+    <hyperlink ref="AA21" r:id="rId10" xr:uid="{CF186C46-85F4-42ED-BE9D-AF0FF74997D7}"/>
+    <hyperlink ref="AA25" r:id="rId11" xr:uid="{2EABFE79-AA6A-48BB-A55E-6C20A4CD78E5}"/>
+    <hyperlink ref="AA27" r:id="rId12" xr:uid="{0166E27D-3BBB-4F2B-BB14-BC302E63B65C}"/>
+    <hyperlink ref="AA29" r:id="rId13" xr:uid="{A9BFC1A7-562B-4325-96EA-E00B56121E33}"/>
+    <hyperlink ref="AA35" r:id="rId14" xr:uid="{D1A5DA3D-3C06-46B2-B4A0-C342DD14257E}"/>
+    <hyperlink ref="AA37" r:id="rId15" xr:uid="{8E49C39A-8AA2-495D-A606-02312E151058}"/>
+    <hyperlink ref="AA39" r:id="rId16" xr:uid="{145EDD2C-4AF7-4FD0-944A-020240EF92F6}"/>
+    <hyperlink ref="AA43" r:id="rId17" xr:uid="{BCBC1436-4A29-4D29-B0AF-64FBE2F2A4D4}"/>
+    <hyperlink ref="AA45" r:id="rId18" xr:uid="{998D1598-EEC0-4042-AB2F-6C8C44BF87E6}"/>
+    <hyperlink ref="AA46" r:id="rId19" xr:uid="{32A8714D-4150-4026-8256-6CA550C433CE}"/>
+    <hyperlink ref="AA47" r:id="rId20" xr:uid="{5B56A2D9-5FF3-450F-83A0-7C132F09FB8A}"/>
+    <hyperlink ref="AA48" r:id="rId21" xr:uid="{62F90194-023F-425E-A74B-E7FCB8366E8B}"/>
+    <hyperlink ref="AA49" r:id="rId22" xr:uid="{250E5402-1293-4C16-AFAC-DD56E8828484}"/>
+    <hyperlink ref="AA50" r:id="rId23" xr:uid="{7BD81D4B-6310-4C49-80EC-66BE67C6A0F3}"/>
+    <hyperlink ref="AA54" r:id="rId24" xr:uid="{8E3C2FF3-A439-432D-A392-71DA91D6B4D0}"/>
+    <hyperlink ref="AA55" r:id="rId25" xr:uid="{E18997DE-5A2F-4CDF-A366-F84437621544}"/>
+    <hyperlink ref="AA57" r:id="rId26" xr:uid="{3FEBF57F-3680-4142-AFB5-9493FBB36403}"/>
+    <hyperlink ref="AA59" r:id="rId27" xr:uid="{D90DDEA1-B31C-48B7-A511-C1F0B28339CE}"/>
+    <hyperlink ref="AA60" r:id="rId28" xr:uid="{870F7CF8-C8C6-4CEB-9B21-237AB49EE5CE}"/>
+    <hyperlink ref="AA61" r:id="rId29" xr:uid="{9EC50DF2-B5B4-4CDA-8EA4-3942DCE2067A}"/>
+    <hyperlink ref="AA62" r:id="rId30" xr:uid="{C32A3405-77ED-45FE-8E14-E0B62987621F}"/>
+    <hyperlink ref="AA72" r:id="rId31" xr:uid="{E16B3489-85E3-4DFE-813B-62540016F9AB}"/>
+    <hyperlink ref="AA3" r:id="rId32" xr:uid="{5811A01D-DC24-4AE4-A4A4-BF11336B3BFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6470FE-533F-4A1F-B397-F79D284FFE8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA9B0D9-2135-42B8-9404-3D15A7AEE2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-600" yWindow="1020" windowWidth="33600" windowHeight="18645" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,26 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="398">
   <si>
     <t>Enhet</t>
   </si>
@@ -675,9 +689,6 @@
     <t>DTX2 acyl</t>
   </si>
   <si>
-    <t>Escherichia coli in bivalve flesh</t>
-  </si>
-  <si>
     <t>GTX5 screening positive</t>
   </si>
   <si>
@@ -1219,6 +1230,12 @@
   </si>
   <si>
     <t>143545-90-8</t>
+  </si>
+  <si>
+    <t>Gonyautoxin-2 and -3</t>
+  </si>
+  <si>
+    <t>Escherichia coli in bivalve molluscs</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1350,10 +1367,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1391,9 +1404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1431,7 +1444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1537,7 +1550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1679,7 +1692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1689,78 +1702,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
   <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="53.7109375" customWidth="1"/>
-    <col min="28" max="28" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.28515625" customWidth="1"/>
-    <col min="33" max="33" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.453125" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.26953125" customWidth="1"/>
+    <col min="19" max="19" width="46.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" customWidth="1"/>
+    <col min="21" max="21" width="8.1796875" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" customWidth="1"/>
+    <col min="23" max="23" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.453125" customWidth="1"/>
+    <col min="26" max="26" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="53.7265625" customWidth="1"/>
+    <col min="28" max="28" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" customWidth="1"/>
+    <col min="33" max="33" width="29.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>372</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>373</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>173</v>
@@ -1769,19 +1782,19 @@
         <v>177</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>88</v>
@@ -1793,13 +1806,13 @@
         <v>127</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>150</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>84</v>
@@ -1808,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>45</v>
@@ -1817,25 +1830,25 @@
         <v>185</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1844,10 +1857,10 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>175</v>
@@ -1884,11 +1897,11 @@
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>215</v>
+      <c r="AD2" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>156</v>
@@ -1901,29 +1914,29 @@
         <v>E_coli (cells/100 g)</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>174</v>
@@ -1937,7 +1950,7 @@
       <c r="O3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="26"/>
+      <c r="P3" s="22"/>
       <c r="Q3" s="4" t="s">
         <v>89</v>
       </c>
@@ -1964,52 +1977,52 @@
       <c r="Z3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AA3" s="24" t="s">
+      <c r="AA3" s="20" t="s">
         <v>77</v>
       </c>
       <c r="AB3" s="5">
         <v>45691</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="12" t="s">
         <v>70</v>
       </c>
       <c r="AE3" s="4" t="s">
         <v>180</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG3" t="str">
         <f t="shared" si="0"/>
         <v>AZA1 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>174</v>
@@ -2023,8 +2036,8 @@
       <c r="O4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="27" t="s">
-        <v>376</v>
+      <c r="P4" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>89</v>
@@ -2058,46 +2071,46 @@
       <c r="AB4" s="5">
         <v>45691</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AC4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AD4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>180</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="0"/>
         <v>AZA2 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>174</v>
@@ -2111,8 +2124,8 @@
       <c r="O5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="26" t="s">
-        <v>377</v>
+      <c r="P5" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>89</v>
@@ -2146,46 +2159,46 @@
       <c r="AB5" s="5">
         <v>45691</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="12" t="s">
         <v>72</v>
       </c>
       <c r="AE5" s="4" t="s">
         <v>180</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="0"/>
         <v>AZA3 (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>174</v>
@@ -2228,284 +2241,284 @@
       <c r="AB6" s="5">
         <v>45691</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AC6" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="12" t="s">
         <v>212</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>180</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="0"/>
         <v>AZA_tot (ug AZA eq/kg)</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q7" s="16" t="s">
+      <c r="P7" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="S7" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="12">
         <v>3</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="12">
         <v>20</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="12">
         <v>1</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="16" t="s">
+      <c r="Z7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AA7" s="20" t="s">
+      <c r="AA7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="15">
         <v>45688</v>
       </c>
-      <c r="AC7" s="16" t="s">
+      <c r="AC7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AD7" s="16" t="s">
+      <c r="AD7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AE7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AF7" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG7" s="18" t="str">
+      <c r="AF7" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>DA (mg/kg)</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="16" t="s">
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="AD8" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AD8" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE8" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AF8" s="16" t="s">
+      <c r="AF8" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AG8" s="18" t="str">
+      <c r="AG8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>DA_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16" t="s">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="S9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16" t="s">
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AA9" s="20" t="s">
+      <c r="AA9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="15">
         <v>45691</v>
       </c>
-      <c r="AC9" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AC9" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AF9" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG9" s="18" t="str">
+      <c r="AF9" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>DA_screening (mg/kg)</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>174</v>
@@ -2547,46 +2560,46 @@
       <c r="AB10" s="5">
         <v>45691</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AC10" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AD10" s="12" t="s">
         <v>213</v>
       </c>
       <c r="AE10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="0"/>
         <v>DST_tot (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>174</v>
@@ -2600,8 +2613,8 @@
       <c r="O11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P11" s="26" t="s">
-        <v>379</v>
+      <c r="P11" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>92</v>
@@ -2629,52 +2642,52 @@
       <c r="Z11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA11" s="24" t="s">
+      <c r="AA11" s="20" t="s">
         <v>100</v>
       </c>
       <c r="AB11" s="5">
         <v>45691</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AC11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AD11" s="12" t="s">
         <v>99</v>
       </c>
       <c r="AE11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="0"/>
         <v>DTX1 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>174</v>
@@ -2715,52 +2728,52 @@
       <c r="Z12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" s="24" t="s">
+      <c r="AA12" s="20" t="s">
         <v>106</v>
       </c>
       <c r="AB12" s="5">
         <v>45691</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AC12" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AD12" s="12" t="s">
         <v>105</v>
       </c>
       <c r="AE12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" si="0"/>
         <v>DTX3 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>174</v>
@@ -2774,8 +2787,8 @@
       <c r="O13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="26" t="s">
-        <v>380</v>
+      <c r="P13" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>92</v>
@@ -2803,52 +2816,52 @@
       <c r="Z13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA13" s="24" t="s">
+      <c r="AA13" s="20" t="s">
         <v>103</v>
       </c>
       <c r="AB13" s="5">
         <v>45691</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AC13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AD13" s="12" t="s">
         <v>102</v>
       </c>
       <c r="AE13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="0"/>
         <v>DTX2 (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>174</v>
@@ -2888,46 +2901,46 @@
       <c r="AB14" s="5">
         <v>45691</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="AC14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AD14" s="7" t="s">
+      <c r="AD14" s="12" t="s">
         <v>214</v>
       </c>
       <c r="AE14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG14" t="str">
         <f t="shared" si="0"/>
         <v>DTX2_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>174</v>
@@ -2968,46 +2981,46 @@
       <c r="AB15" s="5">
         <v>45691</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AC15" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AD15" s="4" t="s">
-        <v>218</v>
+      <c r="AD15" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="AE15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG15" t="str">
         <f t="shared" si="0"/>
         <v>OA_acyl (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>174</v>
@@ -3021,8 +3034,8 @@
       <c r="O16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="26" t="s">
-        <v>381</v>
+      <c r="P16" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>92</v>
@@ -3052,52 +3065,52 @@
       <c r="Z16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA16" s="24" t="s">
+      <c r="AA16" s="20" t="s">
         <v>95</v>
       </c>
       <c r="AB16" s="5">
         <v>45691</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AC16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AD16" s="12" t="s">
         <v>94</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG16" t="str">
         <f t="shared" si="0"/>
         <v>Okadaic acid (ug OA eq/kg)</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>174</v>
@@ -3111,8 +3124,8 @@
       <c r="O17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="26" t="s">
-        <v>382</v>
+      <c r="P17" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>111</v>
@@ -3140,52 +3153,52 @@
       <c r="Z17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AA17" s="24" t="s">
+      <c r="AA17" s="20" t="s">
         <v>151</v>
       </c>
       <c r="AB17" s="5">
         <v>45691</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AC17" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AD17" s="12" t="s">
         <v>116</v>
       </c>
       <c r="AE17" s="4" t="s">
         <v>183</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG17" t="str">
         <f t="shared" si="0"/>
         <v>PTX1 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>174</v>
@@ -3199,8 +3212,8 @@
       <c r="O18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="26" t="s">
-        <v>383</v>
+      <c r="P18" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>111</v>
@@ -3228,52 +3241,52 @@
       <c r="Z18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" s="24" t="s">
+      <c r="AA18" s="20" t="s">
         <v>152</v>
       </c>
       <c r="AB18" s="5">
         <v>45691</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AC18" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AD18" s="12" t="s">
         <v>117</v>
       </c>
       <c r="AE18" s="4" t="s">
         <v>183</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG18" t="str">
         <f t="shared" si="0"/>
         <v>PTX2 (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>174</v>
@@ -3314,40 +3327,40 @@
       <c r="AB19" s="5">
         <v>45691</v>
       </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AC19" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="AD19" s="7" t="s">
-        <v>220</v>
+      <c r="AD19" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="AE19" s="4" t="s">
         <v>183</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG19" t="str">
         <f t="shared" si="0"/>
         <v>PTX_tot (ug PTX eq/kg)</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>176</v>
@@ -3384,11 +3397,11 @@
       </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD20" s="7" t="s">
-        <v>282</v>
+      <c r="AC20" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD20" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="AE20" s="4" t="s">
         <v>207</v>
@@ -3401,29 +3414,29 @@
         <v>C1_2 (true or false)</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="D21" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>176</v>
@@ -3437,7 +3450,7 @@
       <c r="O21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P21" s="26"/>
+      <c r="P21" s="22"/>
       <c r="Q21" s="4" t="s">
         <v>118</v>
       </c>
@@ -3464,111 +3477,111 @@
       <c r="Z21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA21" s="24" t="s">
+      <c r="AA21" s="20" t="s">
         <v>123</v>
       </c>
       <c r="AB21" s="5">
         <v>45691</v>
       </c>
-      <c r="AC21" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AC21" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD21" s="12" t="s">
         <v>208</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG21" t="str">
         <f t="shared" si="0"/>
         <v>STX_C1_C2 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="M22" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16" t="s">
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="R22" s="16" t="s">
+      <c r="R22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="AD22" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE22" s="16" t="s">
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD22" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE22" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AF22" s="16" t="s">
+      <c r="AF22" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AG22" s="18" t="str">
+      <c r="AG22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>C3_4 (true or false)</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="D23" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>176</v>
@@ -3613,40 +3626,40 @@
       <c r="AB23" s="5">
         <v>45691</v>
       </c>
-      <c r="AC23" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD23" s="4" t="s">
+      <c r="AC23" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD23" s="12" t="s">
         <v>209</v>
       </c>
       <c r="AE23" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG23" t="str">
         <f t="shared" si="0"/>
         <v>STX_C3_C4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>176</v>
@@ -3654,7 +3667,7 @@
       <c r="M24" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P24" s="25"/>
+      <c r="P24" s="21"/>
       <c r="Q24" s="4" t="s">
         <v>118</v>
       </c>
@@ -3667,11 +3680,11 @@
       <c r="Z24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC24" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="AD24" s="7" t="s">
-        <v>287</v>
+      <c r="AD24" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>207</v>
@@ -3684,29 +3697,29 @@
         <v>dcGTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="D25" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>176</v>
@@ -3720,7 +3733,7 @@
       <c r="O25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="27"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3747,46 +3760,46 @@
       <c r="Z25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA25" s="24" t="s">
-        <v>385</v>
+      <c r="AA25" s="20" t="s">
+        <v>384</v>
       </c>
       <c r="AB25" s="5">
         <v>45691</v>
       </c>
-      <c r="AC25" s="4" t="s">
+      <c r="AC25" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="AD25" s="4" t="s">
+      <c r="AD25" s="12" t="s">
         <v>210</v>
       </c>
       <c r="AE25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG25" t="str">
         <f t="shared" si="0"/>
         <v>dcGTX2_dcGTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>176</v>
@@ -3794,7 +3807,7 @@
       <c r="M26" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P26" s="25"/>
+      <c r="P26" s="21"/>
       <c r="Q26" s="4" t="s">
         <v>118</v>
       </c>
@@ -3807,11 +3820,11 @@
       <c r="Z26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AC26" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="AD26" s="7" t="s">
-        <v>284</v>
+      <c r="AD26" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="AE26" s="4" t="s">
         <v>207</v>
@@ -3824,29 +3837,29 @@
         <v>dcNEO_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="D27" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>176</v>
@@ -3860,8 +3873,8 @@
       <c r="O27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P27" s="26" t="s">
-        <v>386</v>
+      <c r="P27" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>118</v>
@@ -3889,112 +3902,112 @@
       <c r="Z27" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA27" s="24" t="s">
+      <c r="AA27" s="20" t="s">
         <v>145</v>
       </c>
       <c r="AB27" s="5">
         <v>45691</v>
       </c>
-      <c r="AC27" s="4" t="s">
+      <c r="AC27" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="AD27" s="4" t="s">
+      <c r="AD27" s="12" t="s">
         <v>144</v>
       </c>
       <c r="AE27" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG27" t="str">
         <f t="shared" si="0"/>
         <v>dcNeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
       <c r="J28" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16" t="s">
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="R28" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16" t="s">
+      <c r="S28" s="12"/>
+      <c r="T28" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="Z28" s="16" t="s">
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="Z28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AC28" s="18" t="s">
+      <c r="AC28" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="AD28" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE28" s="16" t="s">
+      <c r="AD28" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE28" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AF28" s="16" t="s">
+      <c r="AF28" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AG28" s="18" t="str">
+      <c r="AG28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>dcSTX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="D29" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>176</v>
@@ -4008,8 +4021,8 @@
       <c r="O29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P29" s="26" t="s">
-        <v>387</v>
+      <c r="P29" s="22" t="s">
+        <v>386</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>118</v>
@@ -4037,46 +4050,46 @@
       <c r="Z29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA29" s="24" t="s">
+      <c r="AA29" s="20" t="s">
         <v>138</v>
       </c>
       <c r="AB29" s="5">
         <v>45691</v>
       </c>
-      <c r="AC29" s="4" t="s">
+      <c r="AC29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AD29" s="4" t="s">
+      <c r="AD29" s="12" t="s">
         <v>137</v>
       </c>
       <c r="AE29" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG29" t="str">
         <f t="shared" si="0"/>
         <v>dcSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>176</v>
@@ -4107,11 +4120,11 @@
       </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="4" t="s">
+      <c r="AC30" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AD30" s="7" t="s">
-        <v>285</v>
+      <c r="AD30" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="AE30" s="4" t="s">
         <v>207</v>
@@ -4124,29 +4137,29 @@
         <v>GTX1_4_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="D31" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>176</v>
@@ -4193,40 +4206,40 @@
       <c r="AB31" s="5">
         <v>45691</v>
       </c>
-      <c r="AC31" s="4" t="s">
+      <c r="AC31" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="AD31" s="4" t="s">
+      <c r="AD31" s="12" t="s">
         <v>211</v>
       </c>
       <c r="AE31" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG31" t="str">
         <f t="shared" si="0"/>
         <v>GTX1_GTX4 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>176</v>
@@ -4253,11 +4266,11 @@
       <c r="Z32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AC32" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="AD32" s="7" t="s">
-        <v>286</v>
+      <c r="AD32" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="AE32" s="4" t="s">
         <v>207</v>
@@ -4270,29 +4283,29 @@
         <v>GTX2_3_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="D33" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>176</v>
@@ -4339,40 +4352,40 @@
       <c r="AB33" s="5">
         <v>45691</v>
       </c>
-      <c r="AC33" s="4" t="s">
+      <c r="AC33" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="AD33" s="4" t="s">
-        <v>211</v>
+      <c r="AD33" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="AE33" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG33" t="str">
         <f t="shared" si="0"/>
         <v>GTX2_GTX3 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>176</v>
@@ -4399,11 +4412,11 @@
       <c r="Z34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AC34" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="AD34" s="7" t="s">
-        <v>216</v>
+      <c r="AD34" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="AE34" s="4" t="s">
         <v>207</v>
@@ -4416,29 +4429,29 @@
         <v>GTX5_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="D35" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>176</v>
@@ -4452,8 +4465,8 @@
       <c r="O35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P35" s="26" t="s">
-        <v>388</v>
+      <c r="P35" s="22" t="s">
+        <v>387</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>118</v>
@@ -4481,46 +4494,46 @@
       <c r="Z35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA35" s="24" t="s">
+      <c r="AA35" s="20" t="s">
         <v>141</v>
       </c>
       <c r="AB35" s="5">
         <v>45691</v>
       </c>
-      <c r="AC35" s="4" t="s">
+      <c r="AC35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AD35" s="4" t="s">
+      <c r="AD35" s="12" t="s">
         <v>139</v>
       </c>
       <c r="AE35" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF35" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG35" t="str">
         <f t="shared" si="1"/>
         <v>GTX5 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>176</v>
@@ -4547,11 +4560,11 @@
       <c r="Z36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AC36" s="4" t="s">
+      <c r="AC36" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="AD36" s="7" t="s">
-        <v>217</v>
+      <c r="AD36" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="AE36" s="4" t="s">
         <v>207</v>
@@ -4564,29 +4577,29 @@
         <v>GTX6_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="D37" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>176</v>
@@ -4600,8 +4613,8 @@
       <c r="O37" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P37" s="26" t="s">
-        <v>389</v>
+      <c r="P37" s="22" t="s">
+        <v>388</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>118</v>
@@ -4627,112 +4640,112 @@
       <c r="Z37" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA37" s="24" t="s">
+      <c r="AA37" s="20" t="s">
         <v>142</v>
       </c>
       <c r="AB37" s="5">
         <v>45691</v>
       </c>
-      <c r="AC37" s="4" t="s">
+      <c r="AC37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AD37" s="4" t="s">
+      <c r="AD37" s="12" t="s">
         <v>140</v>
       </c>
       <c r="AE37" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF37" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="str">
         <f t="shared" si="1"/>
         <v>GTX6 (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
       <c r="J38" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L38" s="16" t="s">
+      <c r="L38" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="M38" s="16" t="s">
+      <c r="M38" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16" t="s">
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="R38" s="16" t="s">
+      <c r="R38" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="19"/>
-      <c r="AC38" s="16" t="s">
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD38" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="AD38" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="AE38" s="16" t="s">
+      <c r="AE38" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AF38" s="16" t="s">
+      <c r="AF38" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AG38" s="18" t="str">
+      <c r="AG38" s="14" t="str">
         <f t="shared" si="1"/>
         <v>NEO_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="D39" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>176</v>
@@ -4746,8 +4759,8 @@
       <c r="O39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P39" s="26" t="s">
-        <v>390</v>
+      <c r="P39" s="22" t="s">
+        <v>389</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>118</v>
@@ -4775,186 +4788,186 @@
       <c r="Z39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA39" s="24" t="s">
+      <c r="AA39" s="20" t="s">
         <v>126</v>
       </c>
       <c r="AB39" s="5">
         <v>45691</v>
       </c>
-      <c r="AC39" s="4" t="s">
+      <c r="AC39" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AD39" s="4" t="s">
+      <c r="AD39" s="12" t="s">
         <v>125</v>
       </c>
       <c r="AE39" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG39" t="str">
         <f t="shared" si="1"/>
         <v>NeoSTX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
       <c r="J40" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="M40" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16" t="s">
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="R40" s="16" t="s">
+      <c r="R40" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="16"/>
-      <c r="AA40" s="16"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="16" t="s">
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD40" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="AD40" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="AE40" s="16" t="s">
+      <c r="AE40" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AF40" s="16" t="s">
+      <c r="AF40" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AG40" s="18" t="str">
+      <c r="AG40" s="14" t="str">
         <f t="shared" si="1"/>
         <v>PST_tot_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="D41" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="M41" s="16" t="s">
+      <c r="M41" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="N41" s="16" t="s">
+      <c r="N41" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="O41" s="16" t="s">
+      <c r="O41" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16" t="s">
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="R41" s="16" t="s">
+      <c r="R41" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="S41" s="20" t="s">
+      <c r="S41" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="T41" s="16" t="s">
+      <c r="T41" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="U41" s="16">
+      <c r="U41" s="12">
         <v>380</v>
       </c>
-      <c r="V41" s="16">
+      <c r="V41" s="12">
         <v>800</v>
       </c>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16" t="s">
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="16" t="s">
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="AD41" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE41" s="16" t="s">
+      <c r="AD41" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE41" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="AF41" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG41" s="18" t="str">
+      <c r="AF41" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG41" s="14" t="str">
         <f t="shared" si="1"/>
         <v>PST_tot (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>176</v>
@@ -4962,7 +4975,7 @@
       <c r="M42" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P42" s="25"/>
+      <c r="P42" s="21"/>
       <c r="Q42" s="4" t="s">
         <v>118</v>
       </c>
@@ -4975,11 +4988,11 @@
       <c r="Z42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AC42" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="AD42" s="7" t="s">
-        <v>222</v>
+      <c r="AD42" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="AE42" s="4" t="s">
         <v>207</v>
@@ -4992,29 +5005,29 @@
         <v>STX_screen_pos (true or false)</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="D43" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>176</v>
@@ -5028,8 +5041,8 @@
       <c r="O43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P43" s="26" t="s">
-        <v>384</v>
+      <c r="P43" s="22" t="s">
+        <v>383</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>118</v>
@@ -5059,52 +5072,52 @@
       <c r="Z43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="AA43" s="24" t="s">
+      <c r="AA43" s="20" t="s">
         <v>123</v>
       </c>
       <c r="AB43" s="5">
         <v>45691</v>
       </c>
-      <c r="AC43" s="4" t="s">
+      <c r="AC43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AD43" s="4" t="s">
+      <c r="AD43" s="12" t="s">
         <v>118</v>
       </c>
       <c r="AE43" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF43" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG43" t="str">
         <f t="shared" si="1"/>
         <v>STX (ug STXdiHCL eq/kg)</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>174</v>
@@ -5143,46 +5156,46 @@
       <c r="AB44" s="5">
         <v>45691</v>
       </c>
-      <c r="AC44" s="4" t="s">
+      <c r="AC44" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="AD44" s="7" t="s">
+      <c r="AD44" s="12" t="s">
         <v>155</v>
       </c>
       <c r="AE44" s="4" t="s">
         <v>184</v>
       </c>
       <c r="AF44" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="str">
         <f t="shared" si="1"/>
         <v>SPX1 (ug/kg)</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>174</v>
@@ -5223,52 +5236,52 @@
       <c r="Z45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA45" s="24" t="s">
+      <c r="AA45" s="20" t="s">
         <v>58</v>
       </c>
       <c r="AB45" s="5">
         <v>45691</v>
       </c>
-      <c r="AC45" s="4" t="s">
+      <c r="AC45" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="AD45" s="4" t="s">
+      <c r="AD45" s="12" t="s">
         <v>55</v>
       </c>
       <c r="AE45" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AF45" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="str">
         <f t="shared" si="1"/>
         <v>45OH_carboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="D46" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
       <c r="J46" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>174</v>
@@ -5282,8 +5295,8 @@
       <c r="O46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P46" s="26" t="s">
-        <v>391</v>
+      <c r="P46" s="22" t="s">
+        <v>390</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>62</v>
@@ -5311,52 +5324,52 @@
       <c r="Z46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA46" s="24" t="s">
+      <c r="AA46" s="20" t="s">
         <v>61</v>
       </c>
       <c r="AB46" s="5">
         <v>45691</v>
       </c>
-      <c r="AC46" s="4" t="s">
+      <c r="AC46" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="AD46" s="4" t="s">
+      <c r="AD46" s="12" t="s">
         <v>59</v>
       </c>
       <c r="AE46" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AF46" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG46" t="str">
         <f t="shared" si="1"/>
         <v>45_OH_homoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="D47" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D47" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
       <c r="J47" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>174</v>
@@ -5370,8 +5383,8 @@
       <c r="O47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P47" s="26" t="s">
-        <v>392</v>
+      <c r="P47" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>62</v>
@@ -5399,52 +5412,52 @@
       <c r="Z47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA47" s="24" t="s">
+      <c r="AA47" s="20" t="s">
         <v>67</v>
       </c>
       <c r="AB47" s="5">
         <v>45691</v>
       </c>
-      <c r="AC47" s="4" t="s">
+      <c r="AC47" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="AD47" s="4" t="s">
+      <c r="AD47" s="12" t="s">
         <v>68</v>
       </c>
       <c r="AE47" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG47" t="str">
         <f t="shared" si="1"/>
         <v>45_OH_YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="D48" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D48" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
       <c r="J48" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>174</v>
@@ -5458,8 +5471,8 @@
       <c r="O48" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P48" s="26" t="s">
-        <v>393</v>
+      <c r="P48" s="22" t="s">
+        <v>392</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>62</v>
@@ -5487,52 +5500,52 @@
       <c r="Z48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA48" s="24" t="s">
+      <c r="AA48" s="20" t="s">
         <v>153</v>
       </c>
       <c r="AB48" s="5">
         <v>45691</v>
       </c>
-      <c r="AC48" s="4" t="s">
+      <c r="AC48" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AD48" s="4" t="s">
+      <c r="AD48" s="12" t="s">
         <v>82</v>
       </c>
       <c r="AE48" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AF48" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="str">
         <f t="shared" si="1"/>
         <v>CarboxyYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
       <c r="J49" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>174</v>
@@ -5546,8 +5559,8 @@
       <c r="O49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P49" s="26" t="s">
-        <v>394</v>
+      <c r="P49" s="22" t="s">
+        <v>393</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>62</v>
@@ -5575,52 +5588,52 @@
       <c r="Z49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA49" s="24" t="s">
+      <c r="AA49" s="20" t="s">
         <v>87</v>
       </c>
       <c r="AB49" s="5">
         <v>45691</v>
       </c>
-      <c r="AC49" s="4" t="s">
+      <c r="AC49" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AD49" s="4" t="s">
+      <c r="AD49" s="12" t="s">
         <v>83</v>
       </c>
       <c r="AE49" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AF49" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG49" t="str">
         <f t="shared" si="1"/>
         <v>HomoYTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D50" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
       <c r="J50" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>174</v>
@@ -5634,8 +5647,8 @@
       <c r="O50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P50" s="26" t="s">
-        <v>395</v>
+      <c r="P50" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>62</v>
@@ -5665,52 +5678,52 @@
       <c r="Z50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA50" s="24" t="s">
+      <c r="AA50" s="20" t="s">
         <v>66</v>
       </c>
       <c r="AB50" s="5">
         <v>45691</v>
       </c>
-      <c r="AC50" s="4" t="s">
+      <c r="AC50" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AD50" s="4" t="s">
+      <c r="AD50" s="12" t="s">
         <v>62</v>
       </c>
       <c r="AE50" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AF50" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG50" t="str">
         <f t="shared" si="1"/>
         <v>YTX (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
       <c r="J51" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>174</v>
@@ -5753,603 +5766,603 @@
       <c r="AB51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AC51" s="4" t="s">
+      <c r="AC51" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="AD51" s="7" t="s">
-        <v>221</v>
+      <c r="AD51" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="AE51" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AF51" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="str">
         <f t="shared" si="1"/>
         <v>YTX_tot (mg YTX eq/kg)</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>224</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>351</v>
+        <v>223</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="K52" s="4"/>
       <c r="M52" s="4" t="s">
         <v>179</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P52" s="25"/>
+        <v>243</v>
+      </c>
+      <c r="P52" s="21"/>
       <c r="Q52" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Z52" t="s">
         <v>48</v>
       </c>
-      <c r="AC52" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD52" s="10" t="s">
-        <v>298</v>
+      <c r="AC52" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD52" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="AE52" t="s">
         <v>48</v>
       </c>
       <c r="AF52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG52" t="str">
         <f t="shared" si="1"/>
         <v>Ana_a (mg/kg)</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>225</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>351</v>
+        <v>224</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>179</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="P53" s="25"/>
+        <v>243</v>
+      </c>
+      <c r="P53" s="21"/>
       <c r="Q53" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Z53" t="s">
         <v>48</v>
       </c>
-      <c r="AC53" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD53" s="10" t="s">
-        <v>299</v>
+      <c r="AC53" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD53" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="AE53" t="s">
         <v>48</v>
       </c>
       <c r="AF53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG53" t="str">
         <f t="shared" si="1"/>
         <v>h_Ana (mg/kg)</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>247</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>351</v>
+        <v>246</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>179</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O54" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="T54" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="P54" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="R54" s="4" t="s">
+      <c r="X54" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="S54" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="T54" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="X54" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="Y54" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Z54" t="s">
         <v>48</v>
       </c>
-      <c r="AA54" s="24" t="s">
-        <v>245</v>
+      <c r="AA54" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="AB54" s="5">
         <v>45698</v>
       </c>
-      <c r="AC54" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD54" s="7" t="s">
+      <c r="AC54" s="12" t="s">
         <v>246</v>
+      </c>
+      <c r="AD54" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="AE54" t="s">
         <v>48</v>
       </c>
       <c r="AF54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG54" t="str">
         <f t="shared" si="1"/>
         <v>CYN (mg/kg)</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>351</v>
+        <v>237</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M55" t="s">
         <v>179</v>
       </c>
       <c r="N55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O55" t="s">
-        <v>252</v>
-      </c>
-      <c r="P55" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P55" s="21"/>
       <c r="Q55" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z55" t="s">
         <v>48</v>
       </c>
-      <c r="AA55" s="24" t="s">
-        <v>264</v>
+      <c r="AA55" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="AB55" s="5">
         <v>45698</v>
       </c>
-      <c r="AC55" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AD55" s="10" t="s">
-        <v>260</v>
+      <c r="AC55" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD55" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="AE55" t="s">
         <v>48</v>
       </c>
       <c r="AF55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG55" t="str">
         <f t="shared" si="1"/>
         <v>MC_HilR (mg/kg)</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>242</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>351</v>
+        <v>241</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M56" t="s">
         <v>179</v>
       </c>
       <c r="N56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O56" t="s">
-        <v>252</v>
-      </c>
-      <c r="P56" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P56" s="21"/>
       <c r="Q56" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z56" t="s">
         <v>48</v>
       </c>
-      <c r="AC56" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD56" s="10" t="s">
-        <v>296</v>
+      <c r="AC56" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD56" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="AE56" t="s">
         <v>48</v>
       </c>
       <c r="AF56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG56" t="str">
         <f t="shared" si="1"/>
         <v>MC_HphR_DAsp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>226</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>351</v>
+        <v>225</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M57" t="s">
         <v>179</v>
       </c>
       <c r="N57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O57" t="s">
-        <v>252</v>
-      </c>
-      <c r="P57" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P57" s="21"/>
       <c r="Q57" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z57" t="s">
         <v>48</v>
       </c>
-      <c r="AA57" s="24" t="s">
-        <v>318</v>
+      <c r="AA57" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="AB57" s="5">
         <v>45700</v>
       </c>
-      <c r="AC57" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD57" s="10" t="s">
-        <v>300</v>
+      <c r="AC57" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD57" s="12" t="s">
+        <v>299</v>
       </c>
       <c r="AE57" t="s">
         <v>48</v>
       </c>
       <c r="AF57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG57" t="str">
         <f t="shared" si="1"/>
         <v>MC_HTyR (mg/kg)</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>243</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>351</v>
+        <v>242</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M58" t="s">
         <v>179</v>
       </c>
       <c r="N58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O58" t="s">
-        <v>252</v>
-      </c>
-      <c r="P58" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P58" s="21"/>
       <c r="Q58" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z58" t="s">
         <v>48</v>
       </c>
-      <c r="AC58" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD58" s="10" t="s">
-        <v>297</v>
+      <c r="AC58" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD58" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="AE58" t="s">
         <v>48</v>
       </c>
       <c r="AF58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG58" t="str">
         <f t="shared" si="1"/>
         <v>MC_HtyR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>233</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>351</v>
+        <v>232</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M59" t="s">
         <v>179</v>
       </c>
       <c r="N59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O59" t="s">
-        <v>252</v>
-      </c>
-      <c r="P59" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P59" s="21"/>
       <c r="Q59" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z59" t="s">
         <v>48</v>
       </c>
-      <c r="AA59" s="24" t="s">
-        <v>253</v>
+      <c r="AA59" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="AB59" s="5">
         <v>45698</v>
       </c>
-      <c r="AC59" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD59" s="10" t="s">
-        <v>254</v>
+      <c r="AC59" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD59" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="AE59" t="s">
         <v>48</v>
       </c>
       <c r="AF59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="1"/>
         <v>MC_LA (mg/kg)</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>234</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>351</v>
+        <v>233</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M60" t="s">
         <v>179</v>
       </c>
       <c r="N60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O60" t="s">
-        <v>252</v>
-      </c>
-      <c r="P60" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P60" s="21"/>
       <c r="Q60" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z60" t="s">
         <v>48</v>
       </c>
-      <c r="AA60" s="24" t="s">
-        <v>255</v>
+      <c r="AA60" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="AB60" s="5">
         <v>45698</v>
       </c>
-      <c r="AC60" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD60" s="10" t="s">
-        <v>256</v>
+      <c r="AC60" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD60" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="AE60" t="s">
         <v>48</v>
       </c>
       <c r="AF60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG60" t="str">
         <f t="shared" si="1"/>
         <v>MC_LF (mg/kg)</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>351</v>
+        <v>230</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M61" t="s">
         <v>179</v>
       </c>
       <c r="N61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O61" t="s">
-        <v>252</v>
-      </c>
-      <c r="P61" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P61" s="21"/>
       <c r="Q61" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z61" t="s">
         <v>48</v>
       </c>
-      <c r="AA61" s="24" t="s">
-        <v>250</v>
+      <c r="AA61" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="AB61" s="5">
         <v>45698</v>
       </c>
-      <c r="AC61" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD61" s="10" t="s">
-        <v>249</v>
+      <c r="AC61" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD61" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="AE61" t="s">
         <v>48</v>
       </c>
       <c r="AF61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG61" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR (mg/kg)</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>351</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -6363,65 +6376,65 @@
         <v>179</v>
       </c>
       <c r="N62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O62" t="s">
-        <v>252</v>
-      </c>
-      <c r="P62" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P62" s="21"/>
       <c r="Q62" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T62" t="s">
+        <v>311</v>
+      </c>
+      <c r="X62" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y62" t="s">
         <v>312</v>
-      </c>
-      <c r="X62" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>313</v>
       </c>
       <c r="Z62" t="s">
         <v>48</v>
       </c>
-      <c r="AA62" s="24" t="s">
-        <v>314</v>
+      <c r="AA62" s="20" t="s">
+        <v>313</v>
       </c>
       <c r="AB62" s="5">
         <v>45700</v>
       </c>
       <c r="AC62" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD62" s="10" t="s">
-        <v>301</v>
+        <v>305</v>
+      </c>
+      <c r="AD62" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="AE62" t="s">
         <v>48</v>
       </c>
       <c r="AF62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG62" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>351</v>
+        <v>239</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -6435,260 +6448,260 @@
         <v>179</v>
       </c>
       <c r="N63" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O63" t="s">
-        <v>252</v>
-      </c>
-      <c r="P63" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P63" s="21"/>
       <c r="Q63" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="X63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Z63" t="s">
         <v>48</v>
       </c>
       <c r="AA63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB63" s="5">
         <v>45700</v>
       </c>
       <c r="AC63" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD63" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AE63" t="s">
         <v>48</v>
       </c>
       <c r="AF63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG63" t="str">
         <f t="shared" si="1"/>
         <v>MC_LR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>235</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>351</v>
+        <v>234</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M64" t="s">
         <v>179</v>
       </c>
       <c r="N64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O64" t="s">
-        <v>252</v>
-      </c>
-      <c r="P64" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P64" s="21"/>
       <c r="Q64" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z64" t="s">
         <v>48</v>
       </c>
       <c r="AA64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB64" s="5">
         <v>45698</v>
       </c>
-      <c r="AC64" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD64" s="10" t="s">
-        <v>257</v>
+      <c r="AC64" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD64" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="AE64" t="s">
         <v>48</v>
       </c>
       <c r="AF64" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG64" t="str">
         <f t="shared" si="1"/>
         <v>MC_LW (mg/kg)</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>236</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>351</v>
+        <v>235</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M65" t="s">
         <v>179</v>
       </c>
       <c r="N65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O65" t="s">
-        <v>252</v>
-      </c>
-      <c r="P65" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P65" s="21"/>
       <c r="Q65" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z65" t="s">
         <v>48</v>
       </c>
       <c r="AA65" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB65" s="5">
         <v>45698</v>
       </c>
-      <c r="AC65" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD65" s="10" t="s">
-        <v>258</v>
+      <c r="AC65" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD65" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="AE65" t="s">
         <v>48</v>
       </c>
       <c r="AF65" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG65" t="str">
         <f t="shared" si="1"/>
         <v>MC_LY (mg/kg)</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>230</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>351</v>
+        <v>229</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M66" t="s">
         <v>179</v>
       </c>
       <c r="N66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O66" t="s">
-        <v>252</v>
-      </c>
-      <c r="P66" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P66" s="21"/>
       <c r="Q66" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AA66" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB66" s="5">
         <v>45698</v>
       </c>
-      <c r="AC66" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD66" s="13" t="s">
-        <v>266</v>
+      <c r="AC66" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD66" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="AE66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AF66" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG66" t="str">
         <f t="shared" ref="AG66:AG72" si="2">CONCATENATE(AC66, " (", AE66, ")")</f>
         <v>MC_RR (mg/kg)</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>351</v>
+        <v>238</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -6702,50 +6715,50 @@
         <v>179</v>
       </c>
       <c r="N67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O67" t="s">
-        <v>252</v>
-      </c>
-      <c r="P67" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P67" s="21"/>
       <c r="Q67" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z67" t="s">
         <v>48</v>
       </c>
-      <c r="AC67" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD67" s="11" t="s">
-        <v>293</v>
+      <c r="AC67" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD67" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="AE67" t="s">
         <v>48</v>
       </c>
       <c r="AF67" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG67" t="str">
         <f t="shared" si="2"/>
         <v>MC_RR_D_Asp3_E_Dhb7 (mg/kg)</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>351</v>
+        <v>227</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -6759,306 +6772,306 @@
         <v>179</v>
       </c>
       <c r="N68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O68" t="s">
-        <v>252</v>
-      </c>
-      <c r="P68" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P68" s="21"/>
       <c r="Q68" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Z68" t="s">
         <v>48</v>
       </c>
       <c r="AA68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB68" s="5">
         <v>45700</v>
       </c>
-      <c r="AC68" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD68" s="10" t="s">
-        <v>302</v>
+      <c r="AC68" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD68" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="AE68" t="s">
         <v>48</v>
       </c>
       <c r="AF68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG68" t="str">
         <f t="shared" si="2"/>
         <v>MC_RR_D_Asp3 (mg/kg)</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>241</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>351</v>
+        <v>240</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M69" t="s">
         <v>179</v>
       </c>
       <c r="N69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O69" t="s">
-        <v>252</v>
-      </c>
-      <c r="P69" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P69" s="21"/>
       <c r="Q69" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R69" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z69" t="s">
         <v>48</v>
       </c>
       <c r="AA69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AB69" s="5">
         <v>45700</v>
       </c>
-      <c r="AC69" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD69" s="10" t="s">
-        <v>295</v>
+      <c r="AC69" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD69" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="AE69" t="s">
         <v>48</v>
       </c>
       <c r="AF69" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG69" t="str">
         <f t="shared" si="2"/>
         <v>MC_RR_Dha7 (mg/kg)</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>237</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>351</v>
+        <v>236</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M70" t="s">
         <v>179</v>
       </c>
       <c r="N70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O70" t="s">
-        <v>252</v>
-      </c>
-      <c r="P70" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P70" s="21"/>
       <c r="Q70" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z70" t="s">
         <v>48</v>
       </c>
       <c r="AA70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB70" s="5">
         <v>45698</v>
       </c>
-      <c r="AC70" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD70" s="10" t="s">
-        <v>259</v>
+      <c r="AC70" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD70" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="AE70" t="s">
         <v>48</v>
       </c>
       <c r="AF70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="2"/>
         <v>MC_WR (mg/kg)</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>232</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>351</v>
+        <v>231</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M71" t="s">
         <v>179</v>
       </c>
       <c r="N71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O71" t="s">
-        <v>252</v>
-      </c>
-      <c r="P71" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="P71" s="21"/>
       <c r="Q71" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Z71" t="s">
         <v>48</v>
       </c>
       <c r="AA71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB71" s="5">
         <v>45698</v>
       </c>
-      <c r="AC71" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD71" s="10" t="s">
-        <v>267</v>
+      <c r="AC71" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD71" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="AE71" t="s">
         <v>48</v>
       </c>
       <c r="AF71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG71" t="str">
         <f t="shared" si="2"/>
         <v>MC_YR (mg/kg)</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>351</v>
+        <v>228</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>350</v>
       </c>
       <c r="M72" t="s">
         <v>179</v>
       </c>
       <c r="N72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O72" t="s">
-        <v>270</v>
-      </c>
-      <c r="P72" s="25"/>
+        <v>269</v>
+      </c>
+      <c r="P72" s="21"/>
       <c r="Q72" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R72" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T72" t="s">
+        <v>307</v>
+      </c>
+      <c r="X72" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y72" t="s">
         <v>308</v>
-      </c>
-      <c r="X72" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>309</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AA72" s="24" t="s">
-        <v>310</v>
+      <c r="AA72" s="20" t="s">
+        <v>309</v>
       </c>
       <c r="AB72" s="5">
         <v>45700</v>
       </c>
-      <c r="AC72" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD72" s="10" t="s">
-        <v>309</v>
+      <c r="AC72" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD72" s="12" t="s">
+        <v>308</v>
       </c>
       <c r="AE72" t="s">
         <v>48</v>
       </c>
       <c r="AF72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="2"/>
@@ -7066,7 +7079,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AC51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC51">
     <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA9B0D9-2135-42B8-9404-3D15A7AEE2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB768C0-8FB0-412B-8668-7A7A609694B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="397">
   <si>
     <t>Enhet</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Parameter</t>
-  </si>
-  <si>
-    <t>DA_screening_positive</t>
   </si>
   <si>
     <t>-</t>
@@ -1314,7 +1311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,6 +1327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1385,6 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1702,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
   <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="113" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1743,103 +1747,103 @@
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>344</v>
-      </c>
       <c r="E1" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>372</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -1848,7 +1852,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1857,35 +1861,35 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -1893,21 +1897,21 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG2" t="str">
         <f t="shared" ref="AG2:AG33" si="0">CONCATENATE(AC2, " (", AE2, ")")</f>
@@ -1919,13 +1923,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1933,35 +1937,35 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U3" s="4">
         <v>30</v>
@@ -1969,31 +1973,31 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="AB3" s="5">
         <v>45691</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG3" t="str">
         <f t="shared" si="0"/>
@@ -2005,13 +2009,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -2019,37 +2023,37 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="T4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U4" s="4">
         <v>30</v>
@@ -2057,31 +2061,31 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB4" s="5">
         <v>45691</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="0"/>
@@ -2093,13 +2097,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -2107,37 +2111,37 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="T5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U5" s="4">
         <v>30</v>
@@ -2145,31 +2149,31 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Y5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="AA5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB5" s="5">
         <v>45691</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="0"/>
@@ -2181,13 +2185,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -2195,35 +2199,35 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="T6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U6" s="4">
         <v>30</v>
@@ -2235,23 +2239,23 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="5">
         <v>45691</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD6" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="0"/>
@@ -2263,13 +2267,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -2277,25 +2281,25 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L7" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>47</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>47</v>
@@ -2304,7 +2308,7 @@
         <v>47</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>46</v>
@@ -2343,7 +2347,7 @@
         <v>48</v>
       </c>
       <c r="AF7" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2352,16 +2356,16 @@
     </row>
     <row r="8" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2369,16 +2373,16 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L8" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -2400,16 +2404,16 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AE8" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF8" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2421,13 +2425,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>346</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>347</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2435,19 +2439,19 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L9" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>47</v>
@@ -2460,19 +2464,15 @@
         <v>47</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>50</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="T9" s="24"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="Z9" s="24"/>
       <c r="AA9" s="16" t="s">
         <v>44</v>
       </c>
@@ -2480,16 +2480,16 @@
         <v>45691</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AD9" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="AF9" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2501,13 +2501,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -2515,35 +2515,35 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L10" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U10" s="4">
         <v>30</v>
@@ -2555,22 +2555,22 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="5">
         <v>45691</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="0"/>
@@ -2582,13 +2582,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2596,37 +2596,37 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="U11" s="4">
         <v>30</v>
@@ -2634,31 +2634,31 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA11" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA11" s="20" t="s">
-        <v>100</v>
       </c>
       <c r="AB11" s="5">
         <v>45691</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="0"/>
@@ -2670,13 +2670,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2684,35 +2684,35 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L12" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U12" s="4">
         <v>30</v>
@@ -2720,31 +2720,31 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Z12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA12" s="20" t="s">
-        <v>106</v>
       </c>
       <c r="AB12" s="5">
         <v>45691</v>
       </c>
       <c r="AC12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD12" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AD12" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="AE12" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" si="0"/>
@@ -2756,13 +2756,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2770,37 +2770,37 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U13" s="4">
         <v>30</v>
@@ -2808,31 +2808,31 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="20" t="s">
         <v>102</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA13" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="AB13" s="5">
         <v>45691</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="0"/>
@@ -2844,13 +2844,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2858,35 +2858,35 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L14" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U14" s="4">
         <v>30</v>
@@ -2896,22 +2896,22 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="5">
         <v>45691</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG14" t="str">
         <f t="shared" si="0"/>
@@ -2923,13 +2923,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -2937,35 +2937,35 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U15" s="4">
         <v>30</v>
@@ -2975,23 +2975,23 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA15" s="4"/>
       <c r="AB15" s="5">
         <v>45691</v>
       </c>
       <c r="AC15" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD15" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG15" t="str">
         <f t="shared" si="0"/>
@@ -3003,13 +3003,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -3017,37 +3017,37 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="U16" s="4">
         <v>30</v>
@@ -3057,31 +3057,31 @@
         <v>1</v>
       </c>
       <c r="X16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA16" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA16" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="AB16" s="5">
         <v>45691</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG16" t="str">
         <f t="shared" si="0"/>
@@ -3093,13 +3093,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -3107,37 +3107,37 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="U17" s="4">
         <v>30</v>
@@ -3145,31 +3145,31 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA17" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB17" s="5">
         <v>45691</v>
       </c>
       <c r="AC17" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD17" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG17" t="str">
         <f t="shared" si="0"/>
@@ -3181,13 +3181,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -3195,37 +3195,37 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L18" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="U18" s="4">
         <v>30</v>
@@ -3233,31 +3233,31 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="Y18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="AA18" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB18" s="5">
         <v>45691</v>
       </c>
       <c r="AC18" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG18" t="str">
         <f t="shared" si="0"/>
@@ -3269,13 +3269,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -3283,35 +3283,35 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L19" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U19" s="4">
         <v>30</v>
@@ -3321,23 +3321,23 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA19" s="4"/>
       <c r="AB19" s="5">
         <v>45691</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG19" t="str">
         <f t="shared" si="0"/>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -3357,35 +3357,35 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L20" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S20" s="4" t="s">
+      <c r="T20" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
@@ -3393,21 +3393,21 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA20" s="4"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="str">
         <f t="shared" si="0"/>
@@ -3419,13 +3419,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -3433,35 +3433,35 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="T21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U21" s="4">
         <v>40</v>
@@ -3469,31 +3469,31 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA21" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB21" s="5">
         <v>45691</v>
       </c>
       <c r="AC21" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AD21" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG21" t="str">
         <f t="shared" si="0"/>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="22" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -3513,25 +3513,25 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L22" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
@@ -3543,16 +3543,16 @@
       <c r="Z22" s="12"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AD22" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AE22" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF22" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG22" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3564,13 +3564,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -3578,65 +3578,65 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="T23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB23" s="5">
         <v>45691</v>
       </c>
       <c r="AC23" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AD23" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG23" t="str">
         <f t="shared" si="0"/>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3656,41 +3656,41 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC24" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="str">
         <f t="shared" si="0"/>
@@ -3702,13 +3702,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -3716,35 +3716,35 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L25" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P25" s="23"/>
       <c r="Q25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="T25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U25" s="4">
         <v>125</v>
@@ -3752,31 +3752,31 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA25" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AB25" s="5">
         <v>45691</v>
       </c>
       <c r="AC25" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG25" t="str">
         <f t="shared" si="0"/>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -3796,41 +3796,41 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L26" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC26" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG26" t="str">
         <f t="shared" si="0"/>
@@ -3842,13 +3842,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3856,37 +3856,37 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L27" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P27" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="T27" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U27" s="4">
         <v>160</v>
@@ -3894,31 +3894,31 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="Y27" s="4" t="s">
+      <c r="Z27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA27" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="Z27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA27" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="AB27" s="5">
         <v>45691</v>
       </c>
       <c r="AC27" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD27" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="AD27" s="12" t="s">
-        <v>144</v>
-      </c>
       <c r="AE27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG27" t="str">
         <f t="shared" si="0"/>
@@ -3938,47 +3938,47 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L28" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S28" s="12"/>
       <c r="T28" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="Z28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC28" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD28" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AE28" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF28" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG28" s="14" t="str">
         <f t="shared" si="0"/>
@@ -3990,13 +3990,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D29" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -4004,34 +4004,34 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L29" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S29" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="P29" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>30</v>
@@ -4045,13 +4045,13 @@
         <v>30</v>
       </c>
       <c r="Y29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA29" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="Z29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA29" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="AB29" s="5">
         <v>45691</v>
@@ -4060,13 +4060,13 @@
         <v>30</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG29" t="str">
         <f t="shared" si="0"/>
@@ -4086,29 +4086,29 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L30" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -4116,21 +4116,21 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AD30" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG30" t="str">
         <f t="shared" si="0"/>
@@ -4142,13 +4142,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D31" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4156,32 +4156,32 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L31" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S31" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>33</v>
@@ -4192,31 +4192,31 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA31" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA31" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="AB31" s="5">
         <v>45691</v>
       </c>
       <c r="AC31" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD31" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG31" t="str">
         <f t="shared" si="0"/>
@@ -4236,47 +4236,47 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L32" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="Z32" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC32" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AD32" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG32" t="str">
         <f t="shared" si="0"/>
@@ -4288,13 +4288,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -4302,32 +4302,32 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L33" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S33" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>34</v>
@@ -4338,31 +4338,31 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA33" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA33" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="AB33" s="5">
         <v>45691</v>
       </c>
       <c r="AC33" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD33" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG33" t="str">
         <f t="shared" si="0"/>
@@ -4382,47 +4382,47 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L34" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="Z34" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC34" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AD34" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG34" t="str">
         <f t="shared" ref="AG34:AG65" si="1">CONCATENATE(AC34, " (", AE34, ")")</f>
@@ -4434,13 +4434,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D35" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -4448,34 +4448,34 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L35" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S35" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="P35" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>36</v>
@@ -4489,13 +4489,13 @@
         <v>36</v>
       </c>
       <c r="Y35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA35" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB35" s="5">
         <v>45691</v>
@@ -4504,13 +4504,13 @@
         <v>36</v>
       </c>
       <c r="AD35" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF35" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG35" t="str">
         <f t="shared" si="1"/>
@@ -4530,47 +4530,47 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L36" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="Z36" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC36" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD36" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF36" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="str">
         <f t="shared" si="1"/>
@@ -4582,13 +4582,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -4596,34 +4596,34 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L37" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P37" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S37" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="P37" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>39</v>
@@ -4635,13 +4635,13 @@
         <v>39</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA37" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB37" s="5">
         <v>45691</v>
@@ -4650,13 +4650,13 @@
         <v>39</v>
       </c>
       <c r="AD37" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF37" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="str">
         <f t="shared" si="1"/>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="38" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -4676,25 +4676,25 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L38" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R38" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
@@ -4707,16 +4707,16 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD38" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="AD38" s="12" t="s">
-        <v>353</v>
-      </c>
       <c r="AE38" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF38" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG38" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4728,13 +4728,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D39" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -4742,37 +4742,37 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L39" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P39" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="T39" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U39" s="4">
         <v>167</v>
@@ -4780,31 +4780,31 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Y39" s="4" t="s">
+      <c r="Z39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA39" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA39" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="AB39" s="5">
         <v>45691</v>
       </c>
       <c r="AC39" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD39" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AD39" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="AE39" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG39" t="str">
         <f t="shared" si="1"/>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="40" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -4824,25 +4824,25 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L40" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
@@ -4855,16 +4855,16 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD40" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="AD40" s="12" t="s">
-        <v>358</v>
-      </c>
       <c r="AE40" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF40" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG40" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4876,13 +4876,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>349</v>
-      </c>
       <c r="D41" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -4890,35 +4890,35 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L41" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S41" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="R41" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S41" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="T41" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U41" s="12">
         <v>380</v>
@@ -4930,21 +4930,21 @@
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA41" s="12"/>
       <c r="AB41" s="15"/>
       <c r="AC41" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD41" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AE41" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF41" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG41" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4964,41 +4964,41 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L42" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P42" s="21"/>
       <c r="Q42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC42" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD42" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE42" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AD42" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE42" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="AF42" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG42" t="str">
         <f t="shared" si="1"/>
@@ -5010,13 +5010,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>349</v>
-      </c>
       <c r="D43" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -5024,34 +5024,34 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L43" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P43" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S43" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="P43" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>42</v>
@@ -5067,13 +5067,13 @@
         <v>42</v>
       </c>
       <c r="Y43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA43" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB43" s="5">
         <v>45691</v>
@@ -5082,13 +5082,13 @@
         <v>42</v>
       </c>
       <c r="AD43" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF43" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="str">
         <f t="shared" si="1"/>
@@ -5100,13 +5100,13 @@
         <v>22</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -5114,35 +5114,35 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L44" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T44" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -5150,23 +5150,23 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA44" s="4"/>
       <c r="AB44" s="5">
         <v>45691</v>
       </c>
       <c r="AC44" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD44" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AE44" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF44" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="str">
         <f t="shared" si="1"/>
@@ -5178,13 +5178,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -5192,35 +5192,35 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L45" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U45" s="4">
         <v>0.1</v>
@@ -5228,31 +5228,31 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y45" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA45" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB45" s="5">
         <v>45691</v>
       </c>
       <c r="AC45" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AD45" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AE45" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF45" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG45" t="str">
         <f t="shared" si="1"/>
@@ -5264,13 +5264,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -5278,37 +5278,37 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L46" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U46" s="4">
         <v>0.1</v>
@@ -5316,31 +5316,31 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA46" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="Y46" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA46" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="AB46" s="5">
         <v>45691</v>
       </c>
       <c r="AC46" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AD46" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE46" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF46" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="str">
         <f t="shared" si="1"/>
@@ -5352,13 +5352,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -5366,37 +5366,37 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L47" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P47" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U47" s="4">
         <v>0.1</v>
@@ -5404,31 +5404,31 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y47" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA47" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB47" s="5">
         <v>45691</v>
       </c>
       <c r="AC47" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AD47" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="str">
         <f t="shared" si="1"/>
@@ -5440,13 +5440,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -5454,37 +5454,37 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L48" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P48" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U48" s="4">
         <v>0.1</v>
@@ -5492,31 +5492,31 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Y48" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="Z48" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA48" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB48" s="5">
         <v>45691</v>
       </c>
       <c r="AC48" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD48" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AD48" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="AE48" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF48" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG48" t="str">
         <f t="shared" si="1"/>
@@ -5528,13 +5528,13 @@
         <v>16</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -5542,37 +5542,37 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L49" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P49" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U49" s="4">
         <v>0.1</v>
@@ -5580,31 +5580,31 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA49" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="Y49" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA49" s="20" t="s">
-        <v>87</v>
       </c>
       <c r="AB49" s="5">
         <v>45691</v>
       </c>
       <c r="AC49" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD49" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF49" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG49" t="str">
         <f t="shared" si="1"/>
@@ -5616,13 +5616,13 @@
         <v>23</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -5630,37 +5630,37 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L50" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T50" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="P50" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="T50" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="U50" s="4">
         <v>0.1</v>
@@ -5670,31 +5670,31 @@
         <v>1</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y50" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA50" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="AA50" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="AB50" s="5">
         <v>45691</v>
       </c>
       <c r="AC50" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AD50" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF50" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="str">
         <f t="shared" si="1"/>
@@ -5706,13 +5706,13 @@
         <v>24</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -5720,35 +5720,35 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="L51" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U51" s="4">
         <v>0.1</v>
@@ -5760,23 +5760,23 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA51" s="4"/>
       <c r="AB51" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC51" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AD51" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE51" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG51" t="str">
         <f t="shared" si="1"/>
@@ -5785,42 +5785,42 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P52" s="21"/>
       <c r="Q52" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z52" t="s">
         <v>48</v>
       </c>
       <c r="AC52" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AD52" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE52" t="s">
         <v>48</v>
       </c>
       <c r="AF52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG52" t="str">
         <f t="shared" si="1"/>
@@ -5829,41 +5829,41 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P53" s="21"/>
       <c r="Q53" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z53" t="s">
         <v>48</v>
       </c>
       <c r="AC53" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD53" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AE53" t="s">
         <v>48</v>
       </c>
       <c r="AF53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG53" t="str">
         <f t="shared" si="1"/>
@@ -5872,64 +5872,64 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="S54" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O54" s="4" t="s">
+      <c r="T54" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="P54" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="R54" s="4" t="s">
+      <c r="X54" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="S54" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="T54" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="X54" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="Y54" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z54" t="s">
         <v>48</v>
       </c>
       <c r="AA54" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB54" s="5">
         <v>45698</v>
       </c>
       <c r="AC54" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AD54" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AE54" t="s">
         <v>48</v>
       </c>
       <c r="AF54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG54" t="str">
         <f t="shared" si="1"/>
@@ -5938,62 +5938,62 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P55" s="21"/>
       <c r="Q55" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z55" t="s">
         <v>48</v>
       </c>
       <c r="AA55" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB55" s="5">
         <v>45698</v>
       </c>
       <c r="AC55" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD55" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE55" t="s">
         <v>48</v>
       </c>
       <c r="AF55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG55" t="str">
         <f t="shared" si="1"/>
@@ -6002,47 +6002,47 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P56" s="21"/>
       <c r="Q56" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z56" t="s">
         <v>48</v>
       </c>
       <c r="AC56" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AD56" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE56" t="s">
         <v>48</v>
       </c>
       <c r="AF56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG56" t="str">
         <f t="shared" si="1"/>
@@ -6051,62 +6051,62 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P57" s="21"/>
       <c r="Q57" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z57" t="s">
         <v>48</v>
       </c>
       <c r="AA57" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB57" s="5">
         <v>45700</v>
       </c>
       <c r="AC57" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD57" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE57" t="s">
         <v>48</v>
       </c>
       <c r="AF57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG57" t="str">
         <f t="shared" si="1"/>
@@ -6115,47 +6115,47 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="M58" t="s">
+        <v>178</v>
+      </c>
+      <c r="N58" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="M58" t="s">
-        <v>179</v>
-      </c>
-      <c r="N58" t="s">
-        <v>243</v>
-      </c>
       <c r="O58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P58" s="21"/>
       <c r="Q58" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z58" t="s">
         <v>48</v>
       </c>
       <c r="AC58" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AD58" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE58" t="s">
         <v>48</v>
       </c>
       <c r="AF58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG58" t="str">
         <f t="shared" si="1"/>
@@ -6164,62 +6164,62 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P59" s="21"/>
       <c r="Q59" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z59" t="s">
         <v>48</v>
       </c>
       <c r="AA59" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB59" s="5">
         <v>45698</v>
       </c>
       <c r="AC59" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD59" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AE59" t="s">
         <v>48</v>
       </c>
       <c r="AF59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="1"/>
@@ -6228,62 +6228,62 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P60" s="21"/>
       <c r="Q60" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z60" t="s">
         <v>48</v>
       </c>
       <c r="AA60" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB60" s="5">
         <v>45698</v>
       </c>
       <c r="AC60" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD60" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE60" t="s">
         <v>48</v>
       </c>
       <c r="AF60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG60" t="str">
         <f t="shared" si="1"/>
@@ -6292,62 +6292,62 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P61" s="21"/>
       <c r="Q61" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z61" t="s">
         <v>48</v>
       </c>
       <c r="AA61" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB61" s="5">
         <v>45698</v>
       </c>
       <c r="AC61" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD61" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AE61" t="s">
         <v>48</v>
       </c>
       <c r="AF61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG61" t="str">
         <f t="shared" si="1"/>
@@ -6356,13 +6356,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -6373,53 +6373,53 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="M62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P62" s="21"/>
       <c r="Q62" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T62" t="s">
+        <v>310</v>
+      </c>
+      <c r="X62" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y62" t="s">
         <v>311</v>
-      </c>
-      <c r="X62" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>312</v>
       </c>
       <c r="Z62" t="s">
         <v>48</v>
       </c>
       <c r="AA62" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB62" s="5">
         <v>45700</v>
       </c>
       <c r="AC62" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD62" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AE62" t="s">
         <v>48</v>
       </c>
       <c r="AF62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG62" t="str">
         <f t="shared" si="1"/>
@@ -6428,13 +6428,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -6445,53 +6445,53 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="M63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P63" s="21"/>
       <c r="Q63" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z63" t="s">
         <v>48</v>
       </c>
       <c r="AA63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB63" s="5">
         <v>45700</v>
       </c>
       <c r="AC63" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD63" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE63" t="s">
         <v>48</v>
       </c>
       <c r="AF63" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG63" t="str">
         <f t="shared" si="1"/>
@@ -6500,62 +6500,62 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P64" s="21"/>
       <c r="Q64" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z64" t="s">
         <v>48</v>
       </c>
       <c r="AA64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB64" s="5">
         <v>45698</v>
       </c>
       <c r="AC64" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD64" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE64" t="s">
         <v>48</v>
       </c>
       <c r="AF64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG64" t="str">
         <f t="shared" si="1"/>
@@ -6564,62 +6564,62 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P65" s="21"/>
       <c r="Q65" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z65" t="s">
         <v>48</v>
       </c>
       <c r="AA65" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB65" s="5">
         <v>45698</v>
       </c>
       <c r="AC65" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AD65" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AE65" t="s">
         <v>48</v>
       </c>
       <c r="AF65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG65" t="str">
         <f t="shared" si="1"/>
@@ -6628,65 +6628,65 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P66" s="21"/>
       <c r="Q66" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AA66" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB66" s="5">
         <v>45698</v>
       </c>
       <c r="AC66" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD66" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AE66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AF66" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG66" t="str">
         <f t="shared" ref="AG66:AG72" si="2">CONCATENATE(AC66, " (", AE66, ")")</f>
@@ -6695,13 +6695,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -6712,38 +6712,38 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c r="M67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P67" s="21"/>
       <c r="Q67" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z67" t="s">
         <v>48</v>
       </c>
       <c r="AC67" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AD67" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE67" t="s">
         <v>48</v>
       </c>
       <c r="AF67" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG67" t="str">
         <f t="shared" si="2"/>
@@ -6752,13 +6752,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -6769,53 +6769,53 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c r="M68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P68" s="21"/>
       <c r="Q68" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Z68" t="s">
         <v>48</v>
       </c>
       <c r="AA68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB68" s="5">
         <v>45700</v>
       </c>
       <c r="AC68" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD68" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AE68" t="s">
         <v>48</v>
       </c>
       <c r="AF68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG68" t="str">
         <f t="shared" si="2"/>
@@ -6824,62 +6824,62 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P69" s="21"/>
       <c r="Q69" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Z69" t="s">
         <v>48</v>
       </c>
       <c r="AA69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB69" s="5">
         <v>45700</v>
       </c>
       <c r="AC69" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD69" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AE69" t="s">
         <v>48</v>
       </c>
       <c r="AF69" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG69" t="str">
         <f t="shared" si="2"/>
@@ -6888,62 +6888,62 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P70" s="21"/>
       <c r="Q70" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z70" t="s">
         <v>48</v>
       </c>
       <c r="AA70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB70" s="5">
         <v>45698</v>
       </c>
       <c r="AC70" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD70" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE70" t="s">
         <v>48</v>
       </c>
       <c r="AF70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="2"/>
@@ -6952,62 +6952,62 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P71" s="21"/>
       <c r="Q71" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z71" t="s">
         <v>48</v>
       </c>
       <c r="AA71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB71" s="5">
         <v>45698</v>
       </c>
       <c r="AC71" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD71" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AE71" t="s">
         <v>48</v>
       </c>
       <c r="AF71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG71" t="str">
         <f t="shared" si="2"/>
@@ -7016,62 +7016,62 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P72" s="21"/>
       <c r="Q72" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R72" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T72" t="s">
+        <v>306</v>
+      </c>
+      <c r="X72" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y72" t="s">
         <v>307</v>
-      </c>
-      <c r="X72" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>308</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AA72" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB72" s="5">
         <v>45700</v>
       </c>
       <c r="AC72" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AD72" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AE72" t="s">
         <v>48</v>
       </c>
       <c r="AF72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="2"/>

--- a/config/lista_toxiner.xlsx
+++ b/config/lista_toxiner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\SLV-Biotoxin-Validator-App\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB768C0-8FB0-412B-8668-7A7A609694B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F539842F-4F07-4E75-B985-A69121A2F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5EE10D2C-8E1B-4393-ADF2-C1365B6C7898}"/>
   </bookViews>
@@ -677,9 +677,6 @@
     <t>Gonyautoxin-1 and -4</t>
   </si>
   <si>
-    <t>Azaspiracid total</t>
-  </si>
-  <si>
     <t>DST total</t>
   </si>
   <si>
@@ -1233,6 +1230,9 @@
   </si>
   <si>
     <t>Escherichia coli in bivalve molluscs</t>
+  </si>
+  <si>
+    <t>AZA total</t>
   </si>
 </sst>
 </file>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}">
   <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD86" sqref="AD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1750,34 +1750,34 @@
         <v>84</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>343</v>
-      </c>
       <c r="E1" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>370</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>371</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>172</v>
@@ -1786,19 +1786,19 @@
         <v>176</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>87</v>
@@ -1810,13 +1810,13 @@
         <v>126</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>149</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>83</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>45</v>
@@ -1834,16 +1834,16 @@
         <v>184</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1861,10 +1861,10 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>174</v>
@@ -1905,7 +1905,7 @@
         <v>197</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>155</v>
@@ -1923,13 +1923,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1937,10 +1937,10 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>173</v>
@@ -1997,7 +1997,7 @@
         <v>179</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG3" t="str">
         <f t="shared" si="0"/>
@@ -2009,13 +2009,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -2023,10 +2023,10 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>173</v>
@@ -2041,7 +2041,7 @@
         <v>88</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>88</v>
@@ -2085,7 +2085,7 @@
         <v>179</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG4" t="str">
         <f t="shared" si="0"/>
@@ -2097,13 +2097,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -2111,10 +2111,10 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>173</v>
@@ -2129,7 +2129,7 @@
         <v>88</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>88</v>
@@ -2173,7 +2173,7 @@
         <v>179</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG5" t="str">
         <f t="shared" si="0"/>
@@ -2185,13 +2185,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -2199,10 +2199,10 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>173</v>
@@ -2249,13 +2249,13 @@
         <v>191</v>
       </c>
       <c r="AD6" s="12" t="s">
-        <v>211</v>
+        <v>396</v>
       </c>
       <c r="AE6" s="4" t="s">
         <v>179</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="0"/>
@@ -2267,13 +2267,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -2281,10 +2281,10 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>171</v>
@@ -2299,7 +2299,7 @@
         <v>47</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>47</v>
@@ -2347,7 +2347,7 @@
         <v>48</v>
       </c>
       <c r="AF7" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2359,13 +2359,13 @@
         <v>167</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2373,10 +2373,10 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>171</v>
@@ -2407,7 +2407,7 @@
         <v>196</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AE8" s="12" t="s">
         <v>206</v>
@@ -2425,13 +2425,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2439,10 +2439,10 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>171</v>
@@ -2480,16 +2480,16 @@
         <v>45691</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AD9" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="AF9" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -2501,13 +2501,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -2515,10 +2515,10 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>173</v>
@@ -2564,13 +2564,13 @@
         <v>192</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE10" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG10" t="str">
         <f t="shared" si="0"/>
@@ -2582,13 +2582,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2596,10 +2596,10 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>173</v>
@@ -2614,7 +2614,7 @@
         <v>91</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>91</v>
@@ -2658,7 +2658,7 @@
         <v>181</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG11" t="str">
         <f t="shared" si="0"/>
@@ -2670,13 +2670,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2684,10 +2684,10 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>173</v>
@@ -2744,7 +2744,7 @@
         <v>181</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" si="0"/>
@@ -2756,13 +2756,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2770,10 +2770,10 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>173</v>
@@ -2788,7 +2788,7 @@
         <v>91</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>91</v>
@@ -2832,7 +2832,7 @@
         <v>181</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG13" t="str">
         <f t="shared" si="0"/>
@@ -2844,13 +2844,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -2858,10 +2858,10 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>173</v>
@@ -2905,13 +2905,13 @@
         <v>107</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE14" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG14" t="str">
         <f t="shared" si="0"/>
@@ -2923,13 +2923,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -2937,10 +2937,10 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>173</v>
@@ -2985,13 +2985,13 @@
         <v>106</v>
       </c>
       <c r="AD15" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE15" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG15" t="str">
         <f t="shared" si="0"/>
@@ -3003,13 +3003,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -3017,10 +3017,10 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>173</v>
@@ -3035,7 +3035,7 @@
         <v>91</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>91</v>
@@ -3081,7 +3081,7 @@
         <v>181</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG16" t="str">
         <f t="shared" si="0"/>
@@ -3093,13 +3093,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -3107,10 +3107,10 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>173</v>
@@ -3125,7 +3125,7 @@
         <v>110</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>110</v>
@@ -3169,7 +3169,7 @@
         <v>182</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG17" t="str">
         <f t="shared" si="0"/>
@@ -3181,13 +3181,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -3195,10 +3195,10 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>173</v>
@@ -3213,7 +3213,7 @@
         <v>110</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>110</v>
@@ -3257,7 +3257,7 @@
         <v>182</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG18" t="str">
         <f t="shared" si="0"/>
@@ -3269,13 +3269,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -3283,10 +3283,10 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>173</v>
@@ -3331,13 +3331,13 @@
         <v>203</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AE19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG19" t="str">
         <f t="shared" si="0"/>
@@ -3357,10 +3357,10 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>175</v>
@@ -3398,10 +3398,10 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AE20" s="4" t="s">
         <v>206</v>
@@ -3419,13 +3419,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -3433,10 +3433,10 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>175</v>
@@ -3484,7 +3484,7 @@
         <v>45691</v>
       </c>
       <c r="AC21" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AD21" s="12" t="s">
         <v>207</v>
@@ -3493,7 +3493,7 @@
         <v>180</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG21" t="str">
         <f t="shared" si="0"/>
@@ -3513,10 +3513,10 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>175</v>
@@ -3543,10 +3543,10 @@
       <c r="Z22" s="12"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD22" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE22" s="12" t="s">
         <v>206</v>
@@ -3564,13 +3564,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -3578,10 +3578,10 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>175</v>
@@ -3627,7 +3627,7 @@
         <v>45691</v>
       </c>
       <c r="AC23" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AD23" s="12" t="s">
         <v>208</v>
@@ -3636,7 +3636,7 @@
         <v>180</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG23" t="str">
         <f t="shared" si="0"/>
@@ -3656,10 +3656,10 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>175</v>
@@ -3684,7 +3684,7 @@
         <v>193</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>206</v>
@@ -3702,13 +3702,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -3716,10 +3716,10 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>175</v>
@@ -3761,7 +3761,7 @@
         <v>127</v>
       </c>
       <c r="AA25" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AB25" s="5">
         <v>45691</v>
@@ -3776,7 +3776,7 @@
         <v>180</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG25" t="str">
         <f t="shared" si="0"/>
@@ -3796,10 +3796,10 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>175</v>
@@ -3824,7 +3824,7 @@
         <v>194</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AE26" s="4" t="s">
         <v>206</v>
@@ -3842,13 +3842,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3856,10 +3856,10 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>175</v>
@@ -3874,7 +3874,7 @@
         <v>117</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>117</v>
@@ -3918,7 +3918,7 @@
         <v>180</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG27" t="str">
         <f t="shared" si="0"/>
@@ -3938,10 +3938,10 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>175</v>
@@ -3972,7 +3972,7 @@
         <v>195</v>
       </c>
       <c r="AD28" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AE28" s="12" t="s">
         <v>206</v>
@@ -3990,13 +3990,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D29" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -4004,10 +4004,10 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>175</v>
@@ -4022,7 +4022,7 @@
         <v>117</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>117</v>
@@ -4066,7 +4066,7 @@
         <v>180</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG29" t="str">
         <f t="shared" si="0"/>
@@ -4086,10 +4086,10 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>175</v>
@@ -4124,7 +4124,7 @@
         <v>198</v>
       </c>
       <c r="AD30" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AE30" s="4" t="s">
         <v>206</v>
@@ -4142,13 +4142,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D31" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -4156,10 +4156,10 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>175</v>
@@ -4216,7 +4216,7 @@
         <v>180</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG31" t="str">
         <f t="shared" si="0"/>
@@ -4236,10 +4236,10 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>175</v>
@@ -4270,7 +4270,7 @@
         <v>199</v>
       </c>
       <c r="AD32" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE32" s="4" t="s">
         <v>206</v>
@@ -4288,13 +4288,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -4302,10 +4302,10 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>175</v>
@@ -4356,13 +4356,13 @@
         <v>190</v>
       </c>
       <c r="AD33" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AE33" s="4" t="s">
         <v>180</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="str">
         <f t="shared" si="0"/>
@@ -4382,10 +4382,10 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>175</v>
@@ -4416,7 +4416,7 @@
         <v>200</v>
       </c>
       <c r="AD34" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE34" s="4" t="s">
         <v>206</v>
@@ -4434,13 +4434,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D35" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -4448,10 +4448,10 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>175</v>
@@ -4466,7 +4466,7 @@
         <v>117</v>
       </c>
       <c r="P35" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>117</v>
@@ -4510,7 +4510,7 @@
         <v>180</v>
       </c>
       <c r="AF35" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="str">
         <f t="shared" si="1"/>
@@ -4530,10 +4530,10 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>175</v>
@@ -4564,7 +4564,7 @@
         <v>201</v>
       </c>
       <c r="AD36" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE36" s="4" t="s">
         <v>206</v>
@@ -4582,13 +4582,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -4596,10 +4596,10 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>175</v>
@@ -4614,7 +4614,7 @@
         <v>117</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>117</v>
@@ -4656,7 +4656,7 @@
         <v>180</v>
       </c>
       <c r="AF37" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="str">
         <f t="shared" si="1"/>
@@ -4676,10 +4676,10 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>175</v>
@@ -4707,10 +4707,10 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="15"/>
       <c r="AC38" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD38" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="AD38" s="12" t="s">
-        <v>352</v>
       </c>
       <c r="AE38" s="12" t="s">
         <v>206</v>
@@ -4728,13 +4728,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D39" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -4742,10 +4742,10 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>175</v>
@@ -4760,7 +4760,7 @@
         <v>117</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>117</v>
@@ -4804,7 +4804,7 @@
         <v>180</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="str">
         <f t="shared" si="1"/>
@@ -4824,10 +4824,10 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>175</v>
@@ -4855,10 +4855,10 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD40" s="12" t="s">
         <v>356</v>
-      </c>
-      <c r="AD40" s="12" t="s">
-        <v>357</v>
       </c>
       <c r="AE40" s="12" t="s">
         <v>206</v>
@@ -4876,13 +4876,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="D41" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -4890,10 +4890,10 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>175</v>
@@ -4938,13 +4938,13 @@
         <v>202</v>
       </c>
       <c r="AD41" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE41" s="12" t="s">
         <v>180</v>
       </c>
       <c r="AF41" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG41" s="14" t="str">
         <f t="shared" si="1"/>
@@ -4964,10 +4964,10 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>175</v>
@@ -4992,7 +4992,7 @@
         <v>205</v>
       </c>
       <c r="AD42" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE42" s="4" t="s">
         <v>206</v>
@@ -5010,13 +5010,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>348</v>
-      </c>
       <c r="D43" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -5024,10 +5024,10 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>175</v>
@@ -5042,7 +5042,7 @@
         <v>117</v>
       </c>
       <c r="P43" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>117</v>
@@ -5088,7 +5088,7 @@
         <v>180</v>
       </c>
       <c r="AF43" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG43" t="str">
         <f t="shared" si="1"/>
@@ -5100,13 +5100,13 @@
         <v>22</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -5114,10 +5114,10 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>173</v>
@@ -5166,7 +5166,7 @@
         <v>183</v>
       </c>
       <c r="AF44" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG44" t="str">
         <f t="shared" si="1"/>
@@ -5178,13 +5178,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -5192,10 +5192,10 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>173</v>
@@ -5252,7 +5252,7 @@
         <v>64</v>
       </c>
       <c r="AF45" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="str">
         <f t="shared" si="1"/>
@@ -5264,13 +5264,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -5278,10 +5278,10 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>173</v>
@@ -5296,7 +5296,7 @@
         <v>61</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>61</v>
@@ -5340,7 +5340,7 @@
         <v>64</v>
       </c>
       <c r="AF46" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG46" t="str">
         <f t="shared" si="1"/>
@@ -5352,13 +5352,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -5366,10 +5366,10 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>173</v>
@@ -5384,7 +5384,7 @@
         <v>61</v>
       </c>
       <c r="P47" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>61</v>
@@ -5428,7 +5428,7 @@
         <v>64</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="str">
         <f t="shared" si="1"/>
@@ -5440,13 +5440,13 @@
         <v>9</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -5454,10 +5454,10 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>173</v>
@@ -5472,7 +5472,7 @@
         <v>61</v>
       </c>
       <c r="P48" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>61</v>
@@ -5516,7 +5516,7 @@
         <v>64</v>
       </c>
       <c r="AF48" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG48" t="str">
         <f t="shared" si="1"/>
@@ -5528,13 +5528,13 @@
         <v>16</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -5542,10 +5542,10 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>173</v>
@@ -5560,7 +5560,7 @@
         <v>61</v>
       </c>
       <c r="P49" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>61</v>
@@ -5604,7 +5604,7 @@
         <v>64</v>
       </c>
       <c r="AF49" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG49" t="str">
         <f t="shared" si="1"/>
@@ -5616,13 +5616,13 @@
         <v>23</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -5630,10 +5630,10 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>173</v>
@@ -5648,7 +5648,7 @@
         <v>61</v>
       </c>
       <c r="P50" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>61</v>
@@ -5694,7 +5694,7 @@
         <v>64</v>
       </c>
       <c r="AF50" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG50" t="str">
         <f t="shared" si="1"/>
@@ -5706,13 +5706,13 @@
         <v>24</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -5720,10 +5720,10 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>173</v>
@@ -5770,13 +5770,13 @@
         <v>204</v>
       </c>
       <c r="AD51" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AE51" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AF51" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG51" t="str">
         <f t="shared" si="1"/>
@@ -5785,42 +5785,42 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K52" s="4"/>
       <c r="M52" s="4" t="s">
         <v>178</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P52" s="21"/>
       <c r="Q52" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z52" t="s">
         <v>48</v>
       </c>
       <c r="AC52" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AD52" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AE52" t="s">
         <v>48</v>
       </c>
       <c r="AF52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG52" t="str">
         <f t="shared" si="1"/>
@@ -5829,41 +5829,41 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>178</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P53" s="21"/>
       <c r="Q53" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z53" t="s">
         <v>48</v>
       </c>
       <c r="AC53" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AD53" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE53" t="s">
         <v>48</v>
       </c>
       <c r="AF53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG53" t="str">
         <f t="shared" si="1"/>
@@ -5872,64 +5872,64 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>178</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O54" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="P54" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="T54" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="P54" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="R54" s="4" t="s">
+      <c r="X54" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="S54" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="T54" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="X54" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="Y54" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Z54" t="s">
         <v>48</v>
       </c>
       <c r="AA54" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AB54" s="5">
         <v>45698</v>
       </c>
       <c r="AC54" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD54" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AE54" t="s">
         <v>48</v>
       </c>
       <c r="AF54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG54" t="str">
         <f t="shared" si="1"/>
@@ -5938,62 +5938,62 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s">
         <v>178</v>
       </c>
       <c r="N55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P55" s="21"/>
       <c r="Q55" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="X55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z55" t="s">
         <v>48</v>
       </c>
       <c r="AA55" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB55" s="5">
         <v>45698</v>
       </c>
       <c r="AC55" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD55" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AE55" t="s">
         <v>48</v>
       </c>
       <c r="AF55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG55" t="str">
         <f t="shared" si="1"/>
@@ -6002,47 +6002,47 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M56" t="s">
         <v>178</v>
       </c>
       <c r="N56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P56" s="21"/>
       <c r="Q56" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z56" t="s">
         <v>48</v>
       </c>
       <c r="AC56" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AD56" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AE56" t="s">
         <v>48</v>
       </c>
       <c r="AF56" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG56" t="str">
         <f t="shared" si="1"/>
@@ -6051,62 +6051,62 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M57" t="s">
         <v>178</v>
       </c>
       <c r="N57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P57" s="21"/>
       <c r="Q57" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X57" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Z57" t="s">
         <v>48</v>
       </c>
       <c r="AA57" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB57" s="5">
         <v>45700</v>
       </c>
       <c r="AC57" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AD57" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AE57" t="s">
         <v>48</v>
       </c>
       <c r="AF57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG57" t="str">
         <f t="shared" si="1"/>
@@ -6115,47 +6115,47 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M58" t="s">
         <v>178</v>
       </c>
       <c r="N58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P58" s="21"/>
       <c r="Q58" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z58" t="s">
         <v>48</v>
       </c>
       <c r="AC58" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AD58" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AE58" t="s">
         <v>48</v>
       </c>
       <c r="AF58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG58" t="str">
         <f t="shared" si="1"/>
@@ -6164,62 +6164,62 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M59" t="s">
         <v>178</v>
       </c>
       <c r="N59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P59" s="21"/>
       <c r="Q59" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z59" t="s">
         <v>48</v>
       </c>
       <c r="AA59" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB59" s="5">
         <v>45698</v>
       </c>
       <c r="AC59" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD59" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AE59" t="s">
         <v>48</v>
       </c>
       <c r="AF59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="1"/>
@@ -6228,62 +6228,62 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M60" t="s">
         <v>178</v>
       </c>
       <c r="N60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P60" s="21"/>
       <c r="Q60" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z60" t="s">
         <v>48</v>
       </c>
       <c r="AA60" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB60" s="5">
         <v>45698</v>
       </c>
       <c r="AC60" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AD60" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AE60" t="s">
         <v>48</v>
       </c>
       <c r="AF60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG60" t="str">
         <f t="shared" si="1"/>
@@ -6292,62 +6292,62 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M61" t="s">
         <v>178</v>
       </c>
       <c r="N61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P61" s="21"/>
       <c r="Q61" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z61" t="s">
         <v>48</v>
       </c>
       <c r="AA61" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB61" s="5">
         <v>45698</v>
       </c>
       <c r="AC61" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AD61" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AE61" t="s">
         <v>48</v>
       </c>
       <c r="AF61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG61" t="str">
         <f t="shared" si="1"/>
@@ -6356,13 +6356,13 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -6376,50 +6376,50 @@
         <v>178</v>
       </c>
       <c r="N62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P62" s="21"/>
       <c r="Q62" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T62" t="s">
+        <v>309</v>
+      </c>
+      <c r="X62" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y62" t="s">
         <v>310</v>
-      </c>
-      <c r="X62" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>311</v>
       </c>
       <c r="Z62" t="s">
         <v>48</v>
       </c>
       <c r="AA62" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB62" s="5">
         <v>45700</v>
       </c>
       <c r="AC62" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AD62" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AE62" t="s">
         <v>48</v>
       </c>
       <c r="AF62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG62" t="str">
         <f t="shared" si="1"/>
@@ -6428,13 +6428,13 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -6448,50 +6448,50 @@
         <v>178</v>
       </c>
       <c r="N63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P63" s="21"/>
       <c r="Q63" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="X63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z63" t="s">
         <v>48</v>
       </c>
       <c r="AA63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB63" s="5">
         <v>45700</v>
       </c>
       <c r="AC63" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AD63" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE63" t="s">
         <v>48</v>
       </c>
       <c r="AF63" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG63" t="str">
         <f t="shared" si="1"/>
@@ -6500,62 +6500,62 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M64" t="s">
         <v>178</v>
       </c>
       <c r="N64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P64" s="21"/>
       <c r="Q64" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="X64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z64" t="s">
         <v>48</v>
       </c>
       <c r="AA64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB64" s="5">
         <v>45698</v>
       </c>
       <c r="AC64" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD64" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AE64" t="s">
         <v>48</v>
       </c>
       <c r="AF64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG64" t="str">
         <f t="shared" si="1"/>
@@ -6564,62 +6564,62 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M65" t="s">
         <v>178</v>
       </c>
       <c r="N65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P65" s="21"/>
       <c r="Q65" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z65" t="s">
         <v>48</v>
       </c>
       <c r="AA65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB65" s="5">
         <v>45698</v>
       </c>
       <c r="AC65" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD65" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE65" t="s">
         <v>48</v>
       </c>
       <c r="AF65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG65" t="str">
         <f t="shared" si="1"/>
@@ -6628,65 +6628,65 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M66" t="s">
         <v>178</v>
       </c>
       <c r="N66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P66" s="21"/>
       <c r="Q66" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AA66" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB66" s="5">
         <v>45698</v>
       </c>
       <c r="AC66" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD66" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AE66" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AF66" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG66" t="str">
         <f t="shared" ref="AG66:AG72" si="2">CONCATENATE(AC66, " (", AE66, ")")</f>
@@ -6695,13 +6695,13 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -6715,35 +6715,35 @@
         <v>178</v>
       </c>
       <c r="N67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P67" s="21"/>
       <c r="Q67" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z67" t="s">
         <v>48</v>
       </c>
       <c r="AC67" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD67" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AE67" t="s">
         <v>48</v>
       </c>
       <c r="AF67" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG67" t="str">
         <f t="shared" si="2"/>
@@ -6752,13 +6752,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -6772,50 +6772,50 @@
         <v>178</v>
       </c>
       <c r="N68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P68" s="21"/>
       <c r="Q68" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Z68" t="s">
         <v>48</v>
       </c>
       <c r="AA68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB68" s="5">
         <v>45700</v>
       </c>
       <c r="AC68" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AD68" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AE68" t="s">
         <v>48</v>
       </c>
       <c r="AF68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG68" t="str">
         <f t="shared" si="2"/>
@@ -6824,62 +6824,62 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M69" t="s">
         <v>178</v>
       </c>
       <c r="N69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P69" s="21"/>
       <c r="Q69" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Z69" t="s">
         <v>48</v>
       </c>
       <c r="AA69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB69" s="5">
         <v>45700</v>
       </c>
       <c r="AC69" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD69" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AE69" t="s">
         <v>48</v>
       </c>
       <c r="AF69" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG69" t="str">
         <f t="shared" si="2"/>
@@ -6888,62 +6888,62 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M70" t="s">
         <v>178</v>
       </c>
       <c r="N70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P70" s="21"/>
       <c r="Q70" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z70" t="s">
         <v>48</v>
       </c>
       <c r="AA70" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AB70" s="5">
         <v>45698</v>
       </c>
       <c r="AC70" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AD70" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AE70" t="s">
         <v>48</v>
       </c>
       <c r="AF70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="2"/>
@@ -6952,62 +6952,62 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M71" t="s">
         <v>178</v>
       </c>
       <c r="N71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P71" s="21"/>
       <c r="Q71" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z71" t="s">
         <v>48</v>
       </c>
       <c r="AA71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB71" s="5">
         <v>45698</v>
       </c>
       <c r="AC71" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD71" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AE71" t="s">
         <v>48</v>
       </c>
       <c r="AF71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG71" t="str">
         <f t="shared" si="2"/>
@@ -7016,62 +7016,62 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M72" t="s">
         <v>178</v>
       </c>
       <c r="N72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P72" s="21"/>
       <c r="Q72" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T72" t="s">
+        <v>305</v>
+      </c>
+      <c r="X72" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y72" t="s">
         <v>306</v>
-      </c>
-      <c r="X72" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>307</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AA72" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AB72" s="5">
         <v>45700</v>
       </c>
       <c r="AC72" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD72" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE72" t="s">
         <v>48</v>
       </c>
       <c r="AF72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="2"/>
@@ -7079,6 +7079,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AG72" xr:uid="{604718B0-4585-451D-AFD3-6923AD565DA1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC51">
     <sortCondition ref="A2:A51"/>
   </sortState>
